--- a/outputs/ML_Results/dist_LR/Dijon.xlsx
+++ b/outputs/ML_Results/dist_LR/Dijon.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ46532666" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ46837126" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ47159177" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ47479697" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ47788740" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ48102511" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ48416139" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ48729192" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ49038739" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ49350661" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ49658638" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ49973013" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ50286761" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ50600337" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ50910088" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ51236134" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ51609320" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ51911849" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ52220475" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ52531014" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ52856862" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ53174978" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ53488813" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ53836612" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ54167765" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ54477328" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ54788093" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ55100981" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ55423214" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ55741685" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ56060877" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ56379964" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ56708544" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ57014598" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ57331127" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ57642667" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ57957386" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ58277943" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ58578691" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ58893276" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ59210811" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ59525334" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ59833391" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ00195553" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ00587677" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ00918832" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ01237995" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ01549028" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ01870787" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ02193358" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ53141604" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ53563464" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ54014588" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ54525936" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ54972909" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ55404366" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ55809240" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ56205807" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ56656559" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ57051091" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ57414197" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ57825008" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ58182153" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ58592919" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ59054150" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ59480774" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ59900746" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ00365448" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ00782109" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ01196649" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ01592178" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ01975913" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ02380187" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ02782396" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ03238978" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ03645853" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ04029247" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ04446093" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ04879340" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ05295720" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ05712964" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ06143505" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ06581300" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ06964649" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ07359194" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ07837785" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ08261804" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ08684203" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ09079929" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ09464994" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ09910397" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ10334497" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ10707561" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ11077133" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ11498609" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ11898023" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ12276665" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ12703607" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ13121114" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ13562147" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Dijon.xlsx
+++ b/outputs/ML_Results/dist_LR/Dijon.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ53141604" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ53563464" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ54014588" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ54525936" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ54972909" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ55404366" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ55809240" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ56205807" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ56656559" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ57051091" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ57414197" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ57825008" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ58182153" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ58592919" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ59054150" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ59480774" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ59900746" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ00365448" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ00782109" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ01196649" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ01592178" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ01975913" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ02380187" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ02782396" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ03238978" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ03645853" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ04029247" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ04446093" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ04879340" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ05295720" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ05712964" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ06143505" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ06581300" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ06964649" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ07359194" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ07837785" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ08261804" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ08684203" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ09079929" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ09464994" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ09910397" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ10334497" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ10707561" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ11077133" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ11498609" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ11898023" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ12276665" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ12703607" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ13121114" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ13562147" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ12782741" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ13065953" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ13344259" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ13623032" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ13899167" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ14173311" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ14465817" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ14748239" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ15023548" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ15296431" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ15559871" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ15914836" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ16198140" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ16478416" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ16785403" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ17085107" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ17369950" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ17646002" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ17928282" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ18202361" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ18508773" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ18791064" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ19061452" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ19332335" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ19605778" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ19876954" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ20145161" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ20403575" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ20679925" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ20944300" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ21212963" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ21479464" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ21762432" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ22026784" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ22348173" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ22613533" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ22877939" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ23155293" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ23412206" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ23677963" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ23942119" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ24210011" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ24495216" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ24769490" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ25061124" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ25339391" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ25610293" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ25893444" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ26188739" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ26463359" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1686.275057667852</v>
+        <v>-1635.17439314458</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3348367604415021</v>
+        <v>0.334155914534813</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>398.8080530593509</v>
+        <v>400.5199354288861</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001769084836343511</v>
+        <v>0.001331071918236216</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>302.0015351167791</v>
+        <v>296.679715586288</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001400612550566408</v>
+        <v>4.122687170186476e-05</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1003944109434169</v>
+        <v>0.1123193635296478</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4323925697594628</v>
+        <v>0.3074265338902478</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.486816531136376e-05</v>
+        <v>-6.486644499535243e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6282323334697868</v>
+        <v>0.6213044035679702</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.86365119752401</v>
+        <v>-14.89840976906055</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1662203576555542</v>
+        <v>0.1568122858747257</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.98371988240031</v>
+        <v>16.96936198503804</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05562552900740041</v>
+        <v>0.05101819180640256</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2459.779314328051</v>
+        <v>2490.413881711563</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007705740375899465</v>
+        <v>0.00527724831331242</v>
       </c>
     </row>
     <row r="10">
@@ -611,49 +611,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>548.4335107953516</v>
+        <v>441.4349236908547</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6518939437229989</v>
+        <v>0.67712022867163</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>824.9204188256335</v>
+        <v>-356.7917008268396</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8466383072611141</v>
+        <v>0.8503601293320939</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-207.0920240435335</v>
+        <v>32.03598124666368</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9206292342341282</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>31.65111678008265</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.108071944098003</v>
+        <v>0.09553764117632008</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,10 +686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1334.44341467971</v>
+        <v>-1298.465103606657</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4613112395324114</v>
+        <v>0.4672787983765627</v>
       </c>
     </row>
     <row r="3">
@@ -712,10 +699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>343.3998432697766</v>
+        <v>352.5517142754777</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001301283827102567</v>
+        <v>0.0007602771154674063</v>
       </c>
     </row>
     <row r="4">
@@ -725,10 +712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329.0138281477409</v>
+        <v>318.886691659602</v>
       </c>
       <c r="C4" t="n">
-        <v>6.480439650043209e-05</v>
+        <v>5.069252686782229e-05</v>
       </c>
     </row>
     <row r="5">
@@ -738,10 +725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0339145991748569</v>
+        <v>0.05695990978909848</v>
       </c>
       <c r="C5" t="n">
-        <v>0.770833351862437</v>
+        <v>0.6007198440728201</v>
       </c>
     </row>
     <row r="6">
@@ -751,10 +738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.448208668322129e-05</v>
+        <v>-7.567969500615554e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4852513417947165</v>
+        <v>0.52303676549181</v>
       </c>
     </row>
     <row r="7">
@@ -764,10 +751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.22108282271839</v>
+        <v>-8.476656980692006</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5077328872104135</v>
+        <v>0.4888223017983105</v>
       </c>
     </row>
     <row r="8">
@@ -777,10 +764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.15086849655589</v>
+        <v>19.02227011929322</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01998848020191897</v>
+        <v>0.01899465476336892</v>
       </c>
     </row>
     <row r="9">
@@ -790,10 +777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1885.118105620745</v>
+        <v>2002.380836816363</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06272198111249036</v>
+        <v>0.04212458036636756</v>
       </c>
     </row>
     <row r="10">
@@ -803,49 +790,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>428.648223591149</v>
+        <v>304.6366210648853</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6968630522322456</v>
+        <v>0.7751118081664203</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2386.23069136968</v>
+        <v>831.7120521075303</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5454049642027454</v>
+        <v>0.6721611589403602</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1067.580980624516</v>
+        <v>20.40164016771774</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5991600379036106</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>19.18681748246382</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3381590635178658</v>
+        <v>0.3002563809776577</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,10 +865,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1135.674370927929</v>
+        <v>-1059.509462928065</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5595030997560665</v>
+        <v>0.5790551787357641</v>
       </c>
     </row>
     <row r="3">
@@ -904,10 +878,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>353.0692595751107</v>
+        <v>355.7461798002372</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001238451659068713</v>
+        <v>0.0009425103269412994</v>
       </c>
     </row>
     <row r="4">
@@ -917,10 +891,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.8264831103427</v>
+        <v>417.2816129210418</v>
       </c>
       <c r="C4" t="n">
-        <v>2.335422044805536e-06</v>
+        <v>1.129176450727523e-06</v>
       </c>
     </row>
     <row r="5">
@@ -930,10 +904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06942403168283828</v>
+        <v>0.1002159695840962</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5985072942194785</v>
+        <v>0.3871040987929638</v>
       </c>
     </row>
     <row r="6">
@@ -943,10 +917,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001375091137686415</v>
+        <v>-0.0001397222373051205</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3630259104650029</v>
+        <v>0.3478626124885384</v>
       </c>
     </row>
     <row r="7">
@@ -956,10 +930,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.179594066997609</v>
+        <v>-5.875161421505062</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6279176966397599</v>
+        <v>0.6394001953825348</v>
       </c>
     </row>
     <row r="8">
@@ -969,10 +943,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.873137516311971</v>
+        <v>8.449270997925204</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3712327420524626</v>
+        <v>0.3264041138463694</v>
       </c>
     </row>
     <row r="9">
@@ -982,10 +956,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2341.74561513417</v>
+        <v>2492.182704883548</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02343894818974419</v>
+        <v>0.01110858285490759</v>
       </c>
     </row>
     <row r="10">
@@ -995,49 +969,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>885.8065737527577</v>
+        <v>704.6328076222699</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4513569323377605</v>
+        <v>0.5223276357800105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2560.996753517977</v>
+        <v>3009.063125291463</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6111077912934102</v>
+        <v>0.1633501803070356</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3198.863848303019</v>
+        <v>8.527817549690269</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1513282605086303</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9.648140579285553</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6651539497305765</v>
+        <v>0.6961383911551372</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,10 +1044,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2539.364355043828</v>
+        <v>-2553.281465687914</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2712469499099472</v>
+        <v>0.2616842089425289</v>
       </c>
     </row>
     <row r="3">
@@ -1096,10 +1057,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223.5455814306468</v>
+        <v>229.9553177706102</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05959976130488098</v>
+        <v>0.04856807581395917</v>
       </c>
     </row>
     <row r="4">
@@ -1109,10 +1070,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>384.6568682837822</v>
+        <v>375.0712389892912</v>
       </c>
       <c r="C4" t="n">
-        <v>3.373384947599268e-05</v>
+        <v>2.451653550708902e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1122,10 +1083,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05613616628434306</v>
+        <v>0.08253614963085421</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7011538364350087</v>
+        <v>0.5452329438223815</v>
       </c>
     </row>
     <row r="6">
@@ -1135,10 +1096,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001326543809857878</v>
+        <v>-0.0001332659915838085</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3485457019367976</v>
+        <v>0.3393230133388226</v>
       </c>
     </row>
     <row r="7">
@@ -1148,10 +1109,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.399499774923687</v>
+        <v>-1.112793312318946</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9231529916802834</v>
+        <v>0.9379307253711057</v>
       </c>
     </row>
     <row r="8">
@@ -1161,10 +1122,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25.3692708733915</v>
+        <v>25.90837714621762</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0193051032019286</v>
+        <v>0.01509071551468503</v>
       </c>
     </row>
     <row r="9">
@@ -1174,10 +1135,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2020.602980114442</v>
+        <v>2191.822244445384</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06899577623988823</v>
+        <v>0.03816428664496022</v>
       </c>
     </row>
     <row r="10">
@@ -1187,49 +1148,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>734.738681489077</v>
+        <v>584.7637441056206</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6203712667426753</v>
+        <v>0.683772295150608</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2482.717469098078</v>
+        <v>273.1829883792725</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5840493369485269</v>
+        <v>0.9143282076317958</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>653.3603922772891</v>
+        <v>25.58466588623665</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8066191357831529</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>24.43686775755569</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3249214334227274</v>
+        <v>0.2944178641605127</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,10 +1223,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-259.6422493189566</v>
+        <v>-228.0227043525338</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9134013193409528</v>
+        <v>0.9219886190262372</v>
       </c>
     </row>
     <row r="3">
@@ -1288,10 +1236,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>257.2676474083605</v>
+        <v>257.4386012115446</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04121060915501353</v>
+        <v>0.03707407959895666</v>
       </c>
     </row>
     <row r="4">
@@ -1301,10 +1249,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>360.8419897129844</v>
+        <v>358.036624062432</v>
       </c>
       <c r="C4" t="n">
-        <v>7.14318813796566e-05</v>
+        <v>3.475442680342436e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1314,10 +1262,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05538576006076723</v>
+        <v>-0.05100359505934926</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7507625940571073</v>
+        <v>0.7613987363622249</v>
       </c>
     </row>
     <row r="6">
@@ -1327,10 +1275,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.611636088660929e-05</v>
+        <v>7.016687407673881e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7423403922418086</v>
+        <v>0.7189368251233641</v>
       </c>
     </row>
     <row r="7">
@@ -1340,10 +1288,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.921824188782416</v>
+        <v>-8.978690459189856</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5170091473943018</v>
+        <v>0.5055344168516633</v>
       </c>
     </row>
     <row r="8">
@@ -1353,10 +1301,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.26373531860826</v>
+        <v>14.28503449736911</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1487632451806639</v>
+        <v>0.1399414093037031</v>
       </c>
     </row>
     <row r="9">
@@ -1366,10 +1314,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27.47096128713747</v>
+        <v>23.64072468987251</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9904773682823806</v>
+        <v>0.9916353742016547</v>
       </c>
     </row>
     <row r="10">
@@ -1379,49 +1327,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1490.772106307303</v>
+        <v>1460.991113067166</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2977337552807088</v>
+        <v>0.2918646029586245</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>593.2513069744664</v>
+        <v>1084.390056072421</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8900439775422209</v>
+        <v>0.6740077651897562</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1124.16657700319</v>
+        <v>6.508233674163421</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6710690181292824</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6.603960074580826</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7897121348696947</v>
+        <v>0.7884285874854474</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +1370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1467,10 +1402,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-256.6025137092033</v>
+        <v>-222.1710573331432</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8977417728075635</v>
+        <v>0.9094624122550083</v>
       </c>
     </row>
     <row r="3">
@@ -1480,10 +1415,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>342.289496037572</v>
+        <v>345.3099435697054</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001870349228000168</v>
+        <v>0.001311287332761454</v>
       </c>
     </row>
     <row r="4">
@@ -1493,10 +1428,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.4320609991673</v>
+        <v>283.9395325158491</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004126418406739822</v>
+        <v>0.0001936287588045745</v>
       </c>
     </row>
     <row r="5">
@@ -1506,10 +1441,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1080899313558025</v>
+        <v>0.1199201777322002</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3774624902978387</v>
+        <v>0.2820842147733514</v>
       </c>
     </row>
     <row r="6">
@@ -1519,10 +1454,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001330008678054858</v>
+        <v>-0.0001311756228408715</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2960703689622659</v>
+        <v>0.2924372703167101</v>
       </c>
     </row>
     <row r="7">
@@ -1532,10 +1467,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.60713204897578</v>
+        <v>-12.65117760657505</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2412946632257904</v>
+        <v>0.2305265755488319</v>
       </c>
     </row>
     <row r="8">
@@ -1545,10 +1480,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.27905853699485</v>
+        <v>17.35823061755725</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03554839158804017</v>
+        <v>0.03123754010019618</v>
       </c>
     </row>
     <row r="9">
@@ -1558,10 +1493,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1943.414672760433</v>
+        <v>2001.86054110399</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03446980981928003</v>
+        <v>0.02221979993640263</v>
       </c>
     </row>
     <row r="10">
@@ -1571,49 +1506,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>197.326537049963</v>
+        <v>109.772310539387</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8650572796309732</v>
+        <v>0.9196428825810024</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1047.974114153363</v>
+        <v>-1185.057288766464</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7979475924538462</v>
+        <v>0.5603217982600552</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1055.636633287926</v>
+        <v>13.55523721371847</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6208366369572937</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>13.17568336072343</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5134714045213278</v>
+        <v>0.4919926815772849</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1659,10 +1581,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2723.360054938452</v>
+        <v>-2701.688990140701</v>
       </c>
       <c r="C2" t="n">
-        <v>0.202070897139727</v>
+        <v>0.1987756448800019</v>
       </c>
     </row>
     <row r="3">
@@ -1672,10 +1594,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>253.2068379977362</v>
+        <v>258.7186551705497</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009902144926657371</v>
+        <v>0.007284962698713708</v>
       </c>
     </row>
     <row r="4">
@@ -1685,10 +1607,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>416.1796416538313</v>
+        <v>406.7814097364901</v>
       </c>
       <c r="C4" t="n">
-        <v>1.010233518167061e-05</v>
+        <v>6.721775122670244e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1698,10 +1620,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1293323409873814</v>
+        <v>0.1511166612101958</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2341769061872855</v>
+        <v>0.1309791394689196</v>
       </c>
     </row>
     <row r="6">
@@ -1711,10 +1633,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001596180305941295</v>
+        <v>-0.0001554912616863206</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1730838979898382</v>
+        <v>0.1766154151962651</v>
       </c>
     </row>
     <row r="7">
@@ -1724,10 +1646,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.598818224508662</v>
+        <v>-7.775091210404725</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5213939738705666</v>
+        <v>0.5054631146302406</v>
       </c>
     </row>
     <row r="8">
@@ -1737,10 +1659,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.43524239518549</v>
+        <v>20.68484187416763</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02532078411035515</v>
+        <v>0.02151605386993051</v>
       </c>
     </row>
     <row r="9">
@@ -1750,10 +1672,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2171.283140962164</v>
+        <v>2286.319736624453</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01809670665034362</v>
+        <v>0.009803076969908375</v>
       </c>
     </row>
     <row r="10">
@@ -1763,49 +1685,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>765.6139914032583</v>
+        <v>651.9357942019633</v>
       </c>
       <c r="C10" t="n">
-        <v>0.451944990798451</v>
+        <v>0.505729764463135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2001.104457115507</v>
+        <v>1361.735532570926</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5904231344942314</v>
+        <v>0.4789485017308566</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1448.254414952497</v>
+        <v>35.69838942729717</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4599138330396365</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>35.49153450792687</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.09860695729486095</v>
+        <v>0.09177499412936517</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1851,10 +1760,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-901.8092340100429</v>
+        <v>-943.5294258597896</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6569089771974398</v>
+        <v>0.6354377181675748</v>
       </c>
     </row>
     <row r="3">
@@ -1864,10 +1773,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>305.9641726898088</v>
+        <v>302.5463228128962</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002538556973111983</v>
+        <v>0.002197010068525838</v>
       </c>
     </row>
     <row r="4">
@@ -1877,10 +1786,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>405.9454991313903</v>
+        <v>410.6630840607287</v>
       </c>
       <c r="C4" t="n">
-        <v>2.96470718751278e-06</v>
+        <v>1.143715720472167e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1890,10 +1799,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08822847125478289</v>
+        <v>0.07405582492636675</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4606315972870195</v>
+        <v>0.5007670378913098</v>
       </c>
     </row>
     <row r="6">
@@ -1903,10 +1812,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001174187100428279</v>
+        <v>-0.000119641795001035</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3811148235190053</v>
+        <v>0.3629570942835174</v>
       </c>
     </row>
     <row r="7">
@@ -1916,10 +1825,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.712854593291127</v>
+        <v>-1.72883441608969</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8866376197174757</v>
+        <v>0.883486147265047</v>
       </c>
     </row>
     <row r="8">
@@ -1929,10 +1838,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.66918726204821</v>
+        <v>13.68371496638188</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1094088987589109</v>
+        <v>0.1026107859008533</v>
       </c>
     </row>
     <row r="9">
@@ -1942,10 +1851,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2300.886335712059</v>
+        <v>2227.718491238851</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02235093209654744</v>
+        <v>0.02070693068043918</v>
       </c>
     </row>
     <row r="10">
@@ -1955,49 +1864,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>487.8163172054692</v>
+        <v>567.6891852391018</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6663544580786409</v>
+        <v>0.6018123065081282</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1396.077478400529</v>
+        <v>-12.48545424922486</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7314443581535581</v>
+        <v>0.9960152887294669</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-31.95910853126952</v>
+        <v>7.729222506147153</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9899881947287745</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7.358748071689291</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7521921210641598</v>
+        <v>0.7352833612568186</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +1907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2043,10 +1939,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2225.71238329862</v>
+        <v>-1730.149008135034</v>
       </c>
       <c r="C2" t="n">
-        <v>0.312698272909073</v>
+        <v>0.4327148135657185</v>
       </c>
     </row>
     <row r="3">
@@ -2056,10 +1952,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>212.545555499429</v>
+        <v>232.2261386097701</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07317737048482593</v>
+        <v>0.05371394590971492</v>
       </c>
     </row>
     <row r="4">
@@ -2069,10 +1965,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>413.0288594827689</v>
+        <v>355.7830553292274</v>
       </c>
       <c r="C4" t="n">
-        <v>5.191430250941433e-05</v>
+        <v>7.104535420441827e-05</v>
       </c>
     </row>
     <row r="5">
@@ -2082,10 +1978,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03008414469140042</v>
+        <v>0.07176982928710429</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8393826283521051</v>
+        <v>0.5858037414143233</v>
       </c>
     </row>
     <row r="6">
@@ -2095,10 +1991,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.645915435847706e-05</v>
+        <v>-0.0001077074170755533</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5312741369606486</v>
+        <v>0.4418911533696617</v>
       </c>
     </row>
     <row r="7">
@@ -2108,10 +2004,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.580385494916904</v>
+        <v>-7.282485875880582</v>
       </c>
       <c r="C7" t="n">
-        <v>0.67073067506767</v>
+        <v>0.5847538649231001</v>
       </c>
     </row>
     <row r="8">
@@ -2121,10 +2017,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.12864367551854</v>
+        <v>22.31238900092923</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03645012113745141</v>
+        <v>0.02974509818849574</v>
       </c>
     </row>
     <row r="9">
@@ -2134,10 +2030,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1442.943514280312</v>
+        <v>1972.345264680821</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1827871196034318</v>
+        <v>0.05980109011698184</v>
       </c>
     </row>
     <row r="10">
@@ -2147,49 +2043,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1578.880431426271</v>
+        <v>1015.153322688049</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2823409020987113</v>
+        <v>0.4764885341423413</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6894.934202331136</v>
+        <v>1102.738312054724</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1739881214828237</v>
+        <v>0.6235847220340266</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1923.059203526265</v>
+        <v>19.56788609040748</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4021862651415479</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>23.17921623628592</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.309544452829701</v>
+        <v>0.3948374555595481</v>
       </c>
     </row>
   </sheetData>
@@ -2203,7 +2086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2235,10 +2118,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2093.334986010732</v>
+        <v>-2092.413445239019</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1850322236627964</v>
+        <v>0.1781614665735277</v>
       </c>
     </row>
     <row r="3">
@@ -2248,10 +2131,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>381.4171457018214</v>
+        <v>387.9610695324661</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001092955201395527</v>
+        <v>5.670910450666567e-05</v>
       </c>
     </row>
     <row r="4">
@@ -2261,10 +2144,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>283.4378863011941</v>
+        <v>276.9109591698772</v>
       </c>
       <c r="C4" t="n">
-        <v>7.080058096210659e-05</v>
+        <v>5.0564957570551e-05</v>
       </c>
     </row>
     <row r="5">
@@ -2274,10 +2157,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09885302301586535</v>
+        <v>0.1152301741328364</v>
       </c>
       <c r="C5" t="n">
-        <v>0.339273439369369</v>
+        <v>0.2320529137886368</v>
       </c>
     </row>
     <row r="6">
@@ -2287,10 +2170,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001189508921361942</v>
+        <v>-0.0001170812551834585</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2664116568561241</v>
+        <v>0.2657755373150721</v>
       </c>
     </row>
     <row r="7">
@@ -2300,10 +2183,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.03488210120594</v>
+        <v>-12.83532554146668</v>
       </c>
       <c r="C7" t="n">
-        <v>0.204794749122344</v>
+        <v>0.2038702319564457</v>
       </c>
     </row>
     <row r="8">
@@ -2313,10 +2196,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.4459977442441</v>
+        <v>23.49311959379882</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001901927478702356</v>
+        <v>0.001559712419239491</v>
       </c>
     </row>
     <row r="9">
@@ -2326,10 +2209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2481.377448628798</v>
+        <v>2587.573411297195</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00325181896977947</v>
+        <v>0.001316010368296212</v>
       </c>
     </row>
     <row r="10">
@@ -2339,49 +2222,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>456.9179966479801</v>
+        <v>353.9499838098081</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6220084559601763</v>
+        <v>0.6895891016602684</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1688.235198564998</v>
+        <v>-151.2770288419142</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6332724231890612</v>
+        <v>0.9274045708033074</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>106.7175077627817</v>
+        <v>31.76658430143604</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9519549554096082</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>30.61860987333094</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.08499098182717586</v>
+        <v>0.06741372301067729</v>
       </c>
     </row>
   </sheetData>
@@ -2395,7 +2265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2427,10 +2297,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1409.393894995081</v>
+        <v>-1410.307959558622</v>
       </c>
       <c r="C2" t="n">
-        <v>0.508372664508318</v>
+        <v>0.4991793116609909</v>
       </c>
     </row>
     <row r="3">
@@ -2440,10 +2310,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>243.3183188102808</v>
+        <v>243.612683379359</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01954600011568357</v>
+        <v>0.01652189757976678</v>
       </c>
     </row>
     <row r="4">
@@ -2453,10 +2323,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>397.9474899756266</v>
+        <v>398.4557289121425</v>
       </c>
       <c r="C4" t="n">
-        <v>7.747586989051406e-06</v>
+        <v>3.169482119038218e-06</v>
       </c>
     </row>
     <row r="5">
@@ -2466,10 +2336,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1053310935762319</v>
+        <v>0.1036567107872042</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4983231520889556</v>
+        <v>0.4663550771414214</v>
       </c>
     </row>
     <row r="6">
@@ -2479,10 +2349,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.759545467906606e-05</v>
+        <v>-7.775743459304137e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6169678884953111</v>
+        <v>0.6086263460850749</v>
       </c>
     </row>
     <row r="7">
@@ -2492,10 +2362,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.15518953371096</v>
+        <v>-14.14926085297785</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2843562946706842</v>
+        <v>0.2744961389065193</v>
       </c>
     </row>
     <row r="8">
@@ -2505,10 +2375,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.84342707051983</v>
+        <v>16.81035462384034</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05538515112374109</v>
+        <v>0.04907397119345951</v>
       </c>
     </row>
     <row r="9">
@@ -2518,10 +2388,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2155.462333472654</v>
+        <v>2149.878984481377</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04412173600551826</v>
+        <v>0.03736405547168692</v>
       </c>
     </row>
     <row r="10">
@@ -2531,49 +2401,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1020.602077418754</v>
+        <v>1030.742194232766</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4116912718689567</v>
+        <v>0.3793428934953859</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-133.3324275222676</v>
+        <v>2141.234705412731</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9759286330065359</v>
+        <v>0.3158500495369408</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2140.451706858912</v>
+        <v>18.40985427715178</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3261261080109346</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>18.44121358067504</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3981315077893232</v>
+        <v>0.3885435784853783</v>
       </c>
     </row>
   </sheetData>
@@ -2587,7 +2444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2619,10 +2476,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>137.3480555397909</v>
+        <v>92.68694412255172</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9555336245878827</v>
+        <v>0.9695283668864363</v>
       </c>
     </row>
     <row r="3">
@@ -2632,10 +2489,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>243.0294842065749</v>
+        <v>248.8266730438515</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03450686342879673</v>
+        <v>0.02765687409544343</v>
       </c>
     </row>
     <row r="4">
@@ -2645,10 +2502,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>326.5587628089753</v>
+        <v>317.5335976889563</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002589100258697712</v>
+        <v>0.000216298073077438</v>
       </c>
     </row>
     <row r="5">
@@ -2658,10 +2515,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004799488306089561</v>
+        <v>0.02992847802390614</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9720955777654273</v>
+        <v>0.8143935204332982</v>
       </c>
     </row>
     <row r="6">
@@ -2671,10 +2528,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.763536213539079e-05</v>
+        <v>-9.758932984766538e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.466561975400882</v>
+        <v>0.4602515060710154</v>
       </c>
     </row>
     <row r="7">
@@ -2684,10 +2541,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.711374573334453</v>
+        <v>-9.270467391931632</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4373562419717441</v>
+        <v>0.4506746866146843</v>
       </c>
     </row>
     <row r="8">
@@ -2697,10 +2554,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.44000258325339</v>
+        <v>13.18058651582494</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2176825077866711</v>
+        <v>0.1818842982101957</v>
       </c>
     </row>
     <row r="9">
@@ -2710,10 +2567,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1864.544738863643</v>
+        <v>2015.222612129626</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08050049863482951</v>
+        <v>0.04836829731343845</v>
       </c>
     </row>
     <row r="10">
@@ -2723,49 +2580,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>925.9211641692968</v>
+        <v>770.0274684826405</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4581416249090771</v>
+        <v>0.5193956534422208</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2423.725915572346</v>
+        <v>-533.2786096645145</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5857826577032164</v>
+        <v>0.8464606477479717</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-284.3823532344368</v>
+        <v>11.97191075590034</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9199670904257017</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>11.04696547020384</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6464907629900734</v>
+        <v>0.6132938078936245</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2811,10 +2655,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-669.2871318429643</v>
+        <v>-777.5256542362804</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8150829973192391</v>
+        <v>0.7835616893006236</v>
       </c>
     </row>
     <row r="3">
@@ -2824,10 +2668,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>289.806984671867</v>
+        <v>293.6635661061256</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03373424199418952</v>
+        <v>0.02972112419310073</v>
       </c>
     </row>
     <row r="4">
@@ -2837,10 +2681,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>374.4844776698863</v>
+        <v>362.6491084118672</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001160819041950746</v>
+        <v>0.0001098055711560781</v>
       </c>
     </row>
     <row r="5">
@@ -2850,10 +2694,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004085699007382315</v>
+        <v>0.01891503779906079</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9788431880101751</v>
+        <v>0.8992048260452425</v>
       </c>
     </row>
     <row r="6">
@@ -2863,10 +2707,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.213611310320057e-05</v>
+        <v>-2.545403012396696e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7840231062869191</v>
+        <v>0.8903923135595364</v>
       </c>
     </row>
     <row r="7">
@@ -2876,10 +2720,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.02796950608597</v>
+        <v>-8.359980219300738</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5143621649764372</v>
+        <v>0.5408517538141226</v>
       </c>
     </row>
     <row r="8">
@@ -2889,10 +2733,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.14081647442734</v>
+        <v>12.81504551424069</v>
       </c>
       <c r="C8" t="n">
-        <v>0.355667144083489</v>
+        <v>0.2756742042914579</v>
       </c>
     </row>
     <row r="9">
@@ -2902,10 +2746,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>852.0496346750788</v>
+        <v>935.3212820342742</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6554635580382768</v>
+        <v>0.6203895555405664</v>
       </c>
     </row>
     <row r="10">
@@ -2915,49 +2759,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1219.062343014857</v>
+        <v>1067.783381900068</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3678052894571151</v>
+        <v>0.4191253820151511</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3451.703418324221</v>
+        <v>1235.801079624445</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4705041622385016</v>
+        <v>0.6488884518083269</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1660.075124950607</v>
+        <v>16.09893541553438</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5542805969204423</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>14.87810079222777</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5752041736988116</v>
+        <v>0.5397006686171485</v>
       </c>
     </row>
   </sheetData>
@@ -2971,7 +2802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3003,10 +2834,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1909.308935018103</v>
+        <v>-1888.248881334838</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4176105012561349</v>
+        <v>0.4236758289607259</v>
       </c>
     </row>
     <row r="3">
@@ -3016,10 +2847,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>336.064887957878</v>
+        <v>328.9027989169599</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003500625988996175</v>
+        <v>0.004031170488616798</v>
       </c>
     </row>
     <row r="4">
@@ -3029,10 +2860,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>405.6447972688744</v>
+        <v>382.06564317994</v>
       </c>
       <c r="C4" t="n">
-        <v>1.896093503534548e-05</v>
+        <v>2.170381567534084e-05</v>
       </c>
     </row>
     <row r="5">
@@ -3042,10 +2873,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0008615825296215962</v>
+        <v>0.0500286995844767</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9949372925619558</v>
+        <v>0.6947781321542517</v>
       </c>
     </row>
     <row r="6">
@@ -3055,10 +2886,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.358507469337947e-05</v>
+        <v>-7.40378169364859e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5763767885902429</v>
+        <v>0.6206235377957627</v>
       </c>
     </row>
     <row r="7">
@@ -3068,10 +2899,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.875197653099189</v>
+        <v>-5.188956453217124</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7169649742594696</v>
+        <v>0.7002729902071185</v>
       </c>
     </row>
     <row r="8">
@@ -3081,10 +2912,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.62581923504702</v>
+        <v>17.36496391027574</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1273585503469228</v>
+        <v>0.08821857190727153</v>
       </c>
     </row>
     <row r="9">
@@ -3094,10 +2925,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2162.306727417779</v>
+        <v>2316.287670798072</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04239379000249356</v>
+        <v>0.0292058046684256</v>
       </c>
     </row>
     <row r="10">
@@ -3107,49 +2938,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1197.696168346241</v>
+        <v>907.0997840184153</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4013736968772003</v>
+        <v>0.5167734015187984</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4676.825614041985</v>
+        <v>-145.1794138193309</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2954305260935755</v>
+        <v>0.9531335706900099</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>84.42354929726753</v>
+        <v>25.06150514082833</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9727738054544064</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>23.89887962100535</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3326313674292261</v>
+        <v>0.3105945615602602</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +2981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3195,10 +3013,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1207.279175704065</v>
+        <v>-1204.202356450369</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6363450279925817</v>
+        <v>0.632550263498701</v>
       </c>
     </row>
     <row r="3">
@@ -3208,10 +3026,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>230.7634118344944</v>
+        <v>240.2861873993286</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04955574871427407</v>
+        <v>0.03680739394529638</v>
       </c>
     </row>
     <row r="4">
@@ -3221,10 +3039,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367.3757843372483</v>
+        <v>354.6387951439148</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001405004693419987</v>
+        <v>0.0001081010622100537</v>
       </c>
     </row>
     <row r="5">
@@ -3234,10 +3052,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05000364291223847</v>
+        <v>0.08238491179941718</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7631181464638415</v>
+        <v>0.5936616648877733</v>
       </c>
     </row>
     <row r="6">
@@ -3247,10 +3065,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001563202625186681</v>
+        <v>-0.0001515849540565566</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3161750711318022</v>
+        <v>0.3233949204853793</v>
       </c>
     </row>
     <row r="7">
@@ -3260,10 +3078,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.482132233967423</v>
+        <v>-4.281902422810489</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7429664368231744</v>
+        <v>0.750683444101325</v>
       </c>
     </row>
     <row r="8">
@@ -3273,10 +3091,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.66323469560724</v>
+        <v>19.17360451653322</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05604603695890978</v>
+        <v>0.04602830211723567</v>
       </c>
     </row>
     <row r="9">
@@ -3286,10 +3104,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1844.025069990278</v>
+        <v>2003.857121500519</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08448693475057614</v>
+        <v>0.05037910510596292</v>
       </c>
     </row>
     <row r="10">
@@ -3299,49 +3117,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>701.5832862128209</v>
+        <v>495.9588308689008</v>
       </c>
       <c r="C10" t="n">
-        <v>0.638338500589251</v>
+        <v>0.7284529615312274</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2581.179585349333</v>
+        <v>-430.2449224406773</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5628152749531368</v>
+        <v>0.8581943972353747</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-172.2862674424405</v>
+        <v>20.15824996830227</v>
       </c>
       <c r="C12" t="n">
-        <v>0.944630001259789</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>19.71444517901745</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4598996843193046</v>
+        <v>0.4435251353200464</v>
       </c>
     </row>
   </sheetData>
@@ -3355,7 +3160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3387,10 +3192,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-657.1842020890435</v>
+        <v>-605.4780715732413</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7606873932935795</v>
+        <v>0.7788148713415597</v>
       </c>
     </row>
     <row r="3">
@@ -3400,10 +3205,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>319.3844865402323</v>
+        <v>327.8613499453799</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009988650594013831</v>
+        <v>0.008047795664843203</v>
       </c>
     </row>
     <row r="4">
@@ -3413,10 +3218,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.7805833974855</v>
+        <v>354.6775371002699</v>
       </c>
       <c r="C4" t="n">
-        <v>2.278891383355249e-05</v>
+        <v>2.072883056994056e-05</v>
       </c>
     </row>
     <row r="5">
@@ -3426,10 +3231,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1465365355585571</v>
+        <v>-0.1058300502991374</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3909882521580549</v>
+        <v>0.5213885314219986</v>
       </c>
     </row>
     <row r="6">
@@ -3439,10 +3244,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.822543084586736e-05</v>
+        <v>5.243655991252151e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8178070832138551</v>
+        <v>0.7511024588969629</v>
       </c>
     </row>
     <row r="7">
@@ -3452,10 +3257,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.729545008639104</v>
+        <v>4.246350766428636</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8557682048059359</v>
+        <v>0.7762279386450759</v>
       </c>
     </row>
     <row r="8">
@@ -3465,10 +3270,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.21764084450719</v>
+        <v>13.73767914728225</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1697723931017961</v>
+        <v>0.1184607338478666</v>
       </c>
     </row>
     <row r="9">
@@ -3478,10 +3283,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-991.5907710144356</v>
+        <v>-803.7991621907295</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6328100579544396</v>
+        <v>0.6969569628191332</v>
       </c>
     </row>
     <row r="10">
@@ -3491,49 +3296,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1364.815591595317</v>
+        <v>1026.862248966914</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2921807857374377</v>
+        <v>0.4084474971530445</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4920.452397080408</v>
+        <v>959.5489898856176</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3272452113604938</v>
+        <v>0.7146176815530432</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1670.277464466668</v>
+        <v>8.094011211866587</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5405149994120633</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7.446084951184858</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7525641827622437</v>
+        <v>0.7316606102476633</v>
       </c>
     </row>
   </sheetData>
@@ -3547,7 +3339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3579,10 +3371,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1581.472516627813</v>
+        <v>-1754.639362139584</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3753258073340702</v>
+        <v>0.3170102369789071</v>
       </c>
     </row>
     <row r="3">
@@ -3592,10 +3384,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>401.7240698597193</v>
+        <v>387.6323658367679</v>
       </c>
       <c r="C3" t="n">
-        <v>9.230099476494717e-05</v>
+        <v>8.458420516943509e-05</v>
       </c>
     </row>
     <row r="4">
@@ -3605,10 +3397,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>337.4999304788214</v>
+        <v>349.7472162398412</v>
       </c>
       <c r="C4" t="n">
-        <v>4.837232140747553e-05</v>
+        <v>1.590560788271069e-05</v>
       </c>
     </row>
     <row r="5">
@@ -3618,10 +3410,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1021871828888488</v>
+        <v>0.07857571712688233</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3325320813351491</v>
+        <v>0.4266992311618644</v>
       </c>
     </row>
     <row r="6">
@@ -3631,10 +3423,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.84110191137658e-05</v>
+        <v>-4.068647395686145e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8078924789572968</v>
+        <v>0.722473835032883</v>
       </c>
     </row>
     <row r="7">
@@ -3644,10 +3436,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.1963864557529</v>
+        <v>-12.66889180116874</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2060446381037603</v>
+        <v>0.2183503975024496</v>
       </c>
     </row>
     <row r="8">
@@ -3657,10 +3449,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.90377509281956</v>
+        <v>12.54280494812932</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1515242994625019</v>
+        <v>0.1255470514918875</v>
       </c>
     </row>
     <row r="9">
@@ -3670,10 +3462,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2475.871844348905</v>
+        <v>2311.670202934365</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005629600288636883</v>
+        <v>0.006314227983158708</v>
       </c>
     </row>
     <row r="10">
@@ -3683,49 +3475,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>564.0089133850643</v>
+        <v>677.7721620291238</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5533832977249795</v>
+        <v>0.4665456078023213</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2793.790007006817</v>
+        <v>1127.270616839236</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4712701071884577</v>
+        <v>0.5276671893101814</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1036.651689511995</v>
+        <v>32.11491607502478</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5659165617879405</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>30.87155251076864</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1335315568562153</v>
+        <v>0.1142306467973678</v>
       </c>
     </row>
   </sheetData>
@@ -3739,7 +3518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3771,10 +3550,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1952.441017930738</v>
+        <v>-1947.310907890513</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2670996179168895</v>
+        <v>0.2584755937653967</v>
       </c>
     </row>
     <row r="3">
@@ -3784,10 +3563,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146.0968098122191</v>
+        <v>146.311225146083</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1444768840723417</v>
+        <v>0.1357791223655658</v>
       </c>
     </row>
     <row r="4">
@@ -3797,10 +3576,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>387.1257206631914</v>
+        <v>385.8077763573891</v>
       </c>
       <c r="C4" t="n">
-        <v>1.869431141308719e-06</v>
+        <v>1.004426246641789e-06</v>
       </c>
     </row>
     <row r="5">
@@ -3810,10 +3589,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1622442016033887</v>
+        <v>0.1684603252537606</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1651743208296723</v>
+        <v>0.1126420385946308</v>
       </c>
     </row>
     <row r="6">
@@ -3823,10 +3602,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001678282571357239</v>
+        <v>-0.000167324501120787</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1901893492834522</v>
+        <v>0.1823030037678647</v>
       </c>
     </row>
     <row r="7">
@@ -3836,10 +3615,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.8958871322809</v>
+        <v>-12.96546438798831</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2495992209577077</v>
+        <v>0.2370492872261759</v>
       </c>
     </row>
     <row r="8">
@@ -3849,10 +3628,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.94619175201792</v>
+        <v>27.94397418662743</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002369658951966713</v>
+        <v>0.001921164836404229</v>
       </c>
     </row>
     <row r="9">
@@ -3862,10 +3641,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2292.84322721032</v>
+        <v>2317.675961739421</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0165670604958399</v>
+        <v>0.01198509618412854</v>
       </c>
     </row>
     <row r="10">
@@ -3875,49 +3654,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>816.8833027440905</v>
+        <v>785.1053689215851</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4114369565304701</v>
+        <v>0.4077359509108841</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>536.0642874918631</v>
+        <v>2639.631444070711</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8883770350787613</v>
+        <v>0.1719217619437873</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2682.059962439296</v>
+        <v>11.33910691946825</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1791205439571213</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>11.04688558083399</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5532115841820914</v>
+        <v>0.5319850290044168</v>
       </c>
     </row>
   </sheetData>
@@ -3931,7 +3697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3963,10 +3729,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2152.404722694229</v>
+        <v>-2127.555598599153</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2220053843263548</v>
+        <v>0.2191566891834263</v>
       </c>
     </row>
     <row r="3">
@@ -3976,10 +3742,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>299.4307058817546</v>
+        <v>298.0684187935581</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005350898425137594</v>
+        <v>0.004741284437838977</v>
       </c>
     </row>
     <row r="4">
@@ -3989,10 +3755,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>374.9742285706468</v>
+        <v>368.4014625023876</v>
       </c>
       <c r="C4" t="n">
-        <v>3.203176708018068e-06</v>
+        <v>1.758284009336398e-06</v>
       </c>
     </row>
     <row r="5">
@@ -4002,10 +3768,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09911037221996638</v>
+        <v>0.1219286203847271</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4614226758560211</v>
+        <v>0.3189957360790335</v>
       </c>
     </row>
     <row r="6">
@@ -4015,10 +3781,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001079699686335649</v>
+        <v>-0.000108417386911374</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3754325290204877</v>
+        <v>0.3654058203996259</v>
       </c>
     </row>
     <row r="7">
@@ -4028,10 +3794,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.47665124412792</v>
+        <v>-10.78925424208757</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4228866186532855</v>
+        <v>0.4007555692238793</v>
       </c>
     </row>
     <row r="8">
@@ -4041,10 +3807,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.31763896221852</v>
+        <v>19.62389207659852</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01557467513561692</v>
+        <v>0.012245709152996</v>
       </c>
     </row>
     <row r="9">
@@ -4054,10 +3820,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2418.239618483182</v>
+        <v>2519.702398665046</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01485250432425747</v>
+        <v>0.008219226549197231</v>
       </c>
     </row>
     <row r="10">
@@ -4067,49 +3833,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>844.6990629271295</v>
+        <v>744.0122707983676</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4422656305755398</v>
+        <v>0.4808404618310952</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1713.628208104712</v>
+        <v>1609.959113157332</v>
       </c>
       <c r="C11" t="n">
-        <v>0.662958593197042</v>
+        <v>0.4401252636634838</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1667.270835683736</v>
+        <v>25.62305552926944</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4328797141650919</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>25.30609182037027</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1821142149472142</v>
+        <v>0.1693081476535074</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +3876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,10 +3908,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2503.895088282641</v>
+        <v>-2335.120511041368</v>
       </c>
       <c r="C2" t="n">
-        <v>0.263140208910186</v>
+        <v>0.29404709980212</v>
       </c>
     </row>
     <row r="3">
@@ -4168,10 +3921,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>202.4989604604235</v>
+        <v>216.5720143142845</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0818619477003925</v>
+        <v>0.06149036164832652</v>
       </c>
     </row>
     <row r="4">
@@ -4181,10 +3934,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>447.5858906792513</v>
+        <v>409.7710799028184</v>
       </c>
       <c r="C4" t="n">
-        <v>2.434894118713714e-05</v>
+        <v>1.663526675311396e-05</v>
       </c>
     </row>
     <row r="5">
@@ -4194,10 +3947,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02608993075515464</v>
+        <v>0.09205377739971005</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8536494549358777</v>
+        <v>0.4627603751968788</v>
       </c>
     </row>
     <row r="6">
@@ -4207,10 +3960,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001385748851500295</v>
+        <v>-0.0001692000644191734</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4407661101764018</v>
+        <v>0.3404718049295917</v>
       </c>
     </row>
     <row r="7">
@@ -4220,10 +3973,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.479901063346489</v>
+        <v>-1.85653168238996</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9214809691068095</v>
+        <v>0.9015261174760205</v>
       </c>
     </row>
     <row r="8">
@@ -4233,10 +3986,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.40968399804716</v>
+        <v>22.96159465576034</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03842266224480832</v>
+        <v>0.02528056722799669</v>
       </c>
     </row>
     <row r="9">
@@ -4246,10 +3999,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1699.055662739246</v>
+        <v>2065.433497073499</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1454904121983384</v>
+        <v>0.06460412533666385</v>
       </c>
     </row>
     <row r="10">
@@ -4259,49 +4012,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>683.1067425625706</v>
+        <v>375.3583400070638</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5894264488405077</v>
+        <v>0.7590511491595189</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5503.409470858038</v>
+        <v>429.499644602578</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3268357536234892</v>
+        <v>0.8478044550005917</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1059.066627413034</v>
+        <v>28.03388191684428</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6496549179853603</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>28.46087695565714</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.245264615715693</v>
+        <v>0.2517081078357479</v>
       </c>
     </row>
   </sheetData>
@@ -4315,7 +4055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4347,10 +4087,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>471.6023536272623</v>
+        <v>622.5520494794</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8330903363241793</v>
+        <v>0.7755554314515456</v>
       </c>
     </row>
     <row r="3">
@@ -4360,10 +4100,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>361.3536189028304</v>
+        <v>346.9185106345346</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00174450347425085</v>
+        <v>0.001455989388632821</v>
       </c>
     </row>
     <row r="4">
@@ -4373,10 +4113,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>343.7127437569786</v>
+        <v>349.5475160833882</v>
       </c>
       <c r="C4" t="n">
-        <v>1.988780395029673e-05</v>
+        <v>8.960322605770342e-06</v>
       </c>
     </row>
     <row r="5">
@@ -4386,10 +4126,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07048864162836521</v>
+        <v>0.05341295701394433</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5037928636603022</v>
+        <v>0.5853596759459658</v>
       </c>
     </row>
     <row r="6">
@@ -4399,10 +4139,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.157910060418519e-05</v>
+        <v>-0.0001003659891214865</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4432748919307286</v>
+        <v>0.3887117293529304</v>
       </c>
     </row>
     <row r="7">
@@ -4412,10 +4152,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.756239180448333</v>
+        <v>-10.26176124281161</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3813998193571425</v>
+        <v>0.3480560179583542</v>
       </c>
     </row>
     <row r="8">
@@ -4425,10 +4165,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.733960806106012</v>
+        <v>2.897226195184714</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7049298379851165</v>
+        <v>0.761821693745666</v>
       </c>
     </row>
     <row r="9">
@@ -4438,10 +4178,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2335.972774893475</v>
+        <v>2179.590278782081</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01389127274642893</v>
+        <v>0.012586627619462</v>
       </c>
     </row>
     <row r="10">
@@ -4451,49 +4191,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>696.1542150297278</v>
+        <v>767.3107377411866</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4790954712982981</v>
+        <v>0.4236804049333007</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2087.130046334657</v>
+        <v>424.9951104925749</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6204712319152129</v>
+        <v>0.8378869775979738</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>410.518638734171</v>
+        <v>7.290370901426485</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8457430801633956</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7.916811162052056</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6911714728032556</v>
+        <v>0.7095694831323487</v>
       </c>
     </row>
   </sheetData>
@@ -4507,7 +4234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4539,10 +4266,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1099.401592484821</v>
+        <v>-1002.515768700847</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6193359443181927</v>
+        <v>0.6482344416753747</v>
       </c>
     </row>
     <row r="3">
@@ -4552,10 +4279,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>261.5098924819177</v>
+        <v>266.4114346695156</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01294276854754202</v>
+        <v>0.01083257240372602</v>
       </c>
     </row>
     <row r="4">
@@ -4565,10 +4292,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>318.302322555005</v>
+        <v>307.390018764654</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004514080976363345</v>
+        <v>0.0005054336724937057</v>
       </c>
     </row>
     <row r="5">
@@ -4578,10 +4305,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0851754375131174</v>
+        <v>0.1280200292424154</v>
       </c>
       <c r="C5" t="n">
-        <v>0.592925063611381</v>
+        <v>0.3971152319159936</v>
       </c>
     </row>
     <row r="6">
@@ -4591,10 +4318,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001618483427677121</v>
+        <v>-0.0001520883526962856</v>
       </c>
       <c r="C6" t="n">
-        <v>0.304073399143368</v>
+        <v>0.3295986429061273</v>
       </c>
     </row>
     <row r="7">
@@ -4604,10 +4331,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.69065804578232</v>
+        <v>-12.42733218369813</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2931236997611434</v>
+        <v>0.3001675221109369</v>
       </c>
     </row>
     <row r="8">
@@ -4617,10 +4344,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.32583945728052</v>
+        <v>22.28006268091934</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02979859234965596</v>
+        <v>0.02901494293250741</v>
       </c>
     </row>
     <row r="9">
@@ -4630,10 +4357,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1977.927469158967</v>
+        <v>2134.598079805637</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05009202552642239</v>
+        <v>0.03156514008485092</v>
       </c>
     </row>
     <row r="10">
@@ -4643,49 +4370,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>822.1209833975145</v>
+        <v>512.6687122608537</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5970988713551637</v>
+        <v>0.7329507286219978</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3612.381553985519</v>
+        <v>819.709862487085</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3921606492381363</v>
+        <v>0.6995266139491167</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1223.139745758217</v>
+        <v>13.7889351961889</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5764494002071581</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>13.08170174989283</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5681288498070221</v>
+        <v>0.5451361616754804</v>
       </c>
     </row>
   </sheetData>
@@ -4699,7 +4413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4731,10 +4445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3186.485178318086</v>
+        <v>-2966.786330518498</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0829275442569912</v>
+        <v>0.1022864008234966</v>
       </c>
     </row>
     <row r="3">
@@ -4744,10 +4458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>216.7737172480815</v>
+        <v>233.027837982608</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02703644010346734</v>
+        <v>0.01657413432730385</v>
       </c>
     </row>
     <row r="4">
@@ -4757,10 +4471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>488.2948462367355</v>
+        <v>459.1699058319292</v>
       </c>
       <c r="C4" t="n">
-        <v>2.816686710843153e-07</v>
+        <v>1.324100359810773e-07</v>
       </c>
     </row>
     <row r="5">
@@ -4770,10 +4484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03453655232889011</v>
+        <v>0.08291487761101707</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7631633310875423</v>
+        <v>0.4283342514645835</v>
       </c>
     </row>
     <row r="6">
@@ -4783,10 +4497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.246883851670777e-05</v>
+        <v>-6.511751737936109e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5962181380450873</v>
+        <v>0.5808266866874219</v>
       </c>
     </row>
     <row r="7">
@@ -4796,10 +4510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.471032656632758</v>
+        <v>-10.40301154971112</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3522709179505359</v>
+        <v>0.305779014480112</v>
       </c>
     </row>
     <row r="8">
@@ -4809,10 +4523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.94867248064811</v>
+        <v>20.42604551582556</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01171294299795735</v>
+        <v>0.009769378362319144</v>
       </c>
     </row>
     <row r="9">
@@ -4822,10 +4536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1632.695736281682</v>
+        <v>1931.924165176478</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07717301355585206</v>
+        <v>0.02913701278963072</v>
       </c>
     </row>
     <row r="10">
@@ -4835,49 +4549,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2051.520405052087</v>
+        <v>1878.715046004496</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07749182091271961</v>
+        <v>0.1000758751453379</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4259.12228584398</v>
+        <v>1564.676019417111</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3181579087686643</v>
+        <v>0.4007292714048416</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1922.097196262504</v>
+        <v>34.82992887244534</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3122663921811317</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>36.59576243939513</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06397888003361082</v>
+        <v>0.07548929436518426</v>
       </c>
     </row>
   </sheetData>
@@ -4891,7 +4592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4923,10 +4624,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1365.878188655194</v>
+        <v>-1347.922531581495</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6117422196031581</v>
+        <v>0.6112528774653414</v>
       </c>
     </row>
     <row r="3">
@@ -4936,10 +4637,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>282.8406172314286</v>
+        <v>279.6702213503065</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01998119180399635</v>
+        <v>0.01923121756487859</v>
       </c>
     </row>
     <row r="4">
@@ -4949,10 +4650,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>376.0886529414723</v>
+        <v>365.9982042259914</v>
       </c>
       <c r="C4" t="n">
-        <v>9.044037119043599e-05</v>
+        <v>7.011903903709784e-05</v>
       </c>
     </row>
     <row r="5">
@@ -4962,10 +4663,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01848679074489989</v>
+        <v>0.004216247625813518</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9072316238983682</v>
+        <v>0.9777192071092156</v>
       </c>
     </row>
     <row r="6">
@@ -4975,10 +4676,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.824938372934514e-05</v>
+        <v>-5.364949327925188e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9159868010959182</v>
+        <v>0.9746646667565655</v>
       </c>
     </row>
     <row r="7">
@@ -4988,10 +4689,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.110881701924818</v>
+        <v>-4.536625070525766</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7074111998818524</v>
+        <v>0.7345232448370911</v>
       </c>
     </row>
     <row r="8">
@@ -5001,10 +4702,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.21883067945825</v>
+        <v>17.90537747284123</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0953604400972307</v>
+        <v>0.07688601344337014</v>
       </c>
     </row>
     <row r="9">
@@ -5014,10 +4715,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>464.2564710177794</v>
+        <v>486.0219281150057</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8081515239722461</v>
+        <v>0.7964599754552149</v>
       </c>
     </row>
     <row r="10">
@@ -5027,49 +4728,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1280.029129402454</v>
+        <v>1066.612239205153</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3783587638854902</v>
+        <v>0.4383981543171862</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2527.782235356877</v>
+        <v>302.8899404065605</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5833774669142969</v>
+        <v>0.9110581278305787</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>677.1064738534697</v>
+        <v>18.94311887018529</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8112410306127409</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>17.77722623656121</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5627467370356278</v>
+        <v>0.5307170631034221</v>
       </c>
     </row>
   </sheetData>
@@ -5083,7 +4771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5115,10 +4803,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1266.618948576008</v>
+        <v>-1217.638528376056</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4984108496495546</v>
+        <v>0.5084804700026857</v>
       </c>
     </row>
     <row r="3">
@@ -5128,10 +4816,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>271.8841627492553</v>
+        <v>273.3973708544532</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01372301336251775</v>
+        <v>0.01190681608791748</v>
       </c>
     </row>
     <row r="4">
@@ -5141,10 +4829,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>411.3046799518389</v>
+        <v>399.7653905497541</v>
       </c>
       <c r="C4" t="n">
-        <v>1.69174410022272e-06</v>
+        <v>7.77340233937714e-07</v>
       </c>
     </row>
     <row r="5">
@@ -5154,10 +4842,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05116526777920577</v>
+        <v>0.0799903919812493</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7006597752188999</v>
+        <v>0.5090295866603095</v>
       </c>
     </row>
     <row r="6">
@@ -5167,10 +4855,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001006477454589305</v>
+        <v>-0.0001010699516412746</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4174734215298607</v>
+        <v>0.4088114059483485</v>
       </c>
     </row>
     <row r="7">
@@ -5180,10 +4868,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.154711208560173</v>
+        <v>-9.220565582238535</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4315584853380451</v>
+        <v>0.4216081376526389</v>
       </c>
     </row>
     <row r="8">
@@ -5193,10 +4881,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.60636758622308</v>
+        <v>15.88763593930845</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05218168108969242</v>
+        <v>0.0447130140453337</v>
       </c>
     </row>
     <row r="9">
@@ -5206,10 +4894,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1960.717864856253</v>
+        <v>2085.127452954905</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04148661290586149</v>
+        <v>0.02443856598300049</v>
       </c>
     </row>
     <row r="10">
@@ -5219,49 +4907,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1516.811093026377</v>
+        <v>1332.680306519797</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1941184988258393</v>
+        <v>0.2253469719874838</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2360.397553272933</v>
+        <v>433.1871540084203</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5798007505872761</v>
+        <v>0.8593005086463976</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>398.3018735426294</v>
+        <v>15.96367926293455</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8723849280145206</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>15.82592159588172</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4350616889146326</v>
+        <v>0.4244434939489623</v>
       </c>
     </row>
   </sheetData>
@@ -5275,7 +4950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5307,10 +4982,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-168.1584458819143</v>
+        <v>-173.3875384676758</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9415907454959188</v>
+        <v>0.938631548929546</v>
       </c>
     </row>
     <row r="3">
@@ -5320,10 +4995,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>294.0108376311036</v>
+        <v>290.4717653414267</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008289774927580044</v>
+        <v>0.007412613493505366</v>
       </c>
     </row>
     <row r="4">
@@ -5333,10 +5008,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>375.4980582381461</v>
+        <v>379.9606793869423</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001105493707365699</v>
+        <v>5.720900318569411e-05</v>
       </c>
     </row>
     <row r="5">
@@ -5346,10 +5021,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1070200519265345</v>
+        <v>0.09299362844245018</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4596532600711856</v>
+        <v>0.4889840662899915</v>
       </c>
     </row>
     <row r="6">
@@ -5359,10 +5034,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001291586874669303</v>
+        <v>-0.0001308668917534481</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4071398432532842</v>
+        <v>0.3918237171254993</v>
       </c>
     </row>
     <row r="7">
@@ -5372,10 +5047,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.831384032861706</v>
+        <v>-10.087877321322</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4371059454285056</v>
+        <v>0.4155810953162202</v>
       </c>
     </row>
     <row r="8">
@@ -5385,10 +5060,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.28162930248465</v>
+        <v>11.01148507865514</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2552058830865805</v>
+        <v>0.255510091989586</v>
       </c>
     </row>
     <row r="9">
@@ -5398,10 +5073,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2302.771683834358</v>
+        <v>2202.821045033627</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02885747052474789</v>
+        <v>0.02423640741839365</v>
       </c>
     </row>
     <row r="10">
@@ -5411,49 +5086,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>539.1893903276755</v>
+        <v>611.3203997692435</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6923251025336541</v>
+        <v>0.6426043917793721</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1466.395081416082</v>
+        <v>1737.113576375341</v>
       </c>
       <c r="C11" t="n">
-        <v>0.761472566502731</v>
+        <v>0.4326718407224169</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1614.985870523669</v>
+        <v>3.819267222463338</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4806262883066204</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3.662380572214616</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8780102467256393</v>
+        <v>0.8703997212572082</v>
       </c>
     </row>
   </sheetData>
@@ -5467,7 +5129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5499,10 +5161,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2491.350553518916</v>
+        <v>-2439.995240462883</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1464549584786237</v>
+        <v>0.1606491568321375</v>
       </c>
     </row>
     <row r="3">
@@ -5512,10 +5174,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.5099435658178</v>
+        <v>190.1614165950608</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05577083326129622</v>
+        <v>0.04196162950358737</v>
       </c>
     </row>
     <row r="4">
@@ -5525,10 +5187,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>267.3099918143578</v>
+        <v>257.6353279690586</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002539775477221868</v>
+        <v>0.000392242637534858</v>
       </c>
     </row>
     <row r="5">
@@ -5538,10 +5200,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09940776274067864</v>
+        <v>0.1422683678840391</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3450531728631639</v>
+        <v>0.1669402143536581</v>
       </c>
     </row>
     <row r="6">
@@ -5551,10 +5213,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001574040049505397</v>
+        <v>-0.0001408615977107759</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1492412370737316</v>
+        <v>0.1987697413186095</v>
       </c>
     </row>
     <row r="7">
@@ -5564,10 +5226,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.76148907155736</v>
+        <v>-13.20223502068004</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1759031002369268</v>
+        <v>0.1998209220271915</v>
       </c>
     </row>
     <row r="8">
@@ -5577,10 +5239,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36.34781883231249</v>
+        <v>35.7032588591708</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001270896236277409</v>
+        <v>0.0001707447564448849</v>
       </c>
     </row>
     <row r="9">
@@ -5590,10 +5252,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2423.718991015752</v>
+        <v>2594.378596726205</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004676855451030281</v>
+        <v>0.002723507113001714</v>
       </c>
     </row>
     <row r="10">
@@ -5603,49 +5265,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>862.5376547461608</v>
+        <v>531.4299286378327</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3772213564667747</v>
+        <v>0.5780594898372516</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4431.747122159954</v>
+        <v>2431.356516941739</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1862922215779638</v>
+        <v>0.1733447396140162</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2845.279617307157</v>
+        <v>16.44472814803784</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1136448827138169</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>13.90908795501996</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.462752356276706</v>
+        <v>0.391485193055251</v>
       </c>
     </row>
   </sheetData>
@@ -5659,7 +5308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5691,10 +5340,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2399.080853503171</v>
+        <v>-2321.8480249619</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3253245213067777</v>
+        <v>0.334424728363318</v>
       </c>
     </row>
     <row r="3">
@@ -5704,10 +5353,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>302.0484464975232</v>
+        <v>305.1438308753386</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007429795511087024</v>
+        <v>0.006167981299914446</v>
       </c>
     </row>
     <row r="4">
@@ -5717,10 +5366,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>407.6197815395682</v>
+        <v>393.9959051839465</v>
       </c>
       <c r="C4" t="n">
-        <v>2.744940815291157e-05</v>
+        <v>2.043086556271515e-05</v>
       </c>
     </row>
     <row r="5">
@@ -5730,10 +5379,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003217561863601115</v>
+        <v>0.0343394305964223</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9817537158114258</v>
+        <v>0.7929482580259976</v>
       </c>
     </row>
     <row r="6">
@@ -5743,10 +5392,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.22647529626053e-05</v>
+        <v>-6.795771107300516e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6684786184455356</v>
+        <v>0.6833058794825415</v>
       </c>
     </row>
     <row r="7">
@@ -5756,10 +5405,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1370984148994552</v>
+        <v>-0.4715776591134322</v>
       </c>
       <c r="C7" t="n">
-        <v>0.993363188885799</v>
+        <v>0.9768636950351517</v>
       </c>
     </row>
     <row r="8">
@@ -5769,10 +5418,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.737413615116</v>
+        <v>20.06770166929319</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05180587269682409</v>
+        <v>0.04525270557002054</v>
       </c>
     </row>
     <row r="9">
@@ -5782,10 +5431,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2109.556099634353</v>
+        <v>2220.681275913759</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08055444486014683</v>
+        <v>0.0607539015711866</v>
       </c>
     </row>
     <row r="10">
@@ -5795,49 +5444,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>725.2159887512526</v>
+        <v>562.7052860286622</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5839695779385748</v>
+        <v>0.6610756378189557</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2777.71739913251</v>
+        <v>-27.62490079810959</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5172921101373359</v>
+        <v>0.9913313595447544</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>132.5811342493544</v>
+        <v>27.16892047731642</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9590941036761857</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>26.84638657473587</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2911507948498842</v>
+        <v>0.27960471156081</v>
       </c>
     </row>
   </sheetData>
@@ -5851,7 +5487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5883,10 +5519,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1046.542539510526</v>
+        <v>-1022.41106156857</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6344866345976923</v>
+        <v>0.6375440945411104</v>
       </c>
     </row>
     <row r="3">
@@ -5896,10 +5532,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.0387293553949</v>
+        <v>366.4021628652895</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007504870903069616</v>
+        <v>0.004218783696858294</v>
       </c>
     </row>
     <row r="4">
@@ -5909,10 +5545,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>373.1119142512537</v>
+        <v>351.9715551594416</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001098117077270009</v>
+        <v>4.191173700224126e-05</v>
       </c>
     </row>
     <row r="5">
@@ -5922,10 +5558,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0024259251743112</v>
+        <v>0.02457476672070963</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9864461801539461</v>
+        <v>0.8561533286088943</v>
       </c>
     </row>
     <row r="6">
@@ -5935,10 +5571,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.051570161315972e-05</v>
+        <v>-1.504563435159099e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8525184650455236</v>
+        <v>0.9248957176235949</v>
       </c>
     </row>
     <row r="7">
@@ -5948,10 +5584,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.30884585251796</v>
+        <v>-10.44692728885074</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3945697720346594</v>
+        <v>0.3815910654543326</v>
       </c>
     </row>
     <row r="8">
@@ -5961,10 +5597,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.39256354286896</v>
+        <v>12.40727817093735</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2304057822015066</v>
+        <v>0.1786914310010762</v>
       </c>
     </row>
     <row r="9">
@@ -5974,10 +5610,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1126.707859989152</v>
+        <v>1217.824406274487</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5189279035818454</v>
+        <v>0.4780477772442147</v>
       </c>
     </row>
     <row r="10">
@@ -5987,49 +5623,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1272.060873958632</v>
+        <v>1162.761417310989</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3333333198976874</v>
+        <v>0.3638858347974664</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2921.596236584954</v>
+        <v>118.6931326674021</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5695599310994726</v>
+        <v>0.9592443895314766</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>657.9974398241156</v>
+        <v>22.67903233612468</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7955605167405395</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>21.70526751763292</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3434190579804269</v>
+        <v>0.3144608075992052</v>
       </c>
     </row>
   </sheetData>
@@ -6043,7 +5666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6075,10 +5698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2463.501076783518</v>
+        <v>-2332.91317085653</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3066304827974632</v>
+        <v>0.3270619240709779</v>
       </c>
     </row>
     <row r="3">
@@ -6088,10 +5711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>235.3244367485192</v>
+        <v>252.7621784074649</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05427281668040818</v>
+        <v>0.03474415545472467</v>
       </c>
     </row>
     <row r="4">
@@ -6101,10 +5724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>411.3605063975673</v>
+        <v>384.9037562889459</v>
       </c>
       <c r="C4" t="n">
-        <v>8.941494136888907e-05</v>
+        <v>6.110368496926974e-05</v>
       </c>
     </row>
     <row r="5">
@@ -6114,10 +5737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03822127161462979</v>
+        <v>0.09202962410072263</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8016473699607002</v>
+        <v>0.4939330433293521</v>
       </c>
     </row>
     <row r="6">
@@ -6127,10 +5750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.582694538147615e-05</v>
+        <v>-0.0001038800126638886</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5247071571516926</v>
+        <v>0.4860453320235572</v>
       </c>
     </row>
     <row r="7">
@@ -6140,10 +5763,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.195349894750855</v>
+        <v>-4.385762410772198</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7597498705779958</v>
+        <v>0.7471416978885173</v>
       </c>
     </row>
     <row r="8">
@@ -6153,10 +5776,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.37526746332951</v>
+        <v>20.20075933137023</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04599631042997435</v>
+        <v>0.03522423742502204</v>
       </c>
     </row>
     <row r="9">
@@ -6166,10 +5789,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1643.016245865252</v>
+        <v>1871.083843216726</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1635617866879236</v>
+        <v>0.1002277131301292</v>
       </c>
     </row>
     <row r="10">
@@ -6179,49 +5802,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>707.8254955308294</v>
+        <v>381.0375766319153</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6159944617622992</v>
+        <v>0.7748146648705918</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3867.591592324894</v>
+        <v>988.7004162355124</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4442925703875371</v>
+        <v>0.6742268597172174</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1412.504802711416</v>
+        <v>33.10785981133155</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5625699665372796</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>33.88498815113581</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1892245459715669</v>
+        <v>0.194925692424284</v>
       </c>
     </row>
   </sheetData>
@@ -6235,7 +5845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6267,10 +5877,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1392.305107278153</v>
+        <v>-1473.752740006308</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5926262855086106</v>
+        <v>0.5646896499233847</v>
       </c>
     </row>
     <row r="3">
@@ -6280,10 +5890,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>280.6299740992044</v>
+        <v>286.4648034837152</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02276820234363618</v>
+        <v>0.01795023281171539</v>
       </c>
     </row>
     <row r="4">
@@ -6293,10 +5903,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>357.2764963919001</v>
+        <v>348.1769028805892</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004890497208700903</v>
+        <v>0.0004189983041790368</v>
       </c>
     </row>
     <row r="5">
@@ -6306,10 +5916,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06148945823186047</v>
+        <v>0.08264006647870237</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6680891223550118</v>
+        <v>0.5421023615232619</v>
       </c>
     </row>
     <row r="6">
@@ -6319,10 +5929,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001094559731276744</v>
+        <v>-0.0001020516166653907</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4416863238214708</v>
+        <v>0.4637460202740978</v>
       </c>
     </row>
     <row r="7">
@@ -6332,10 +5942,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.92639896155544</v>
+        <v>-10.26628616694084</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4970940038928751</v>
+        <v>0.5155035802810444</v>
       </c>
     </row>
     <row r="8">
@@ -6345,10 +5955,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.70709823388578</v>
+        <v>16.49711883047455</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1778541884388421</v>
+        <v>0.1479105125320552</v>
       </c>
     </row>
     <row r="9">
@@ -6358,10 +5968,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1908.836227134618</v>
+        <v>2023.502111242111</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08917479130631659</v>
+        <v>0.06284761690961657</v>
       </c>
     </row>
     <row r="10">
@@ -6371,49 +5981,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>912.5767724363714</v>
+        <v>746.1255363016644</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5235495871783872</v>
+        <v>0.586159971152849</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2352.93817860647</v>
+        <v>1320.943175028819</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6074359366190702</v>
+        <v>0.6696883565163032</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1426.370785809604</v>
+        <v>26.2649089923184</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6508652374170535</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>25.11284089605084</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3541672065655925</v>
+        <v>0.3238712198054379</v>
       </c>
     </row>
   </sheetData>
@@ -6427,7 +6024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6459,10 +6056,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1196.030895651173</v>
+        <v>-1209.548175927892</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5280290907903964</v>
+        <v>0.5226508489569853</v>
       </c>
     </row>
     <row r="3">
@@ -6472,10 +6069,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>303.0998798709304</v>
+        <v>298.1817182868998</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002939805313817515</v>
+        <v>0.003165232555171726</v>
       </c>
     </row>
     <row r="4">
@@ -6485,10 +6082,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>376.9637457642633</v>
+        <v>369.9595646040982</v>
       </c>
       <c r="C4" t="n">
-        <v>8.56149174007358e-06</v>
+        <v>8.755784253196626e-06</v>
       </c>
     </row>
     <row r="5">
@@ -6498,10 +6095,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03819180922290366</v>
+        <v>0.08427485579058303</v>
       </c>
       <c r="C5" t="n">
-        <v>0.789424518511327</v>
+        <v>0.5321085231719257</v>
       </c>
     </row>
     <row r="6">
@@ -6511,10 +6108,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001129490351757124</v>
+        <v>-0.0001056919229589291</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4324396523512417</v>
+        <v>0.4607728524711771</v>
       </c>
     </row>
     <row r="7">
@@ -6524,10 +6121,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.5564746684427</v>
+        <v>-9.532750864369051</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4128203196276871</v>
+        <v>0.4130690870473208</v>
       </c>
     </row>
     <row r="8">
@@ -6537,10 +6134,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.33054272051388</v>
+        <v>18.71318669796879</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02339623662019722</v>
+        <v>0.02031258224454734</v>
       </c>
     </row>
     <row r="9">
@@ -6550,10 +6147,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1395.941255285715</v>
+        <v>1620.847898422934</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4246922314400485</v>
+        <v>0.349767519995603</v>
       </c>
     </row>
     <row r="10">
@@ -6563,49 +6160,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1528.963900200091</v>
+        <v>1269.548354248581</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1710582470385103</v>
+        <v>0.2373456281564165</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3721.965695745808</v>
+        <v>1837.443220568584</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3423941056185454</v>
+        <v>0.3659131106362026</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2235.43960064014</v>
+        <v>8.126373423212158</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2839455768588847</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5.909310301214219</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7710700105029256</v>
+        <v>0.6868518499661647</v>
       </c>
     </row>
   </sheetData>
@@ -6619,7 +6203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6651,10 +6235,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.5189617956621</v>
+        <v>221.3507389923734</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8532757881506289</v>
+        <v>0.9019531733723609</v>
       </c>
     </row>
     <row r="3">
@@ -6664,10 +6248,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>338.6038863525016</v>
+        <v>318.5234629210528</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004832988064318635</v>
+        <v>0.006614193419523778</v>
       </c>
     </row>
     <row r="4">
@@ -6677,10 +6261,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>356.68205817799</v>
+        <v>374.29528068985</v>
       </c>
       <c r="C4" t="n">
-        <v>2.966228657569001e-06</v>
+        <v>6.131025889833284e-07</v>
       </c>
     </row>
     <row r="5">
@@ -6690,10 +6274,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05737058093096126</v>
+        <v>0.02172386315410246</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6206972661755863</v>
+        <v>0.8442023544250102</v>
       </c>
     </row>
     <row r="6">
@@ -6703,10 +6287,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.768272199454605e-05</v>
+        <v>-8.316969283204371e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5987307905738523</v>
+        <v>0.5161032444399765</v>
       </c>
     </row>
     <row r="7">
@@ -6716,10 +6300,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.487024615904033</v>
+        <v>-8.741138966219594</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3602829019625651</v>
+        <v>0.3979803411216749</v>
       </c>
     </row>
     <row r="8">
@@ -6729,10 +6313,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.932764773488511</v>
+        <v>8.305193626400797</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3854417878555476</v>
+        <v>0.3639777759563189</v>
       </c>
     </row>
     <row r="9">
@@ -6742,10 +6326,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2493.018411483856</v>
+        <v>2263.071386849151</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006029127271457908</v>
+        <v>0.009008084557243638</v>
       </c>
     </row>
     <row r="10">
@@ -6755,49 +6339,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>911.5451345181723</v>
+        <v>1126.290673423471</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3756512492640879</v>
+        <v>0.266183863820154</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4082.713154191445</v>
+        <v>499.5228573320692</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3074321429945945</v>
+        <v>0.8130461054657517</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>209.4619939159456</v>
+        <v>1.29268617964081</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9215541441448314</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2.596408146894703</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8995986290229548</v>
+        <v>0.9498785601154647</v>
       </c>
     </row>
   </sheetData>
@@ -6811,7 +6382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6843,10 +6414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3034.607569849541</v>
+        <v>-2993.297188276963</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3295705429360146</v>
+        <v>0.3270646771270826</v>
       </c>
     </row>
     <row r="3">
@@ -6856,10 +6427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>289.8282646408137</v>
+        <v>295.2609239497223</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01807825622774594</v>
+        <v>0.0136883543424451</v>
       </c>
     </row>
     <row r="4">
@@ -6869,10 +6440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>428.8641936129774</v>
+        <v>421.7805938888827</v>
       </c>
       <c r="C4" t="n">
-        <v>9.322546313833666e-05</v>
+        <v>6.431100555117726e-05</v>
       </c>
     </row>
     <row r="5">
@@ -6882,10 +6453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04838087635843691</v>
+        <v>0.06152043922814088</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7536743619581249</v>
+        <v>0.6765554569002225</v>
       </c>
     </row>
     <row r="6">
@@ -6895,10 +6466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.478983141243832e-05</v>
+        <v>-8.66640618591791e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6091023166633479</v>
+        <v>0.6315316907502719</v>
       </c>
     </row>
     <row r="7">
@@ -6908,10 +6479,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.778125174826464</v>
+        <v>2.631056838372423</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9050625419553304</v>
+        <v>0.9084326007502607</v>
       </c>
     </row>
     <row r="8">
@@ -6921,10 +6492,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.7082365208816</v>
+        <v>20.78448463889382</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07674843591642422</v>
+        <v>0.07049877550409227</v>
       </c>
     </row>
     <row r="9">
@@ -6934,10 +6505,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1808.309511326043</v>
+        <v>1897.495802697333</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1130067108085045</v>
+        <v>0.08403266047996533</v>
       </c>
     </row>
     <row r="10">
@@ -6947,49 +6518,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>429.702010089034</v>
+        <v>356.4277656824761</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7814630759971501</v>
+        <v>0.8132261099690034</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1623.380324279173</v>
+        <v>235.8549455933935</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7116153645023826</v>
+        <v>0.9302385745067676</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>357.0399049345842</v>
+        <v>35.66400909818236</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8971659546451966</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>35.6784163052489</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2655381580810841</v>
+        <v>0.2571444815894654</v>
       </c>
     </row>
   </sheetData>
@@ -7003,7 +6561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7035,10 +6593,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2669.273452665945</v>
+        <v>-2349.812402314981</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1707150627624675</v>
+        <v>0.2304064551799405</v>
       </c>
     </row>
     <row r="3">
@@ -7048,10 +6606,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>313.4383135911337</v>
+        <v>323.0727564758138</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002365158067322199</v>
+        <v>0.002010399589631619</v>
       </c>
     </row>
     <row r="4">
@@ -7061,10 +6619,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>388.2954568219437</v>
+        <v>350.8704769430275</v>
       </c>
       <c r="C4" t="n">
-        <v>9.926822967027802e-06</v>
+        <v>1.510786484049254e-05</v>
       </c>
     </row>
     <row r="5">
@@ -7074,10 +6632,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006220776452545651</v>
+        <v>0.05103900680124618</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9593149901423468</v>
+        <v>0.6627278450022944</v>
       </c>
     </row>
     <row r="6">
@@ -7087,10 +6645,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.358447732018918e-05</v>
+        <v>-1.291987358142683e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8787457239077543</v>
+        <v>0.9345024905166226</v>
       </c>
     </row>
     <row r="7">
@@ -7100,10 +6658,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.43039329284915</v>
+        <v>-12.48840720596625</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3622198718011266</v>
+        <v>0.3278595944725291</v>
       </c>
     </row>
     <row r="8">
@@ -7113,10 +6671,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.35036876059552</v>
+        <v>20.78838521148039</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01633059006245705</v>
+        <v>0.01572395222514098</v>
       </c>
     </row>
     <row r="9">
@@ -7126,10 +6684,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2049.284119379915</v>
+        <v>2414.843783255536</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03850031878843069</v>
+        <v>0.01414111947654884</v>
       </c>
     </row>
     <row r="10">
@@ -7139,49 +6697,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1213.32318380885</v>
+        <v>944.8943331460446</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2938954624155937</v>
+        <v>0.4130766479373521</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5919.424778582537</v>
+        <v>436.9096929519874</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1753792230488252</v>
+        <v>0.8250518040376004</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>831.4364068541181</v>
+        <v>31.75186226184292</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6721200637586842</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>33.52580609735986</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.101083757590974</v>
+        <v>0.1247670404395552</v>
       </c>
     </row>
   </sheetData>
@@ -7195,7 +6740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7227,10 +6772,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1634.822926614524</v>
+        <v>-1597.59568025358</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5249895056697467</v>
+        <v>0.5305438104775155</v>
       </c>
     </row>
     <row r="3">
@@ -7240,10 +6785,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>332.7848410086559</v>
+        <v>324.7518789060243</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003548869970079762</v>
+        <v>0.003722855354926188</v>
       </c>
     </row>
     <row r="4">
@@ -7253,10 +6798,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>423.8155194735351</v>
+        <v>405.9912243031947</v>
       </c>
       <c r="C4" t="n">
-        <v>2.435408250601644e-05</v>
+        <v>1.891565313299717e-05</v>
       </c>
     </row>
     <row r="5">
@@ -7266,10 +6811,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07184320481544024</v>
+        <v>0.09998419596159389</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6589127061581319</v>
+        <v>0.5247627733935903</v>
       </c>
     </row>
     <row r="6">
@@ -7279,10 +6824,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001526614876206222</v>
+        <v>-0.0001283003238304573</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4149756276305294</v>
+        <v>0.4816440030855501</v>
       </c>
     </row>
     <row r="7">
@@ -7292,10 +6837,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.339070626423897</v>
+        <v>-4.988723296106933</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7971605245494175</v>
+        <v>0.7652880152350767</v>
       </c>
     </row>
     <row r="8">
@@ -7305,10 +6850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.24826326416682</v>
+        <v>14.73560173133765</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2333850862017558</v>
+        <v>0.1753197686694879</v>
       </c>
     </row>
     <row r="9">
@@ -7318,10 +6863,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2231.653163276844</v>
+        <v>2406.208822493772</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04060318724921181</v>
+        <v>0.02334507092199329</v>
       </c>
     </row>
     <row r="10">
@@ -7331,49 +6876,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.3189408974158</v>
+        <v>350.2372623586398</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7300886411286833</v>
+        <v>0.8167340748596799</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3754.605339924568</v>
+        <v>145.7246604601751</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4578522587951273</v>
+        <v>0.9547024970905678</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>792.563605337944</v>
+        <v>21.39471067141471</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7717648943946209</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>19.50813450893867</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.451649188144836</v>
+        <v>0.4030912916945038</v>
       </c>
     </row>
   </sheetData>
@@ -7387,7 +6919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7419,10 +6951,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1440.569597196041</v>
+        <v>-817.4167882363145</v>
       </c>
       <c r="C2" t="n">
-        <v>0.539691866452884</v>
+        <v>0.7247106494187429</v>
       </c>
     </row>
     <row r="3">
@@ -7432,10 +6964,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>251.8540149872521</v>
+        <v>264.3105305802695</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01795779591621106</v>
+        <v>0.01397026980737875</v>
       </c>
     </row>
     <row r="4">
@@ -7445,10 +6977,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>429.3331852908952</v>
+        <v>368.7330708574081</v>
       </c>
       <c r="C4" t="n">
-        <v>5.031657197986556e-05</v>
+        <v>4.263666388462164e-05</v>
       </c>
     </row>
     <row r="5">
@@ -7458,10 +6990,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03787044750352586</v>
+        <v>0.05773059389214977</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7995908964585919</v>
+        <v>0.6593466698365822</v>
       </c>
     </row>
     <row r="6">
@@ -7471,10 +7003,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.130951446757112e-05</v>
+        <v>-7.474635410527786e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.722206021573282</v>
+        <v>0.6067373318224049</v>
       </c>
     </row>
     <row r="7">
@@ -7484,10 +7016,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.07294856968538</v>
+        <v>-6.312588365550567</v>
       </c>
       <c r="C7" t="n">
-        <v>0.664009084932782</v>
+        <v>0.5926728414272671</v>
       </c>
     </row>
     <row r="8">
@@ -7497,10 +7029,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.50153145803851</v>
+        <v>16.69164145511955</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0756305494258617</v>
+        <v>0.05819961707373495</v>
       </c>
     </row>
     <row r="9">
@@ -7510,10 +7042,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1600.263103586094</v>
+        <v>2075.696488910684</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1620752662639088</v>
+        <v>0.06162952901218224</v>
       </c>
     </row>
     <row r="10">
@@ -7523,49 +7055,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1212.997064871853</v>
+        <v>611.8753926465342</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3613995558206118</v>
+        <v>0.6244506915328076</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6762.779752348599</v>
+        <v>-818.7831628503136</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2079463371846809</v>
+        <v>0.7469362632642739</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-5.589524127617551</v>
+        <v>14.66358414283187</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9982724487293039</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>19.71207983054063</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.445985771630472</v>
+        <v>0.5700316548267108</v>
       </c>
     </row>
   </sheetData>
@@ -7579,7 +7098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7611,10 +7130,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1704.772289000049</v>
+        <v>-1663.028224803477</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3134593820285478</v>
+        <v>0.3209800194489935</v>
       </c>
     </row>
     <row r="3">
@@ -7624,10 +7143,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>178.3217943366004</v>
+        <v>183.6630967198426</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08938200887593338</v>
+        <v>0.07747193428325024</v>
       </c>
     </row>
     <row r="4">
@@ -7637,10 +7156,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>379.7279262343402</v>
+        <v>371.425943011657</v>
       </c>
       <c r="C4" t="n">
-        <v>1.527140321994363e-06</v>
+        <v>1.246981249130942e-06</v>
       </c>
     </row>
     <row r="5">
@@ -7650,10 +7169,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1469375264098289</v>
+        <v>0.1774877250894081</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2489575830470306</v>
+        <v>0.1428161156824832</v>
       </c>
     </row>
     <row r="6">
@@ -7663,10 +7182,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.000179027203709558</v>
+        <v>-0.0001703891885461517</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1290214437393744</v>
+        <v>0.1424174441193324</v>
       </c>
     </row>
     <row r="7">
@@ -7676,10 +7195,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.45899159112536</v>
+        <v>-12.69912791692571</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3295534869533926</v>
+        <v>0.3163756758030396</v>
       </c>
     </row>
     <row r="8">
@@ -7689,10 +7208,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26.14090034855732</v>
+        <v>25.9972416568423</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00364376666584734</v>
+        <v>0.003459363413403975</v>
       </c>
     </row>
     <row r="9">
@@ -7702,10 +7221,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2072.088140554093</v>
+        <v>2241.636538292111</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03574703620074491</v>
+        <v>0.01968340458774892</v>
       </c>
     </row>
     <row r="10">
@@ -7715,49 +7234,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>794.8698489887133</v>
+        <v>666.1261822610431</v>
       </c>
       <c r="C10" t="n">
-        <v>0.449027879327165</v>
+        <v>0.5164808508184577</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2990.599712166373</v>
+        <v>2212.617350391192</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4371038554191247</v>
+        <v>0.2508495362016862</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2460.914374921002</v>
+        <v>10.66443813474578</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2127232609918426</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9.595714026881012</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6016818164686565</v>
+        <v>0.5578449073429713</v>
       </c>
     </row>
   </sheetData>
@@ -7771,7 +7277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7803,10 +7309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-831.5532238692294</v>
+        <v>-964.5646047017285</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7525013163747878</v>
+        <v>0.7087693422860559</v>
       </c>
     </row>
     <row r="3">
@@ -7816,10 +7322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>274.1456910679571</v>
+        <v>281.5824603434984</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0232391939006845</v>
+        <v>0.01721394980429777</v>
       </c>
     </row>
     <row r="4">
@@ -7829,10 +7335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>323.3898063437775</v>
+        <v>317.645914725026</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002879069639094422</v>
+        <v>0.0002416173738012795</v>
       </c>
     </row>
     <row r="5">
@@ -7842,10 +7348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02667066879727531</v>
+        <v>0.0459245000230013</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8463029353757261</v>
+        <v>0.7234787204583034</v>
       </c>
     </row>
     <row r="6">
@@ -7855,10 +7361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.804993795848422e-05</v>
+        <v>-5.315189944379698e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7256155328979816</v>
+        <v>0.7435465486884509</v>
       </c>
     </row>
     <row r="7">
@@ -7868,10 +7374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.77683414708078</v>
+        <v>-10.09775650119013</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4114074449942483</v>
+        <v>0.4311892629250146</v>
       </c>
     </row>
     <row r="8">
@@ -7881,10 +7387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.25940915456261</v>
+        <v>18.14219961110233</v>
       </c>
       <c r="C8" t="n">
-        <v>0.104136146441473</v>
+        <v>0.07892685367165139</v>
       </c>
     </row>
     <row r="9">
@@ -7894,10 +7400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1376.976899439091</v>
+        <v>1495.996391453217</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4392481151210593</v>
+        <v>0.3892366150404289</v>
       </c>
     </row>
     <row r="10">
@@ -7907,49 +7413,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1000.816591238106</v>
+        <v>880.7580671906514</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4020663637366362</v>
+        <v>0.4429970093311016</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1944.181391632092</v>
+        <v>970.9166500664487</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6280086887456804</v>
+        <v>0.6625903648796949</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1078.019483629823</v>
+        <v>15.59271426655354</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6352233500719386</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>14.51607421700476</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5403081820619866</v>
+        <v>0.5023345340252148</v>
       </c>
     </row>
   </sheetData>
@@ -7963,7 +7456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7995,10 +7488,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2169.673413401004</v>
+        <v>-2310.188177127638</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2711188573613603</v>
+        <v>0.2328326879976972</v>
       </c>
     </row>
     <row r="3">
@@ -8008,10 +7501,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>409.4465786429274</v>
+        <v>395.0621740113664</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007669605667205272</v>
+        <v>0.0007201866553077923</v>
       </c>
     </row>
     <row r="4">
@@ -8021,10 +7514,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>345.2289642921943</v>
+        <v>355.3790625191692</v>
       </c>
       <c r="C4" t="n">
-        <v>3.732474428344438e-05</v>
+        <v>1.29268686622373e-05</v>
       </c>
     </row>
     <row r="5">
@@ -8034,10 +7527,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06891473234052989</v>
+        <v>0.03595808825460467</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5720399759663516</v>
+        <v>0.7389699153632143</v>
       </c>
     </row>
     <row r="6">
@@ -8047,10 +7540,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.516485109399909e-05</v>
+        <v>-4.380800656797571e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7261199866491579</v>
+        <v>0.7306752139333115</v>
       </c>
     </row>
     <row r="7">
@@ -8060,10 +7553,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.00710428194908</v>
+        <v>-10.13374221454938</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3871178589715693</v>
+        <v>0.374994806739405</v>
       </c>
     </row>
     <row r="8">
@@ -8073,10 +7566,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.56688934149712</v>
+        <v>14.23734523861765</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1247325224547465</v>
+        <v>0.1008067747446906</v>
       </c>
     </row>
     <row r="9">
@@ -8086,10 +7579,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2161.583975533868</v>
+        <v>2027.797125392803</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02212070096538797</v>
+        <v>0.02440208649099111</v>
       </c>
     </row>
     <row r="10">
@@ -8099,49 +7592,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>890.7235786456285</v>
+        <v>1155.303769511564</v>
       </c>
       <c r="C10" t="n">
-        <v>0.480627099580311</v>
+        <v>0.3264204554429694</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2571.090732998637</v>
+        <v>1653.781267408702</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5389604695174594</v>
+        <v>0.4634092184652043</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1669.320855331196</v>
+        <v>38.06947384722278</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4650610544927043</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>37.26067658481044</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1096374016255077</v>
+        <v>0.09751006011601675</v>
       </c>
     </row>
   </sheetData>
@@ -8155,7 +7635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8187,10 +7667,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-270.1758601648644</v>
+        <v>-361.3674233852107</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9133465610761353</v>
+        <v>0.8836541833250121</v>
       </c>
     </row>
     <row r="3">
@@ -8200,10 +7680,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>258.7350082050221</v>
+        <v>268.628503382653</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02511159660139443</v>
+        <v>0.0191693451839243</v>
       </c>
     </row>
     <row r="4">
@@ -8213,10 +7693,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>313.5797346929941</v>
+        <v>302.7740155313482</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004796353577504324</v>
+        <v>0.0005442042958299424</v>
       </c>
     </row>
     <row r="5">
@@ -8226,10 +7706,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1172188789106567</v>
+        <v>0.1568264660613438</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4929090066417073</v>
+        <v>0.3412471532040838</v>
       </c>
     </row>
     <row r="6">
@@ -8239,10 +7719,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001829618377390286</v>
+        <v>-0.0001695607540949291</v>
       </c>
       <c r="C6" t="n">
-        <v>0.253935293761787</v>
+        <v>0.284847399068514</v>
       </c>
     </row>
     <row r="7">
@@ -8252,10 +7732,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.75319130917609</v>
+        <v>-14.04712255751789</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2765121744804688</v>
+        <v>0.2963282001616929</v>
       </c>
     </row>
     <row r="8">
@@ -8265,10 +7745,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.3917088877842</v>
+        <v>20.82691378642156</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04540745363657425</v>
+        <v>0.03991133361345711</v>
       </c>
     </row>
     <row r="9">
@@ -8278,10 +7758,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2002.986225778413</v>
+        <v>2185.573909276248</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05509760913942743</v>
+        <v>0.03291252297985002</v>
       </c>
     </row>
     <row r="10">
@@ -8291,49 +7771,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>407.0343285509734</v>
+        <v>155.1472178526874</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7825077098722799</v>
+        <v>0.914121705706696</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3766.530922940172</v>
+        <v>739.8597507156528</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3829996694099422</v>
+        <v>0.7426578764653309</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1066.301840195221</v>
+        <v>5.783332855280875</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6424743632646941</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3.416420314810608</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8980353656719562</v>
+        <v>0.8266645523093098</v>
       </c>
     </row>
   </sheetData>
@@ -8347,7 +7814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8379,10 +7846,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-848.9463280394111</v>
+        <v>-672.0580580395126</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6639165487273615</v>
+        <v>0.7229410037786468</v>
       </c>
     </row>
     <row r="3">
@@ -8392,10 +7859,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>300.0842829447892</v>
+        <v>301.8201158357995</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003910117315132935</v>
+        <v>0.003210170662472982</v>
       </c>
     </row>
     <row r="4">
@@ -8405,10 +7872,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>401.6446912133412</v>
+        <v>387.9218417954066</v>
       </c>
       <c r="C4" t="n">
-        <v>3.063240069846656e-06</v>
+        <v>1.033428516309563e-06</v>
       </c>
     </row>
     <row r="5">
@@ -8418,10 +7885,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02594949818184067</v>
+        <v>0.05314123738872945</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8301782082788938</v>
+        <v>0.6236772122854133</v>
       </c>
     </row>
     <row r="6">
@@ -8431,10 +7898,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.872041625807277e-05</v>
+        <v>-9.370708934287826e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4306311524198712</v>
+        <v>0.4460892831285961</v>
       </c>
     </row>
     <row r="7">
@@ -8444,10 +7911,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.055567997114878</v>
+        <v>-7.107965131595193</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5196847515097591</v>
+        <v>0.5103380141296734</v>
       </c>
     </row>
     <row r="8">
@@ -8457,10 +7924,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.00061368147696</v>
+        <v>12.94662586674616</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1180202298685868</v>
+        <v>0.1139264976201736</v>
       </c>
     </row>
     <row r="9">
@@ -8470,10 +7937,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2003.446647662186</v>
+        <v>2184.597013677877</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04245199813818212</v>
+        <v>0.01764726399201222</v>
       </c>
     </row>
     <row r="10">
@@ -8483,49 +7950,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1071.198942725678</v>
+        <v>916.9720767605959</v>
       </c>
       <c r="C10" t="n">
-        <v>0.338062902687943</v>
+        <v>0.3875354192720255</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2805.610699173238</v>
+        <v>1618.383643487493</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5949667571395394</v>
+        <v>0.4805465968425772</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1684.492836233098</v>
+        <v>4.71707774971037</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4702511961862645</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6.52563555950718</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7639546115705176</v>
+        <v>0.8234222679562784</v>
       </c>
     </row>
   </sheetData>
@@ -8539,7 +7993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8571,10 +8025,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2004.763186070923</v>
+        <v>-2034.8583058554</v>
       </c>
       <c r="C2" t="n">
-        <v>0.287635331585879</v>
+        <v>0.2747865594806672</v>
       </c>
     </row>
     <row r="3">
@@ -8584,10 +8038,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>373.2316816805304</v>
+        <v>363.0766016798309</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003022016964001022</v>
+        <v>0.0002854954206070969</v>
       </c>
     </row>
     <row r="4">
@@ -8597,10 +8051,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>333.2997708078317</v>
+        <v>343.9597743879962</v>
       </c>
       <c r="C4" t="n">
-        <v>3.035664040816827e-05</v>
+        <v>9.8404269076114e-06</v>
       </c>
     </row>
     <row r="5">
@@ -8610,10 +8064,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1588223562967599</v>
+        <v>0.1338164044413442</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1351252616936525</v>
+        <v>0.1693214697821061</v>
       </c>
     </row>
     <row r="6">
@@ -8623,10 +8077,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.771630064472683e-05</v>
+        <v>-9.266086310505341e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4442139638088916</v>
+        <v>0.4128051754691525</v>
       </c>
     </row>
     <row r="7">
@@ -8636,10 +8090,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.96395841513917</v>
+        <v>-14.46634053239249</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2146968162213275</v>
+        <v>0.2233983913759242</v>
       </c>
     </row>
     <row r="8">
@@ -8649,10 +8103,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.35508131668524</v>
+        <v>16.35160814564258</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05714357056408102</v>
+        <v>0.05417998917715826</v>
       </c>
     </row>
     <row r="9">
@@ -8662,10 +8116,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2500.345415925664</v>
+        <v>2409.823183964686</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006893692043467193</v>
+        <v>0.007334654113887084</v>
       </c>
     </row>
     <row r="10">
@@ -8675,49 +8129,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>420.6656221376456</v>
+        <v>553.5331419447534</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6632204132758373</v>
+        <v>0.5539244922924603</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2215.082657561611</v>
+        <v>425.8984343487464</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5113526703326545</v>
+        <v>0.8456639147982579</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>331.1591498222533</v>
+        <v>37.12416787849436</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8813100747060314</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>38.11614107627962</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.04100103257840428</v>
+        <v>0.04275407672965159</v>
       </c>
     </row>
   </sheetData>
@@ -8731,7 +8172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8763,10 +8204,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-840.6494930759854</v>
+        <v>-794.3743616446282</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7118989236947941</v>
+        <v>0.7229425981164754</v>
       </c>
     </row>
     <row r="3">
@@ -8776,10 +8217,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>253.6668262383158</v>
+        <v>256.4848334097774</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04381544108197889</v>
+        <v>0.03847396092314136</v>
       </c>
     </row>
     <row r="4">
@@ -8789,10 +8230,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>382.6073334027265</v>
+        <v>371.3286917876385</v>
       </c>
       <c r="C4" t="n">
-        <v>7.073911023677872e-05</v>
+        <v>4.958048367450671e-05</v>
       </c>
     </row>
     <row r="5">
@@ -8802,10 +8243,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05780522235687147</v>
+        <v>-0.03988181874882912</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7109019227242175</v>
+        <v>0.7901755717629092</v>
       </c>
     </row>
     <row r="6">
@@ -8815,10 +8256,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.638142205030721e-06</v>
+        <v>1.640697957418403e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.989412587043033</v>
+        <v>0.9326744408417381</v>
       </c>
     </row>
     <row r="7">
@@ -8828,10 +8269,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.852484025319356</v>
+        <v>1.659226655115788</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8976518967779634</v>
+        <v>0.9068777592075579</v>
       </c>
     </row>
     <row r="8">
@@ -8841,10 +8282,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.32182989823723</v>
+        <v>17.78967045688993</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09305494164359922</v>
+        <v>0.07925861501151282</v>
       </c>
     </row>
     <row r="9">
@@ -8854,10 +8295,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-324.6661269595206</v>
+        <v>-298.566616439799</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8745411913546252</v>
+        <v>0.8827966174512052</v>
       </c>
     </row>
     <row r="10">
@@ -8867,49 +8308,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>997.8769421841889</v>
+        <v>880.7024124951586</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4567087012975507</v>
+        <v>0.4984706940236479</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2203.339189807753</v>
+        <v>394.8366468911609</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5968686608839875</v>
+        <v>0.8572455329661333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>615.3723209650234</v>
+        <v>5.549304141056354</v>
       </c>
       <c r="C12" t="n">
-        <v>0.786082002040557</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5.196428551438544</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8398526140346997</v>
+        <v>0.8265716753114433</v>
       </c>
     </row>
   </sheetData>
@@ -8923,7 +8351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8955,10 +8383,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-217.8756030633376</v>
+        <v>-221.6861309925407</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9126504140641265</v>
+        <v>0.9094216248789408</v>
       </c>
     </row>
     <row r="3">
@@ -8968,10 +8396,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>293.4443466874059</v>
+        <v>294.0949358980422</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004340970228150524</v>
+        <v>0.003566569631395265</v>
       </c>
     </row>
     <row r="4">
@@ -8981,10 +8409,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>353.6832898223664</v>
+        <v>349.9699186796952</v>
       </c>
       <c r="C4" t="n">
-        <v>2.371680844216133e-05</v>
+        <v>1.465216608464971e-05</v>
       </c>
     </row>
     <row r="5">
@@ -8994,10 +8422,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05841718081296721</v>
+        <v>0.06926025796699203</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6440539848915814</v>
+        <v>0.5587249396447032</v>
       </c>
     </row>
     <row r="6">
@@ -9007,10 +8435,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001129898875277279</v>
+        <v>-0.0001070023822843435</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4603274023887607</v>
+        <v>0.4716008195236385</v>
       </c>
     </row>
     <row r="7">
@@ -9020,10 +8448,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.312292164464004</v>
+        <v>-9.258356961106941</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3998344264276825</v>
+        <v>0.3934412632807802</v>
       </c>
     </row>
     <row r="8">
@@ -9033,10 +8461,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.56376407970119</v>
+        <v>14.71308040962536</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1186054404365992</v>
+        <v>0.1076431409266019</v>
       </c>
     </row>
     <row r="9">
@@ -9046,10 +8474,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1456.304887049921</v>
+        <v>1535.049159104256</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4863378525997069</v>
+        <v>0.4508012642810271</v>
       </c>
     </row>
     <row r="10">
@@ -9059,49 +8487,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>791.402997967818</v>
+        <v>729.1396338037689</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4644281714509119</v>
+        <v>0.4826744976961308</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1265.740107665515</v>
+        <v>2492.483023665767</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7751606081776998</v>
+        <v>0.245117755456536</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2502.481047188612</v>
+        <v>-1.921341175732977</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2523907339918406</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-2.111829386309836</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9195408559506344</v>
+        <v>0.9253303513142526</v>
       </c>
     </row>
   </sheetData>
@@ -9115,7 +8530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9147,10 +8562,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2522.331518620573</v>
+        <v>-2486.238615863065</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2403381074572394</v>
+        <v>0.2424663946810802</v>
       </c>
     </row>
     <row r="3">
@@ -9160,10 +8575,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>238.8267270083064</v>
+        <v>246.7873607427144</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03583318986983462</v>
+        <v>0.0282666997753043</v>
       </c>
     </row>
     <row r="4">
@@ -9173,10 +8588,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>404.8840925397627</v>
+        <v>383.2845636459188</v>
       </c>
       <c r="C4" t="n">
-        <v>2.122395266272805e-05</v>
+        <v>1.296163825216837e-05</v>
       </c>
     </row>
     <row r="5">
@@ -9186,10 +8601,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005402451165528177</v>
+        <v>0.05078669073091391</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9685633639727077</v>
+        <v>0.6778121959346253</v>
       </c>
     </row>
     <row r="6">
@@ -9199,10 +8614,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.775902280173386e-05</v>
+        <v>-6.756141887793337e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6859488688060495</v>
+        <v>0.6319895730785412</v>
       </c>
     </row>
     <row r="7">
@@ -9212,10 +8627,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.59259367059434</v>
+        <v>-6.189415955213777</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5829242869094406</v>
+        <v>0.6024378340845288</v>
       </c>
     </row>
     <row r="8">
@@ -9225,10 +8640,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.20732687900905</v>
+        <v>21.50858799321635</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03607867856639553</v>
+        <v>0.02277081600472404</v>
       </c>
     </row>
     <row r="9">
@@ -9238,10 +8653,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1793.426170290301</v>
+        <v>2065.334545629887</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1036393323111163</v>
+        <v>0.04724330685420255</v>
       </c>
     </row>
     <row r="10">
@@ -9251,49 +8666,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1218.165964768824</v>
+        <v>940.946716756845</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3598175112997511</v>
+        <v>0.4558938114017775</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3819.76344337025</v>
+        <v>1227.245243925762</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4540974527606084</v>
+        <v>0.5935299640551335</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1726.593783884603</v>
+        <v>32.0123689369079</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4754550496677593</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>31.55236790900341</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1725847342154176</v>
+        <v>0.1625468026969477</v>
       </c>
     </row>
   </sheetData>
@@ -9307,7 +8709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9339,10 +8741,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2305.355891427065</v>
+        <v>-2224.773279710806</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2319486449680174</v>
+        <v>0.2441498363840247</v>
       </c>
     </row>
     <row r="3">
@@ -9352,10 +8754,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>276.3183768152518</v>
+        <v>283.3586964779821</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0215156098225546</v>
+        <v>0.01745627457224686</v>
       </c>
     </row>
     <row r="4">
@@ -9365,10 +8767,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>353.2326232433384</v>
+        <v>338.4077523152445</v>
       </c>
       <c r="C4" t="n">
-        <v>2.15552177886394e-05</v>
+        <v>1.885962804601843e-05</v>
       </c>
     </row>
     <row r="5">
@@ -9378,10 +8780,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05688161277386139</v>
+        <v>0.08707906829533713</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6565101653883887</v>
+        <v>0.4751709977570626</v>
       </c>
     </row>
     <row r="6">
@@ -9391,10 +8793,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.000109407067626926</v>
+        <v>-9.523133742071093e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4980634795579706</v>
+        <v>0.5498057998918792</v>
       </c>
     </row>
     <row r="7">
@@ -9404,10 +8806,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.046989389477199</v>
+        <v>-8.228924489362161</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4929370806257787</v>
+        <v>0.4801614764993599</v>
       </c>
     </row>
     <row r="8">
@@ -9417,10 +8819,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.68987041329786</v>
+        <v>23.78461458996257</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01934863083228342</v>
+        <v>0.01793685116177012</v>
       </c>
     </row>
     <row r="9">
@@ -9430,10 +8832,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2315.474619318542</v>
+        <v>2471.336018998103</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02392928424551074</v>
+        <v>0.01402627937795432</v>
       </c>
     </row>
     <row r="10">
@@ -9443,49 +8845,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>876.3856243106538</v>
+        <v>689.713270991524</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4696504198789345</v>
+        <v>0.5587002023615573</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3431.167913521059</v>
+        <v>946.8828732094698</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4177947436513669</v>
+        <v>0.6658798667637599</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1103.164270581983</v>
+        <v>23.59976282378193</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6189072279763408</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>22.88666995039313</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2816516423923717</v>
+        <v>0.2634430241232977</v>
       </c>
     </row>
   </sheetData>
@@ -9499,7 +8888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9531,10 +8920,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2784.242920136413</v>
+        <v>-2706.067871949092</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1602387480987571</v>
+        <v>0.1670634663178598</v>
       </c>
     </row>
     <row r="3">
@@ -9544,10 +8933,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245.0469723413033</v>
+        <v>249.6339630850961</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03075100471826851</v>
+        <v>0.02620824557869537</v>
       </c>
     </row>
     <row r="4">
@@ -9557,10 +8946,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>448.6384733672967</v>
+        <v>428.9197358722938</v>
       </c>
       <c r="C4" t="n">
-        <v>8.829997791373932e-07</v>
+        <v>3.506288159898206e-07</v>
       </c>
     </row>
     <row r="5">
@@ -9570,10 +8959,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.007607203043196231</v>
+        <v>0.05563497029251183</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9584474014684612</v>
+        <v>0.6683145583303824</v>
       </c>
     </row>
     <row r="6">
@@ -9583,10 +8972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.380850143658119e-05</v>
+        <v>-0.0001014742780126679</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4394833176748705</v>
+        <v>0.3973509044408806</v>
       </c>
     </row>
     <row r="7">
@@ -9596,10 +8985,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.13437852408671</v>
+        <v>-9.924283237958385</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3989810739823523</v>
+        <v>0.4041180098675742</v>
       </c>
     </row>
     <row r="8">
@@ -9609,10 +8998,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.23363179301501</v>
+        <v>20.29960420402341</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02016304450316512</v>
+        <v>0.01237233814044717</v>
       </c>
     </row>
     <row r="9">
@@ -9622,10 +9011,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1863.071874189254</v>
+        <v>2086.290205325979</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04740414052655582</v>
+        <v>0.01910844529171467</v>
       </c>
     </row>
     <row r="10">
@@ -9635,49 +9024,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2789.390273117137</v>
+        <v>2473.118303697388</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05715656192317886</v>
+        <v>0.07247566805719437</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3289.605750386578</v>
+        <v>1411.604588262289</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4614322889463883</v>
+        <v>0.4833120876158471</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1889.649070783857</v>
+        <v>32.30809771656696</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3773445066710434</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>32.34592179145399</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1169796144321148</v>
+        <v>0.1137966532160909</v>
       </c>
     </row>
   </sheetData>
@@ -9691,7 +9067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9723,10 +9099,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2465.639570308953</v>
+        <v>-2333.553357955978</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3298378566230709</v>
+        <v>0.345773565715756</v>
       </c>
     </row>
     <row r="3">
@@ -9736,10 +9112,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>279.6357137159091</v>
+        <v>280.6462506372332</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01254627772442922</v>
+        <v>0.01091352868341007</v>
       </c>
     </row>
     <row r="4">
@@ -9749,10 +9125,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>406.3210355364567</v>
+        <v>390.7120447998497</v>
       </c>
       <c r="C4" t="n">
-        <v>8.078600858795871e-05</v>
+        <v>4.183789362072987e-05</v>
       </c>
     </row>
     <row r="5">
@@ -9762,10 +9138,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0694635732515374</v>
+        <v>0.08844982313898603</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6433904065294114</v>
+        <v>0.5367232412308083</v>
       </c>
     </row>
     <row r="6">
@@ -9775,10 +9151,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001187523238528103</v>
+        <v>-0.0001078107629269927</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4796468330904453</v>
+        <v>0.510561381553692</v>
       </c>
     </row>
     <row r="7">
@@ -9788,10 +9164,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.609588452095394</v>
+        <v>-4.571226526978577</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8242550457094187</v>
+        <v>0.773695360348626</v>
       </c>
     </row>
     <row r="8">
@@ -9801,10 +9177,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.70141584223781</v>
+        <v>20.06714146004243</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06496221948851789</v>
+        <v>0.05589710164337305</v>
       </c>
     </row>
     <row r="9">
@@ -9814,10 +9190,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1994.197688230684</v>
+        <v>2120.292572813526</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07198351876889345</v>
+        <v>0.04695191052498904</v>
       </c>
     </row>
     <row r="10">
@@ -9827,49 +9203,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>432.9501251123756</v>
+        <v>315.2122520390731</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7548723600184366</v>
+        <v>0.8147089893775976</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.455795184748</v>
+        <v>-157.2394879040294</v>
       </c>
       <c r="C11" t="n">
-        <v>0.616522910656657</v>
+        <v>0.9517017040664038</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>75.47529579492812</v>
+        <v>33.27348680169821</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9775064428383992</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>33.36781402800761</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1951778413694217</v>
+        <v>0.1894120448352644</v>
       </c>
     </row>
   </sheetData>
@@ -9883,7 +9246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9915,10 +9278,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1904.091863451055</v>
+        <v>1918.329020086835</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4773460304604119</v>
+        <v>0.4645514855863007</v>
       </c>
     </row>
     <row r="3">
@@ -9928,10 +9291,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>241.5997185351162</v>
+        <v>240.1481102000293</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01763321694415551</v>
+        <v>0.01524835421358227</v>
       </c>
     </row>
     <row r="4">
@@ -9941,10 +9304,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>345.0446906585651</v>
+        <v>345.8606846230354</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001804931074434001</v>
+        <v>0.0001230150279771422</v>
       </c>
     </row>
     <row r="5">
@@ -9954,10 +9317,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01843386265911162</v>
+        <v>-0.0239188795242623</v>
       </c>
       <c r="C5" t="n">
-        <v>0.892218679599969</v>
+        <v>0.8491259697373389</v>
       </c>
     </row>
     <row r="6">
@@ -9967,10 +9330,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.925955734348905e-06</v>
+        <v>9.892139756138797e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9450938082196209</v>
+        <v>0.9441481708133905</v>
       </c>
     </row>
     <row r="7">
@@ -9980,10 +9343,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.368502482526466</v>
+        <v>-9.499927115441011</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4076226355007404</v>
+        <v>0.3893017301418193</v>
       </c>
     </row>
     <row r="8">
@@ -9993,10 +9356,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.326510269320519</v>
+        <v>5.216743062469583</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5760612112556734</v>
+        <v>0.5743968679597073</v>
       </c>
     </row>
     <row r="9">
@@ -10006,10 +9369,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>321.7968570168832</v>
+        <v>287.5271461920838</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8499425613498495</v>
+        <v>0.8610884676799875</v>
       </c>
     </row>
     <row r="10">
@@ -10019,49 +9382,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1194.123116651562</v>
+        <v>1226.545489876911</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2779318132101834</v>
+        <v>0.2412883435197168</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-466.760644303391</v>
+        <v>-568.1955481426594</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9034098957081124</v>
+        <v>0.8163475262146316</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-571.2675586488022</v>
+        <v>-14.52859299270825</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8190659520902154</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-14.53139559819441</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5757873364147779</v>
+        <v>0.5679742147227356</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Dijon.xlsx
+++ b/outputs/ML_Results/dist_LR/Dijon.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ12782741" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ13065953" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ13344259" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ13623032" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ13899167" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ14173311" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ14465817" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ14748239" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ15023548" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ15296431" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ15559871" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ15914836" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ16198140" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ16478416" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ16785403" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ17085107" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ17369950" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ17646002" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ17928282" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ18202361" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ18508773" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ18791064" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ19061452" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ19332335" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ19605778" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ19876954" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ20145161" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ20403575" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ20679925" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ20944300" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ21212963" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ21479464" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ21762432" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ22026784" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ22348173" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ22613533" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ22877939" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ23155293" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ23412206" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ23677963" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ23942119" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ24210011" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ24495216" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ24769490" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ25061124" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ25339391" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ25610293" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ25893444" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ26188739" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ26463359" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ51676947" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ51946245" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ52228963" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ52496427" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ52780550" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ53122407" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ53457002" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ53750928" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ54094219" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ54491583" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ54835153" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ55178977" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ55534395" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ55906614" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ56249239" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ56654351" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ57005969" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ57339664" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ57680018" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ58040755" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ58430328" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ58768172" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ59118332" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ59474780" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ00090195" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ00417975" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ00794533" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ01161972" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ01549354" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ01887530" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ02222027" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ02565763" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ02944045" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ03259793" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ03599206" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ03961701" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ04314453" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ04692446" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ05028913" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ05383298" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ05784860" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ06148439" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ06542339" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ06865440" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ07247659" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ07597408" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ07930766" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ08268510" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ08610598" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ08957931" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Dijon.xlsx
+++ b/outputs/ML_Results/dist_LR/Dijon.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ51676947" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ51946245" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ52228963" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ52496427" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ52780550" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ53122407" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ53457002" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ53750928" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ54094219" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ54491583" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ54835153" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ55178977" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ55534395" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ55906614" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ56249239" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ56654351" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ57005969" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ57339664" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ57680018" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ58040755" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ58430328" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ58768172" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ59118332" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ59474780" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ00090195" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ00417975" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ00794533" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ01161972" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ01549354" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ01887530" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ02222027" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ02565763" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ02944045" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ03259793" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ03599206" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ03961701" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ04314453" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ04692446" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ05028913" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ05383298" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ05784860" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ06148439" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ06542339" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ06865440" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ07247659" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ07597408" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ07930766" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ08268510" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ08610598" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ08957931" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ56695535" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ56955979" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ57222911" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ57530523" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ57826020" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ58098996" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ58375909" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ58638930" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ58902208" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ59183136" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ59466889" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ59747966" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ00052760" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ00339947" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ00638461" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ00924871" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ01201795" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ01482557" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ01759402" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ02034003" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ02305828" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ02568525" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ02845678" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ03156811" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ03445494" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ03731997" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ03996944" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ04275361" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ04554526" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ04831106" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ05111896" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ05396339" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ05663053" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ05943062" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ06226148" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ06502882" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ06781752" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ07051331" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ07325264" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ07612838" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ07892781" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ08151609" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ08435849" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ08711753" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ08998490" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ09272710" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ09560801" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ09847785" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ10109551" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ10398055" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,140 +507,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1635.17439314458</v>
+        <v>2171.576307301042</v>
       </c>
       <c r="C2" t="n">
-        <v>0.334155914534813</v>
+        <v>0.04883036871933237</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>400.5199354288861</v>
+        <v>428.5802457480306</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001331071918236216</v>
+        <v>5.719083357359374e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.679715586288</v>
+        <v>-0.09983138041453776</v>
       </c>
       <c r="C4" t="n">
-        <v>4.122687170186476e-05</v>
+        <v>0.3723797400175652</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1123193635296478</v>
+        <v>49.78320644980158</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3074265338902478</v>
+        <v>0.9904835469522122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.486644499535243e-05</v>
+        <v>786.9724001536742</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6213044035679702</v>
+        <v>0.5708971033062791</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.89840976906055</v>
+        <v>245.5216038717282</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1568122858747257</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>16.96936198503804</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05101819180640256</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2490.413881711563</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.00527724831331242</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>441.4349236908547</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.67712022867163</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-356.7917008268396</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8503601293320939</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>32.03598124666368</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09553764117632008</v>
+        <v>0.09323719972474875</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,140 +621,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1298.465103606657</v>
+        <v>2146.804688663234</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4672787983765627</v>
+        <v>0.05688298242977084</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.5517142754777</v>
+        <v>417.6407908021941</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007602771154674063</v>
+        <v>2.40673008271563e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>318.886691659602</v>
+        <v>-0.04991224758123536</v>
       </c>
       <c r="C4" t="n">
-        <v>5.069252686782229e-05</v>
+        <v>0.6340760999078243</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05695990978909848</v>
+        <v>1281.371945680257</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6007198440728201</v>
+        <v>0.7390175365874814</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.567969500615554e-05</v>
+        <v>-347.3327872255352</v>
       </c>
       <c r="C6" t="n">
-        <v>0.52303676549181</v>
+        <v>0.8053428724001066</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.476656980692006</v>
+        <v>257.5466694929519</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4888223017983105</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>19.02227011929322</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01899465476336892</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2002.380836816363</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.04212458036636756</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>304.6366210648853</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7751118081664203</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>831.7120521075303</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6721611589403602</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>20.40164016771774</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3002563809776577</v>
+        <v>0.04466310226039561</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,140 +735,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1059.509462928065</v>
+        <v>1996.963861012459</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5790551787357641</v>
+        <v>0.06797721689798551</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>355.7461798002372</v>
+        <v>436.7750838130772</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0009425103269412994</v>
+        <v>8.519276639076448e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>417.2816129210418</v>
+        <v>-0.05853097340604368</v>
       </c>
       <c r="C4" t="n">
-        <v>1.129176450727523e-06</v>
+        <v>0.5974443782530883</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1002159695840962</v>
+        <v>-457.9969826901124</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3871040987929638</v>
+        <v>0.9182098065591868</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001397222373051205</v>
+        <v>280.6273618190312</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3478626124885384</v>
+        <v>0.8373690374707772</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.875161421505062</v>
+        <v>334.2376372286312</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6394001953825348</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.449270997925204</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3264041138463694</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2492.182704883548</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01110858285490759</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>704.6328076222699</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5223276357800105</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3009.063125291463</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1633501803070356</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8.527817549690269</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6961383911551372</v>
+        <v>0.03155891364383524</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +817,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1044,140 +849,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2553.281465687914</v>
+        <v>563.2380933440459</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2616842089425289</v>
+        <v>0.5979801910570103</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229.9553177706102</v>
+        <v>436.3635082069429</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04856807581395917</v>
+        <v>6.615545715803982e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>375.0712389892912</v>
+        <v>-0.06305518263191071</v>
       </c>
       <c r="C4" t="n">
-        <v>2.451653550708902e-05</v>
+        <v>0.4896051634582979</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08253614963085421</v>
+        <v>7808.754757196217</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5452329438223815</v>
+        <v>0.0536628735257725</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001332659915838085</v>
+        <v>38.76052410747616</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3393230133388226</v>
+        <v>0.9730990822753155</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.112793312318946</v>
+        <v>379.4391144461693</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9379307253711057</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>25.90837714621762</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01509071551468503</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2191.822244445384</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.03816428664496022</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>584.7637441056206</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.683772295150608</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>273.1829883792725</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9143282076317958</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>25.58466588623665</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2944178641605127</v>
+        <v>0.009769895312739495</v>
       </c>
     </row>
   </sheetData>
@@ -1191,7 +931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1223,140 +963,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-228.0227043525338</v>
+        <v>1669.473280403889</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9219886190262372</v>
+        <v>0.03686498328606522</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>257.4386012115446</v>
+        <v>487.7989420674282</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03707407959895666</v>
+        <v>1.031989820107622e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>358.036624062432</v>
+        <v>-0.04635848667886786</v>
       </c>
       <c r="C4" t="n">
-        <v>3.475442680342436e-05</v>
+        <v>0.5515715524353293</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05100359505934926</v>
+        <v>-1503.478509410526</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7613987363622249</v>
+        <v>0.580366162613135</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.016687407673881e-05</v>
+        <v>1637.318047968472</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7189368251233641</v>
+        <v>0.1187617235062912</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.978690459189856</v>
+        <v>278.909219071629</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5055344168516633</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>14.28503449736911</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1399414093037031</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>23.64072468987251</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9916353742016547</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1460.991113067166</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2918646029586245</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1084.390056072421</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6740077651897562</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6.508233674163421</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7884285874854474</v>
+        <v>0.01115734499039217</v>
       </c>
     </row>
   </sheetData>
@@ -1370,7 +1045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1402,140 +1077,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-222.1710573331432</v>
+        <v>2300.810530646404</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9094624122550083</v>
+        <v>0.03831329467635183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345.3099435697054</v>
+        <v>412.22420413779</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001311287332761454</v>
+        <v>8.646477391827314e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>283.9395325158491</v>
+        <v>-0.1503086344589094</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001936287588045745</v>
+        <v>0.3080654247329303</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1199201777322002</v>
+        <v>-438.4086285443138</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2820842147733514</v>
+        <v>0.9075083632073262</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001311756228408715</v>
+        <v>1270.87317044894</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2924372703167101</v>
+        <v>0.3948195736740575</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.65117760657505</v>
+        <v>264.2056879393133</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2305265755488319</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>17.35823061755725</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.03123754010019618</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2001.86054110399</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.02221979993640263</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>109.772310539387</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9196428825810024</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-1185.057288766464</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5603217982600552</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>13.55523721371847</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4919926815772849</v>
+        <v>0.0429536430277372</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1581,140 +1191,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2701.688990140701</v>
+        <v>2095.311742400152</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1987756448800019</v>
+        <v>0.07369359843199055</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>258.7186551705497</v>
+        <v>474.1308108657429</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007284962698713708</v>
+        <v>1.274066589433207e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>406.7814097364901</v>
+        <v>-0.05959949045429183</v>
       </c>
       <c r="C4" t="n">
-        <v>6.721775122670244e-06</v>
+        <v>0.6562171378702688</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1511166612101958</v>
+        <v>-781.0280347880107</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1309791394689196</v>
+        <v>0.8441414208597019</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001554912616863206</v>
+        <v>594.8189852146006</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1766154151962651</v>
+        <v>0.7257390325995707</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.775091210404725</v>
+        <v>246.0348409693875</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5054631146302406</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>20.68484187416763</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.02151605386993051</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2286.319736624453</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.009803076969908375</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>651.9357942019633</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.505729764463135</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1361.735532570926</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4789485017308566</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>35.69838942729717</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09177499412936517</v>
+        <v>0.07425357865962078</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +1273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1760,140 +1305,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-943.5294258597896</v>
+        <v>1702.476349177581</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6354377181675748</v>
+        <v>0.1595240399034117</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>302.5463228128962</v>
+        <v>493.7745929333981</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002197010068525838</v>
+        <v>1.758148596019482e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>410.6630840607287</v>
+        <v>-0.04582279539609779</v>
       </c>
       <c r="C4" t="n">
-        <v>1.143715720472167e-06</v>
+        <v>0.6748999222406106</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07405582492636675</v>
+        <v>433.9991551058333</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5007670378913098</v>
+        <v>0.9111230279130129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.000119641795001035</v>
+        <v>336.0585268638597</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3629570942835174</v>
+        <v>0.8077850083289928</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.72883441608969</v>
+        <v>304.0554298496662</v>
       </c>
       <c r="C7" t="n">
-        <v>0.883486147265047</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>13.68371496638188</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1026107859008533</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2227.718491238851</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.02070693068043918</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>567.6891852391018</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6018123065081282</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-12.48545424922486</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9960152887294669</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7.729222506147153</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7352833612568186</v>
+        <v>0.06245955018000962</v>
       </c>
     </row>
   </sheetData>
@@ -1907,7 +1387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1939,140 +1419,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1730.149008135034</v>
+        <v>1607.364829322519</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4327148135657185</v>
+        <v>0.136906496243169</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>232.2261386097701</v>
+        <v>493.6774761032653</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05371394590971492</v>
+        <v>1.302881193145261e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>355.7830553292274</v>
+        <v>-0.1542047682980729</v>
       </c>
       <c r="C4" t="n">
-        <v>7.104535420441827e-05</v>
+        <v>0.3395311530973085</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07176982928710429</v>
+        <v>-141.3278715880551</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5858037414143233</v>
+        <v>0.9702653917503807</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001077074170755533</v>
+        <v>3072.612662417439</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4418911533696617</v>
+        <v>0.1434162340331674</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.282485875880582</v>
+        <v>279.5607591323667</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5847538649231001</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>22.31238900092923</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.02974509818849574</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1972.345264680821</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.05980109011698184</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1015.153322688049</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4764885341423413</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1102.738312054724</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6235847220340266</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>19.56788609040748</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3948374555595481</v>
+        <v>0.03833792030643122</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +1501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,140 +1533,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2092.413445239019</v>
+        <v>1661.648548108638</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1781614665735277</v>
+        <v>0.1452695064232401</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>387.9610695324661</v>
+        <v>392.6879505032356</v>
       </c>
       <c r="C3" t="n">
-        <v>5.670910450666567e-05</v>
+        <v>0.000302060903232355</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.9109591698772</v>
+        <v>-0.08722014733722044</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0564957570551e-05</v>
+        <v>0.4274248076982662</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1152301741328364</v>
+        <v>2213.595938124068</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2320529137886368</v>
+        <v>0.6311193640414348</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001170812551834585</v>
+        <v>393.0192552183044</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2657755373150721</v>
+        <v>0.7719560602321993</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.83532554146668</v>
+        <v>396.7135997997256</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2038702319564457</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>23.49311959379882</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.001559712419239491</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2587.573411297195</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.001316010368296212</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>353.9499838098081</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6895891016602684</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-151.2770288419142</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9274045708033074</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>31.76658430143604</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06741372301067729</v>
+        <v>0.01989365994571499</v>
       </c>
     </row>
   </sheetData>
@@ -2265,7 +1615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,140 +1647,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1410.307959558622</v>
+        <v>2015.390718006951</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4991793116609909</v>
+        <v>0.03682503780688808</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>243.612683379359</v>
+        <v>396.943515566067</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01652189757976678</v>
+        <v>3.428874745905551e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>398.4557289121425</v>
+        <v>-0.08178331968190657</v>
       </c>
       <c r="C4" t="n">
-        <v>3.169482119038218e-06</v>
+        <v>0.3889519010542052</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1036567107872042</v>
+        <v>3405.614023150647</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4663550771414214</v>
+        <v>0.345953636508612</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.775743459304137e-05</v>
+        <v>-216.3874960323117</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6086263460850749</v>
+        <v>0.8563217175009969</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.14926085297785</v>
+        <v>235.1885550511769</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2744961389065193</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>16.81035462384034</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.04907397119345951</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2149.878984481377</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.03736405547168692</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1030.742194232766</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3793428934953859</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2141.234705412731</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3158500495369408</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>18.40985427715178</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3885435784853783</v>
+        <v>0.05329715348512304</v>
       </c>
     </row>
   </sheetData>
@@ -2444,7 +1729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2476,140 +1761,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92.68694412255172</v>
+        <v>2178.01964502867</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9695283668864363</v>
+        <v>0.01933716461154946</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>248.8266730438515</v>
+        <v>386.9684912143027</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02765687409544343</v>
+        <v>1.986533975972501e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>317.5335976889563</v>
+        <v>-0.08905223540676285</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000216298073077438</v>
+        <v>0.2982678808748255</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02992847802390614</v>
+        <v>-2596.145910271877</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8143935204332982</v>
+        <v>0.3971028410196228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.758932984766538e-05</v>
+        <v>1298.283273408616</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4602515060710154</v>
+        <v>0.2398990017077734</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.270467391931632</v>
+        <v>379.8578987360373</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4506746866146843</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>13.18058651582494</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1818842982101957</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2015.222612129626</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.04836829731343845</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>770.0274684826405</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5193956534422208</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-533.2786096645145</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8464606477479717</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11.97191075590034</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6132938078936245</v>
+        <v>0.002953993948896867</v>
       </c>
     </row>
   </sheetData>
@@ -2623,7 +1843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2655,140 +1875,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-777.5256542362804</v>
+        <v>1590.115074729054</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7835616893006236</v>
+        <v>0.05682678836960992</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>293.6635661061256</v>
+        <v>471.9558007279999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02972112419310073</v>
+        <v>4.255785269260963e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>362.6491084118672</v>
+        <v>-0.05141484428820509</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001098055711560781</v>
+        <v>0.5788219819447918</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01891503779906079</v>
+        <v>-1312.793047020881</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8992048260452425</v>
+        <v>0.6549132807529323</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.545403012396696e-05</v>
+        <v>1230.319174200949</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8903923135595364</v>
+        <v>0.2079038203581541</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.359980219300738</v>
+        <v>297.3170129895938</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5408517538141226</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12.81504551424069</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2756742042914579</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>935.3212820342742</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6203895555405664</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1067.783381900068</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4191253820151511</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1235.801079624445</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6488884518083269</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>16.09893541553438</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5397006686171485</v>
+        <v>0.002947797446734817</v>
       </c>
     </row>
   </sheetData>
@@ -2802,7 +1957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2834,140 +1989,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1888.248881334838</v>
+        <v>1487.897656676348</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4236758289607259</v>
+        <v>0.07647923253766838</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>328.9027989169599</v>
+        <v>457.4914558005457</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004031170488616798</v>
+        <v>2.920817438498759e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>382.06564317994</v>
+        <v>-0.02025046287466589</v>
       </c>
       <c r="C4" t="n">
-        <v>2.170381567534084e-05</v>
+        <v>0.8145189358468576</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0500286995844767</v>
+        <v>-646.4422696635493</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6947781321542517</v>
+        <v>0.8232837059365751</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.40378169364859e-05</v>
+        <v>835.1127714095476</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6206235377957627</v>
+        <v>0.3832730999824476</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.188956453217124</v>
+        <v>326.4892946902045</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7002729902071185</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>17.36496391027574</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.08821857190727153</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2316.287670798072</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0292058046684256</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>907.0997840184153</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5167734015187984</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-145.1794138193309</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9531335706900099</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>25.06150514082833</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3105945615602602</v>
+        <v>0.001467211039002154</v>
       </c>
     </row>
   </sheetData>
@@ -2981,7 +2071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3013,140 +2103,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1204.202356450369</v>
+        <v>1567.653513811908</v>
       </c>
       <c r="C2" t="n">
-        <v>0.632550263498701</v>
+        <v>0.1855128303871841</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>240.2861873993286</v>
+        <v>474.6104179785904</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03680739394529638</v>
+        <v>3.325992918302347e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>354.6387951439148</v>
+        <v>-0.03847591775622006</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001081010622100537</v>
+        <v>0.7891427893614256</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08238491179941718</v>
+        <v>871.2081459353867</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5936616648877733</v>
+        <v>0.8282041934020502</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001515849540565566</v>
+        <v>467.4651126931052</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3233949204853793</v>
+        <v>0.782908291856879</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.281902422810489</v>
+        <v>302.3458160185056</v>
       </c>
       <c r="C7" t="n">
-        <v>0.750683444101325</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>19.17360451653322</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.04602830211723567</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2003.857121500519</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.05037910510596292</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>495.9588308689008</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7284529615312274</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-430.2449224406773</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8581943972353747</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>20.15824996830227</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4435251353200464</v>
+        <v>0.04935453850596481</v>
       </c>
     </row>
   </sheetData>
@@ -3160,7 +2185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3192,140 +2217,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-605.4780715732413</v>
+        <v>1019.95589224171</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7788148713415597</v>
+        <v>0.2597077746902412</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>327.8613499453799</v>
+        <v>507.5170859613675</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008047795664843203</v>
+        <v>1.440497099684426e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>354.6775371002699</v>
+        <v>-0.04970522597056268</v>
       </c>
       <c r="C4" t="n">
-        <v>2.072883056994056e-05</v>
+        <v>0.5876284080484562</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1058300502991374</v>
+        <v>7013.602318330752</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5213885314219986</v>
+        <v>0.09832060966540707</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.243655991252151e-05</v>
+        <v>-0.5143014919554503</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7511024588969629</v>
+        <v>0.999650703417818</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.246350766428636</v>
+        <v>209.6773773154133</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7762279386450759</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>13.73767914728225</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1184607338478666</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-803.7991621907295</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6969569628191332</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1026.862248966914</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4084474971530445</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>959.5489898856176</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7146176815530432</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8.094011211866587</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7316606102476633</v>
+        <v>0.1091790232580474</v>
       </c>
     </row>
   </sheetData>
@@ -3339,7 +2299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3371,140 +2331,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1754.639362139584</v>
+        <v>2431.689292908471</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3170102369789071</v>
+        <v>0.03410847264143665</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>387.6323658367679</v>
+        <v>407.7560208391732</v>
       </c>
       <c r="C3" t="n">
-        <v>8.458420516943509e-05</v>
+        <v>6.543170860316312e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>349.7472162398412</v>
+        <v>-0.1364985934268846</v>
       </c>
       <c r="C4" t="n">
-        <v>1.590560788271069e-05</v>
+        <v>0.2252016645478115</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07857571712688233</v>
+        <v>-510.9365933594549</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4266992311618644</v>
+        <v>0.8950272875543159</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.068647395686145e-05</v>
+        <v>1223.71295480935</v>
       </c>
       <c r="C6" t="n">
-        <v>0.722473835032883</v>
+        <v>0.3922918128142459</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.66889180116874</v>
+        <v>243.7327500331972</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2183503975024496</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12.54280494812932</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1255470514918875</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2311.670202934365</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.006314227983158708</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>677.7721620291238</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4665456078023213</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1127.270616839236</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5276671893101814</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>32.11491607502478</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1142306467973678</v>
+        <v>0.08766472515061197</v>
       </c>
     </row>
   </sheetData>
@@ -3518,7 +2413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3550,140 +2445,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1947.310907890513</v>
+        <v>2274.407781731081</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2584755937653967</v>
+        <v>0.04332917481012</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146.311225146083</v>
+        <v>401.5974639156285</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1357791223655658</v>
+        <v>0.0001382186895006583</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>385.8077763573891</v>
+        <v>-0.0819229275820475</v>
       </c>
       <c r="C4" t="n">
-        <v>1.004426246641789e-06</v>
+        <v>0.4682800700838257</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1684603252537606</v>
+        <v>-727.9066990346328</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1126420385946308</v>
+        <v>0.8531352080100051</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.000167324501120787</v>
+        <v>485.6687498652209</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1823030037678647</v>
+        <v>0.730369318245867</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.96546438798831</v>
+        <v>339.4241021003005</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2370492872261759</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>27.94397418662743</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.001921164836404229</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2317.675961739421</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01198509618412854</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>785.1053689215851</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4077359509108841</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2639.631444070711</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1719217619437873</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11.33910691946825</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5319850290044168</v>
+        <v>0.02034879447873637</v>
       </c>
     </row>
   </sheetData>
@@ -3697,7 +2527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3729,140 +2559,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2127.555598599153</v>
+        <v>1383.813718989051</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2191566891834263</v>
+        <v>0.06218701272609699</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>298.0684187935581</v>
+        <v>437.2932161922429</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004741284437838977</v>
+        <v>1.258142882820084e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>368.4014625023876</v>
+        <v>-0.05161948919061828</v>
       </c>
       <c r="C4" t="n">
-        <v>1.758284009336398e-06</v>
+        <v>0.5352845784366596</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1219286203847271</v>
+        <v>1952.694538604998</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3189957360790335</v>
+        <v>0.5013665626192958</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.000108417386911374</v>
+        <v>523.8817201901362</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3654058203996259</v>
+        <v>0.6289098701473665</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.78925424208757</v>
+        <v>334.7767096068901</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4007555692238793</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>19.62389207659852</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.012245709152996</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2519.702398665046</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.008219226549197231</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>744.0122707983676</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4808404618310952</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1609.959113157332</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4401252636634838</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>25.62305552926944</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1693081476535074</v>
+        <v>0.0008985773580083968</v>
       </c>
     </row>
   </sheetData>
@@ -3876,7 +2641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3908,140 +2673,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2335.120511041368</v>
+        <v>1954.375446129239</v>
       </c>
       <c r="C2" t="n">
-        <v>0.29404709980212</v>
+        <v>0.07673132482476834</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>216.5720143142845</v>
+        <v>448.7364797164526</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06149036164832652</v>
+        <v>2.870228578587447e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>409.7710799028184</v>
+        <v>-0.1081450187136534</v>
       </c>
       <c r="C4" t="n">
-        <v>1.663526675311396e-05</v>
+        <v>0.3605118399966359</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09205377739971005</v>
+        <v>357.8098911239194</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4627603751968788</v>
+        <v>0.9305816584034077</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001692000644191734</v>
+        <v>1080.557971627412</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3404718049295917</v>
+        <v>0.4851694796324232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.85653168238996</v>
+        <v>274.5505455123765</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9015261174760205</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>22.96159465576034</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.02528056722799669</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2065.433497073499</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.06460412533666385</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>375.3583400070638</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7590511491595189</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>429.499644602578</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8478044550005917</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>28.03388191684428</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2517081078357479</v>
+        <v>0.06682307058017238</v>
       </c>
     </row>
   </sheetData>
@@ -4055,7 +2755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4087,140 +2787,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>622.5520494794</v>
+        <v>1928.216039333236</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7755554314515456</v>
+        <v>0.0778214310330316</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>346.9185106345346</v>
+        <v>459.2900229771919</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001455989388632821</v>
+        <v>5.264392473478177e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>349.5475160833882</v>
+        <v>-0.03109921392408366</v>
       </c>
       <c r="C4" t="n">
-        <v>8.960322605770342e-06</v>
+        <v>0.784401834396368</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05341295701394433</v>
+        <v>-733.406693940613</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5853596759459658</v>
+        <v>0.8631088290257234</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001003659891214865</v>
+        <v>268.423690126983</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3887117293529304</v>
+        <v>0.8441541860935997</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.26176124281161</v>
+        <v>287.4122633549698</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3480560179583542</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2.897226195184714</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.761821693745666</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2179.590278782081</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.012586627619462</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>767.3107377411866</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4236804049333007</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>424.9951104925749</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8378869775979738</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7.290370901426485</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7095694831323487</v>
+        <v>0.06421392398500095</v>
       </c>
     </row>
   </sheetData>
@@ -4234,7 +2869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4266,140 +2901,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1002.515768700847</v>
+        <v>2615.571189599073</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6482344416753747</v>
+        <v>0.02209976336466951</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>266.4114346695156</v>
+        <v>376.0716203428079</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01083257240372602</v>
+        <v>0.0003257619481710996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>307.390018764654</v>
+        <v>-0.07671865277763568</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0005054336724937057</v>
+        <v>0.5602514285421045</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1280200292424154</v>
+        <v>-690.2478586376678</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3971152319159936</v>
+        <v>0.8589952400417515</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001520883526962856</v>
+        <v>309.9604853680221</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3295986429061273</v>
+        <v>0.8325803753440884</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.42733218369813</v>
+        <v>280.3816403885364</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3001675221109369</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>22.28006268091934</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.02901494293250741</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2134.598079805637</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.03156514008485092</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>512.6687122608537</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7329507286219978</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>819.709862487085</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6995266139491167</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>13.7889351961889</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5451361616754804</v>
+        <v>0.04419826272768243</v>
       </c>
     </row>
   </sheetData>
@@ -4413,7 +2983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4445,140 +3015,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2966.786330518498</v>
+        <v>667.0798499251443</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1022864008234966</v>
+        <v>0.4739731665285779</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>233.027837982608</v>
+        <v>558.1448641795598</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01657413432730385</v>
+        <v>1.977780265197852e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>459.1699058319292</v>
+        <v>-0.007896814301571742</v>
       </c>
       <c r="C4" t="n">
-        <v>1.324100359810773e-07</v>
+        <v>0.9374429908985669</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08291487761101707</v>
+        <v>4774.422851955236</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4283342514645835</v>
+        <v>0.1643191919048348</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.511751737936109e-05</v>
+        <v>591.232058732415</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5808266866874219</v>
+        <v>0.6665998456612379</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.40301154971112</v>
+        <v>212.7643463348931</v>
       </c>
       <c r="C7" t="n">
-        <v>0.305779014480112</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>20.42604551582556</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.009769378362319144</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1931.924165176478</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.02913701278963072</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1878.715046004496</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1000758751453379</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1564.676019417111</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4007292714048416</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>34.82992887244534</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07548929436518426</v>
+        <v>0.06329196066486174</v>
       </c>
     </row>
   </sheetData>
@@ -4592,7 +3097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4624,140 +3129,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1347.922531581495</v>
+        <v>1028.335244484601</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6112528774653414</v>
+        <v>0.3753545967970081</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>279.6702213503065</v>
+        <v>543.5950841066234</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01923121756487859</v>
+        <v>1.585577303284424e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>365.9982042259914</v>
+        <v>-0.03560068847979095</v>
       </c>
       <c r="C4" t="n">
-        <v>7.011903903709784e-05</v>
+        <v>0.7225723049200568</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004216247625813518</v>
+        <v>2017.074733602467</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9777192071092156</v>
+        <v>0.5939803377495745</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.364949327925188e-06</v>
+        <v>848.4083294114444</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9746646667565655</v>
+        <v>0.4968503906593458</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.536625070525766</v>
+        <v>290.7589271776186</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7345232448370911</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>17.90537747284123</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07688601344337014</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>486.0219281150057</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7964599754552149</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1066.612239205153</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4383981543171862</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>302.8899404065605</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9110581278305787</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>18.94311887018529</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5307170631034221</v>
+        <v>0.03765032325994638</v>
       </c>
     </row>
   </sheetData>
@@ -4771,7 +3211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4803,140 +3243,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1217.638528376056</v>
+        <v>1110.703115178757</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5084804700026857</v>
+        <v>0.3701994723738511</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>273.3973708544532</v>
+        <v>521.6500706290732</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01190681608791748</v>
+        <v>8.600535035543136e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>399.7653905497541</v>
+        <v>-0.03081649128652242</v>
       </c>
       <c r="C4" t="n">
-        <v>7.77340233937714e-07</v>
+        <v>0.7981675818414722</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0799903919812493</v>
+        <v>2439.774093171358</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5090295866603095</v>
+        <v>0.5575022057703979</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001010699516412746</v>
+        <v>577.8616633503098</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4088114059483485</v>
+        <v>0.6684038496142585</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.220565582238535</v>
+        <v>278.3887312858655</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4216081376526389</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>15.88763593930845</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0447130140453337</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2085.127452954905</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.02443856598300049</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1332.680306519797</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2253469719874838</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>433.1871540084203</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8593005086463976</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>15.96367926293455</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4244434939489623</v>
+        <v>0.07737191423778619</v>
       </c>
     </row>
   </sheetData>
@@ -4950,7 +3325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4982,140 +3357,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-173.3875384676758</v>
+        <v>2018.718143099636</v>
       </c>
       <c r="C2" t="n">
-        <v>0.938631548929546</v>
+        <v>0.006056966889188525</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>290.4717653414267</v>
+        <v>405.8825095506313</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007412613493505366</v>
+        <v>1.746961989349123e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>379.9606793869423</v>
+        <v>-0.06897112195644772</v>
       </c>
       <c r="C4" t="n">
-        <v>5.720900318569411e-05</v>
+        <v>0.3467699911978074</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09299362844245018</v>
+        <v>-1162.226169020956</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4889840662899915</v>
+        <v>0.6557523655825148</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001308668917534481</v>
+        <v>1272.478369965352</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3918237171254993</v>
+        <v>0.157986770179942</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.087877321322</v>
+        <v>295.3057491942935</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4155810953162202</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11.01148507865514</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.255510091989586</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2202.821045033627</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.02423640741839365</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>611.3203997692435</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6426043917793721</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1737.113576375341</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4326718407224169</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3.819267222463338</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8703997212572082</v>
+        <v>0.001918611249762392</v>
       </c>
     </row>
   </sheetData>
@@ -5129,7 +3439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5161,140 +3471,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2439.995240462883</v>
+        <v>2114.240465012649</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1606491568321375</v>
+        <v>0.05193567328018815</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>190.1614165950608</v>
+        <v>423.5822738753646</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04196162950358737</v>
+        <v>2.187696811567848e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.6353279690586</v>
+        <v>-0.03508655255089224</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000392242637534858</v>
+        <v>0.735406856529378</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1422683678840391</v>
+        <v>2340.836180723287</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1669402143536581</v>
+        <v>0.5931951187775371</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001408615977107759</v>
+        <v>-743.4680968936875</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1987697413186095</v>
+        <v>0.59019005590977</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.20223502068004</v>
+        <v>237.3810278461601</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1998209220271915</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>35.7032588591708</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0001707447564448849</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2594.378596726205</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.002723507113001714</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>531.4299286378327</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5780594898372516</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2431.356516941739</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1733447396140162</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>16.44472814803784</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.391485193055251</v>
+        <v>0.06004780172422517</v>
       </c>
     </row>
   </sheetData>
@@ -5308,7 +3553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5340,140 +3585,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2321.8480249619</v>
+        <v>1844.80653288483</v>
       </c>
       <c r="C2" t="n">
-        <v>0.334424728363318</v>
+        <v>0.07699540196502581</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>305.1438308753386</v>
+        <v>449.2483438155816</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006167981299914446</v>
+        <v>3.336317316229172e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>393.9959051839465</v>
+        <v>-0.1051782027101944</v>
       </c>
       <c r="C4" t="n">
-        <v>2.043086556271515e-05</v>
+        <v>0.4207552240431303</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0343394305964223</v>
+        <v>214.2287671929807</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7929482580259976</v>
+        <v>0.9543058399951645</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.795771107300516e-05</v>
+        <v>1313.469982759511</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6833058794825415</v>
+        <v>0.369830075182852</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4715776591134322</v>
+        <v>317.1854674095674</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9768636950351517</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>20.06770166929319</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.04525270557002054</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2220.681275913759</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0607539015711866</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>562.7052860286622</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6610756378189557</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-27.62490079810959</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9913313595447544</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>27.16892047731642</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.27960471156081</v>
+        <v>0.03415940864877931</v>
       </c>
     </row>
   </sheetData>
@@ -5487,7 +3667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5519,140 +3699,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1022.41106156857</v>
+        <v>1946.200933269271</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6375440945411104</v>
+        <v>0.09685467617932723</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>366.4021628652895</v>
+        <v>455.2493647650347</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004218783696858294</v>
+        <v>1.383856961557782e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351.9715551594416</v>
+        <v>-0.08979000499899198</v>
       </c>
       <c r="C4" t="n">
-        <v>4.191173700224126e-05</v>
+        <v>0.4482862680425662</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02457476672070963</v>
+        <v>-514.2157500134108</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8561533286088943</v>
+        <v>0.8984796934355705</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.504563435159099e-05</v>
+        <v>792.3961716527251</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9248957176235949</v>
+        <v>0.6111296605615827</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.44692728885074</v>
+        <v>299.1555209703175</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3815910654543326</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12.40727817093735</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1786914310010762</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1217.824406274487</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4780477772442147</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1162.761417310989</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3638858347974664</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>118.6931326674021</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9592443895314766</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>22.67903233612468</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3144608075992052</v>
+        <v>0.04993361818816163</v>
       </c>
     </row>
   </sheetData>
@@ -5666,7 +3781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5698,140 +3813,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2332.91317085653</v>
+        <v>2182.481838651873</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3270619240709779</v>
+        <v>0.05743684398959698</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>252.7621784074649</v>
+        <v>461.9835860068256</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03474415545472467</v>
+        <v>1.888081412232153e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>384.9037562889459</v>
+        <v>-0.06100726568914626</v>
       </c>
       <c r="C4" t="n">
-        <v>6.110368496926974e-05</v>
+        <v>0.6174767342789391</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09202962410072263</v>
+        <v>-571.6646519512706</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4939330433293521</v>
+        <v>0.8923212058252952</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001038800126638886</v>
+        <v>303.4255842717821</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4860453320235572</v>
+        <v>0.8264612060121281</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.385762410772198</v>
+        <v>264.7219407841549</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7471416978885173</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>20.20075933137023</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.03522423742502204</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1871.083843216726</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1002277131301292</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>381.0375766319153</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7748146648705918</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>988.7004162355124</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6742268597172174</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>33.10785981133155</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.194925692424284</v>
+        <v>0.05205809166133962</v>
       </c>
     </row>
   </sheetData>
@@ -5845,7 +3895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5877,140 +3927,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1473.752740006308</v>
+        <v>2587.395558964529</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5646896499233847</v>
+        <v>0.004842827431248846</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>286.4648034837152</v>
+        <v>380.4356863197827</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01795023281171539</v>
+        <v>1.310693590134372e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.1769028805892</v>
+        <v>-0.1017516730265983</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004189983041790368</v>
+        <v>0.3167063232745911</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08264006647870237</v>
+        <v>-2441.467546789232</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5421023615232619</v>
+        <v>0.4147498541935842</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001020516166653907</v>
+        <v>899.3842970858527</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4637460202740978</v>
+        <v>0.3959352419968357</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.26628616694084</v>
+        <v>264.4741489177324</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5155035802810444</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>16.49711883047455</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1479105125320552</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2023.502111242111</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.06284761690961657</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>746.1255363016644</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.586159971152849</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1320.943175028819</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6696883565163032</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>26.2649089923184</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3238712198054379</v>
+        <v>0.02795872958044661</v>
       </c>
     </row>
   </sheetData>
@@ -6024,7 +4009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6056,140 +4041,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1209.548175927892</v>
+        <v>546.6761725223038</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5226508489569853</v>
+        <v>0.5822428440184577</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>298.1817182868998</v>
+        <v>614.5945301676107</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003165232555171726</v>
+        <v>2.118253668396398e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.9595646040982</v>
+        <v>0.01497845378750137</v>
       </c>
       <c r="C4" t="n">
-        <v>8.755784253196626e-06</v>
+        <v>0.8741039594064168</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08427485579058303</v>
+        <v>3470.575768972925</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5321085231719257</v>
+        <v>0.3327079057252288</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001056919229589291</v>
+        <v>1171.462347878646</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4607728524711771</v>
+        <v>0.3237479164046798</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.532750864369051</v>
+        <v>174.0045969204166</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4130690870473208</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>18.71318669796879</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.02031258224454734</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1620.847898422934</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.349767519995603</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1269.548354248581</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2373456281564165</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1837.443220568584</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3659131106362026</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8.126373423212158</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6868518499661647</v>
+        <v>0.1564807475307296</v>
       </c>
     </row>
   </sheetData>
@@ -6203,7 +4123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6235,140 +4155,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>221.3507389923734</v>
+        <v>1999.717480076969</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9019531733723609</v>
+        <v>0.0729180877338364</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>318.5234629210528</v>
+        <v>415.7894969025003</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006614193419523778</v>
+        <v>3.854582092354112e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>374.29528068985</v>
+        <v>-0.06256393112767347</v>
       </c>
       <c r="C4" t="n">
-        <v>6.131025889833284e-07</v>
+        <v>0.5546279159797953</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02172386315410246</v>
+        <v>1592.370498209155</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8442023544250102</v>
+        <v>0.6859193247994118</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.316969283204371e-05</v>
+        <v>-147.9534805995131</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5161032444399765</v>
+        <v>0.9146274400623734</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.741138966219594</v>
+        <v>297.8122290083266</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3979803411216749</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.305193626400797</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3639777759563189</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2263.071386849151</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.009008084557243638</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1126.290673423471</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.266183863820154</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>499.5228573320692</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8130461054657517</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1.29268617964081</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9498785601154647</v>
+        <v>0.03532301565165129</v>
       </c>
     </row>
   </sheetData>
@@ -6382,7 +4237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6414,140 +4269,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2993.297188276963</v>
+        <v>1775.38066049054</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3270646771270826</v>
+        <v>0.1062967270696985</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>295.2609239497223</v>
+        <v>456.4138377175017</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0136883543424451</v>
+        <v>1.983696378558398e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>421.7805938888827</v>
+        <v>-0.07489601783986388</v>
       </c>
       <c r="C4" t="n">
-        <v>6.431100555117726e-05</v>
+        <v>0.5389183699962825</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06152043922814088</v>
+        <v>1653.198523936284</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6765554569002225</v>
+        <v>0.6914352199435904</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.66640618591791e-05</v>
+        <v>473.1012023653293</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6315316907502719</v>
+        <v>0.7348002750264532</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.631056838372423</v>
+        <v>284.6091982760339</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9084326007502607</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>20.78448463889382</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07049877550409227</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1897.495802697333</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.08403266047996533</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>356.4277656824761</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8132261099690034</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>235.8549455933935</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9302385745067676</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>35.66400909818236</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2571444815894654</v>
+        <v>0.04750074326218695</v>
       </c>
     </row>
   </sheetData>
@@ -6561,7 +4351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6593,140 +4383,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2349.812402314981</v>
+        <v>1521.724707904981</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2304064551799405</v>
+        <v>0.151516319396327</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>323.0727564758138</v>
+        <v>417.1845421168623</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002010399589631619</v>
+        <v>6.678347951108592e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>350.8704769430275</v>
+        <v>-0.1208780108411049</v>
       </c>
       <c r="C4" t="n">
-        <v>1.510786484049254e-05</v>
+        <v>0.3308922112109174</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05103900680124618</v>
+        <v>2102.632912579549</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6627278450022944</v>
+        <v>0.6042999593736622</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.291987358142683e-05</v>
+        <v>1417.138323912029</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9345024905166226</v>
+        <v>0.4027228787897519</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.48840720596625</v>
+        <v>370.0222898052027</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3278595944725291</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>20.78838521148039</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01572395222514098</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2414.843783255536</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01414111947654884</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>944.8943331460446</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4130766479373521</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>436.9096929519874</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8250518040376004</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>31.75186226184292</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1247670404395552</v>
+        <v>0.0143270124764704</v>
       </c>
     </row>
   </sheetData>
@@ -6740,7 +4465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6772,140 +4497,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1597.59568025358</v>
+        <v>2559.545339639844</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5305438104775155</v>
+        <v>0.001848456227231476</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>324.7518789060243</v>
+        <v>332.1464686615045</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003722855354926188</v>
+        <v>5.374700526985913e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>405.9912243031947</v>
+        <v>-0.0882061935089398</v>
       </c>
       <c r="C4" t="n">
-        <v>1.891565313299717e-05</v>
+        <v>0.2666179662252783</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09998419596159389</v>
+        <v>-2309.838348468049</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5247627733935903</v>
+        <v>0.4194030408275171</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001283003238304573</v>
+        <v>822.4563522701616</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4816440030855501</v>
+        <v>0.4019317610866148</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.988723296106933</v>
+        <v>321.8126462176336</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7652880152350767</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>14.73560173133765</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1753197686694879</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2406.208822493772</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.02334507092199329</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>350.2372623586398</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8167340748596799</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>145.7246604601751</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9547024970905678</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>21.39471067141471</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4030912916945038</v>
+        <v>0.002676605293735342</v>
       </c>
     </row>
   </sheetData>
@@ -6919,7 +4579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6951,140 +4611,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-817.4167882363145</v>
+        <v>2078.882131841285</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7247106494187429</v>
+        <v>0.09909915140882863</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>264.3105305802695</v>
+        <v>441.8646174441387</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01397026980737875</v>
+        <v>3.185161563064664e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>368.7330708574081</v>
+        <v>-0.07900471750947924</v>
       </c>
       <c r="C4" t="n">
-        <v>4.263666388462164e-05</v>
+        <v>0.5294957577858554</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05773059389214977</v>
+        <v>-422.5038805749546</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6593466698365822</v>
+        <v>0.9223866871708335</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.474635410527786e-05</v>
+        <v>804.7499605745893</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6067373318224049</v>
+        <v>0.6300140854420406</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.312588365550567</v>
+        <v>278.367082572488</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5926728414272671</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>16.69164145511955</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05819961707373495</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2075.696488910684</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.06162952901218224</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>611.8753926465342</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6244506915328076</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-818.7831628503136</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7469362632642739</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14.66358414283187</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5700316548267108</v>
+        <v>0.06617648878957882</v>
       </c>
     </row>
   </sheetData>
@@ -7098,7 +4693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7130,140 +4725,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1663.028224803477</v>
+        <v>1360.048653821832</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3209800194489935</v>
+        <v>0.2420268597237086</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>183.6630967198426</v>
+        <v>415.3515857659718</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07747193428325024</v>
+        <v>0.0001676769880771677</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>371.425943011657</v>
+        <v>-0.1065999654060378</v>
       </c>
       <c r="C4" t="n">
-        <v>1.246981249130942e-06</v>
+        <v>0.3385778311705177</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1774877250894081</v>
+        <v>2951.985811226217</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1428161156824832</v>
+        <v>0.4890901524662906</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001703891885461517</v>
+        <v>959.4164218454553</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1424174441193324</v>
+        <v>0.5042331096622044</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.69912791692571</v>
+        <v>440.2356062450407</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3163756758030396</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>25.9972416568423</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.003459363413403975</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2241.636538292111</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01968340458774892</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>666.1261822610431</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5164808508184577</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2212.617350391192</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2508495362016862</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10.66443813474578</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5578449073429713</v>
+        <v>0.01354186399727374</v>
       </c>
     </row>
   </sheetData>
@@ -7277,7 +4807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7309,140 +4839,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-964.5646047017285</v>
+        <v>1715.30914221083</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7087693422860559</v>
+        <v>0.07760197987140047</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>281.5824603434984</v>
+        <v>465.7926332766929</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01721394980429777</v>
+        <v>3.436082490443202e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>317.645914725026</v>
+        <v>-0.07406741443027481</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002416173738012795</v>
+        <v>0.5521474058990923</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0459245000230013</v>
+        <v>1912.466184218127</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7234787204583034</v>
+        <v>0.6077494942113618</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.315189944379698e-05</v>
+        <v>-73.73559378070672</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7435465486884509</v>
+        <v>0.9552396422272087</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.09775650119013</v>
+        <v>270.6915914300608</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4311892629250146</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>18.14219961110233</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07892685367165139</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1495.996391453217</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3892366150404289</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>880.7580671906514</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4429970093311016</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>970.9166500664487</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6625903648796949</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>15.59271426655354</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5023345340252148</v>
+        <v>0.02640869264668566</v>
       </c>
     </row>
   </sheetData>
@@ -7456,7 +4921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7488,140 +4953,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2310.188177127638</v>
+        <v>1000.095778492847</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2328326879976972</v>
+        <v>0.3294261305440288</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>395.0621740113664</v>
+        <v>589.3932180170052</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007201866553077923</v>
+        <v>2.16078822048155e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>355.3790625191692</v>
+        <v>-0.009728928417136129</v>
       </c>
       <c r="C4" t="n">
-        <v>1.29268686622373e-05</v>
+        <v>0.9293777039336053</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03595808825460467</v>
+        <v>2419.854488832652</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7389699153632143</v>
+        <v>0.491510566037234</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.380800656797571e-05</v>
+        <v>1170.50890897602</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7306752139333115</v>
+        <v>0.3380057898272379</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.13374221454938</v>
+        <v>168.0983202734543</v>
       </c>
       <c r="C7" t="n">
-        <v>0.374994806739405</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>14.23734523861765</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1008067747446906</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2027.797125392803</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.02440208649099111</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1155.303769511564</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3264204554429694</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1653.781267408702</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4634092184652043</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>38.06947384722278</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09751006011601675</v>
+        <v>0.1867622044180182</v>
       </c>
     </row>
   </sheetData>
@@ -7635,7 +5035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7667,140 +5067,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-361.3674233852107</v>
+        <v>1645.803772073279</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8836541833250121</v>
+        <v>0.1165129126913649</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>268.628503382653</v>
+        <v>453.084254963544</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0191693451839243</v>
+        <v>1.006725930015251e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>302.7740155313482</v>
+        <v>-0.03900076984055012</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0005442042958299424</v>
+        <v>0.7701051724329214</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1568264660613438</v>
+        <v>3641.213591665408</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3412471532040838</v>
+        <v>0.3607712916072111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001695607540949291</v>
+        <v>-512.4948070737128</v>
       </c>
       <c r="C6" t="n">
-        <v>0.284847399068514</v>
+        <v>0.75635064593674</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.04712255751789</v>
+        <v>253.7389236865127</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2963282001616929</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>20.82691378642156</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.03991133361345711</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2185.573909276248</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.03291252297985002</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>155.1472178526874</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.914121705706696</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>739.8597507156528</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7426578764653309</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5.783332855280875</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8266645523093098</v>
+        <v>0.06946829586180832</v>
       </c>
     </row>
   </sheetData>
@@ -7814,7 +5149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7846,140 +5181,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-672.0580580395126</v>
+        <v>1741.254872010976</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7229410037786468</v>
+        <v>0.1566044999822512</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>301.8201158357995</v>
+        <v>470.6816587277399</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003210170662472982</v>
+        <v>2.039863020681643e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>387.9218417954066</v>
+        <v>-0.0363506247061734</v>
       </c>
       <c r="C4" t="n">
-        <v>1.033428516309563e-06</v>
+        <v>0.7548089463083825</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05314123738872945</v>
+        <v>64.91703489486645</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6236772122854133</v>
+        <v>0.988103357707796</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.370708934287826e-05</v>
+        <v>327.4468496692266</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4460892831285961</v>
+        <v>0.8214476206823917</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.107965131595193</v>
+        <v>292.0916787474559</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5103380141296734</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12.94662586674616</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1139264976201736</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2184.597013677877</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01764726399201222</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>916.9720767605959</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3875354192720255</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1618.383643487493</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4805465968425772</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4.71707774971037</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8234222679562784</v>
+        <v>0.05944697223546137</v>
       </c>
     </row>
   </sheetData>
@@ -7993,7 +5263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8025,140 +5295,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2034.8583058554</v>
+        <v>1648.711841894254</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2747865594806672</v>
+        <v>0.0576135797005277</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>363.0766016798309</v>
+        <v>463.6252868271829</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002854954206070969</v>
+        <v>4.288677462883395e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>343.9597743879962</v>
+        <v>-0.04136520867684514</v>
       </c>
       <c r="C4" t="n">
-        <v>9.8404269076114e-06</v>
+        <v>0.6556100133963135</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1338164044413442</v>
+        <v>-1231.553946224292</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1693214697821061</v>
+        <v>0.7011980952439757</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.266086310505341e-05</v>
+        <v>925.9619131406321</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4128051754691525</v>
+        <v>0.3667324614746551</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.46634053239249</v>
+        <v>322.9500860436069</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2233983913759242</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>16.35160814564258</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05417998917715826</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2409.823183964686</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.007334654113887084</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>553.5331419447534</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5539244922924603</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>425.8984343487464</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8456639147982579</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>37.12416787849436</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.04275407672965159</v>
+        <v>0.004386220761135341</v>
       </c>
     </row>
   </sheetData>
@@ -8172,7 +5377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8204,140 +5409,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-794.3743616446282</v>
+        <v>2344.217500803708</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7229425981164754</v>
+        <v>0.0469336833688425</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>256.4848334097774</v>
+        <v>433.3990130130046</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03847396092314136</v>
+        <v>5.233572961530748e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>371.3286917876385</v>
+        <v>-0.06130129001955431</v>
       </c>
       <c r="C4" t="n">
-        <v>4.958048367450671e-05</v>
+        <v>0.5756654597995692</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03988181874882912</v>
+        <v>-157.3643388726268</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7901755717629092</v>
+        <v>0.9676344501150416</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.640697957418403e-05</v>
+        <v>397.9444330755423</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9326744408417381</v>
+        <v>0.7898214291424279</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.659226655115788</v>
+        <v>247.1259510242503</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9068777592075579</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>17.78967045688993</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07925861501151282</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-298.566616439799</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8827966174512052</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>880.7024124951586</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4984706940236479</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>394.8366468911609</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8572455329661333</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5.549304141056354</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8265716753114433</v>
+        <v>0.08004174300102995</v>
       </c>
     </row>
   </sheetData>
@@ -8351,7 +5491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8383,140 +5523,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-221.6861309925407</v>
+        <v>1995.470304934497</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9094216248789408</v>
+        <v>0.08145514907400637</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>294.0949358980422</v>
+        <v>440.2969970534835</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003566569631395265</v>
+        <v>3.620219060561977e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>349.9699186796952</v>
+        <v>-0.03127439571946683</v>
       </c>
       <c r="C4" t="n">
-        <v>1.465216608464971e-05</v>
+        <v>0.8136651718689245</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06926025796699203</v>
+        <v>-30.86158370954945</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5587249396447032</v>
+        <v>0.9939238516962658</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001070023822843435</v>
+        <v>123.901957951002</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4716008195236385</v>
+        <v>0.9316546865801271</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.258356961106941</v>
+        <v>293.3558024260628</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3934412632807802</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>14.71308040962536</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1076431409266019</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1535.049159104256</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4508012642810271</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>729.1396338037689</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4826744976961308</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2492.483023665767</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.245117755456536</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-1.921341175732977</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9253303513142526</v>
+        <v>0.03863710535725036</v>
       </c>
     </row>
   </sheetData>
@@ -8530,7 +5605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8562,140 +5637,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2486.238615863065</v>
+        <v>1703.838534079303</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2424663946810802</v>
+        <v>0.08604275924987997</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>246.7873607427144</v>
+        <v>450.060775943118</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0282666997753043</v>
+        <v>4.696264873907349e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>383.2845636459188</v>
+        <v>-0.1022316071565205</v>
       </c>
       <c r="C4" t="n">
-        <v>1.296163825216837e-05</v>
+        <v>0.3177503872048548</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05078669073091391</v>
+        <v>1514.090508533955</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6778121959346253</v>
+        <v>0.6820991223753603</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.756141887793337e-05</v>
+        <v>1318.031833021433</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6319895730785412</v>
+        <v>0.2871467070022825</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.189415955213777</v>
+        <v>262.9420255922621</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6024378340845288</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>21.50858799321635</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.02277081600472404</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2065.334545629887</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.04724330685420255</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>940.946716756845</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4558938114017775</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1227.245243925762</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5935299640551335</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>32.0123689369079</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1625468026969477</v>
+        <v>0.05152631604066567</v>
       </c>
     </row>
   </sheetData>
@@ -8709,7 +5719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8741,140 +5751,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2224.773279710806</v>
+        <v>2129.731180636882</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2441498363840247</v>
+        <v>0.05769371072582204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>283.3586964779821</v>
+        <v>465.8159813309033</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01745627457224686</v>
+        <v>2.356805146180251e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>338.4077523152445</v>
+        <v>-0.06489722812750492</v>
       </c>
       <c r="C4" t="n">
-        <v>1.885962804601843e-05</v>
+        <v>0.6181024671240924</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08707906829533713</v>
+        <v>-466.7015382552017</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4751709977570626</v>
+        <v>0.9099148713057585</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.523133742071093e-05</v>
+        <v>456.4603580232465</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5498057998918792</v>
+        <v>0.7724355750522948</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.228924489362161</v>
+        <v>237.5807601311445</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4801614764993599</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>23.78461458996257</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01793685116177012</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2471.336018998103</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01402627937795432</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>689.713270991524</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5587002023615573</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>946.8828732094698</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6658798667637599</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>23.59976282378193</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2634430241232977</v>
+        <v>0.09819047292736621</v>
       </c>
     </row>
   </sheetData>
@@ -8888,7 +5833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8920,140 +5865,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2706.067871949092</v>
+        <v>1037.589005437163</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1670634663178598</v>
+        <v>0.3435367469355632</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>249.6339630850961</v>
+        <v>555.2506565366515</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02620824557869537</v>
+        <v>7.680926782404548e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>428.9197358722938</v>
+        <v>-0.03461359811420506</v>
       </c>
       <c r="C4" t="n">
-        <v>3.506288159898206e-07</v>
+        <v>0.734744759863331</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05563497029251183</v>
+        <v>1123.459884731233</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6683145583303824</v>
+        <v>0.7601239576704355</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001014742780126679</v>
+        <v>1242.568145151835</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3973509044408806</v>
+        <v>0.334001761604122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.924283237958385</v>
+        <v>299.7234295664523</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4041180098675742</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>20.29960420402341</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01237233814044717</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2086.290205325979</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01910844529171467</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2473.118303697388</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07247566805719437</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1411.604588262289</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4833120876158471</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>32.30809771656696</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1137966532160909</v>
+        <v>0.06493051338699479</v>
       </c>
     </row>
   </sheetData>
@@ -9067,7 +5947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9099,140 +5979,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2333.553357955978</v>
+        <v>1818.065702346535</v>
       </c>
       <c r="C2" t="n">
-        <v>0.345773565715756</v>
+        <v>0.04870884319032157</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>280.6462506372332</v>
+        <v>423.9762815434192</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01091352868341007</v>
+        <v>1.257158880030032e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>390.7120447998497</v>
+        <v>-0.05705969766798258</v>
       </c>
       <c r="C4" t="n">
-        <v>4.183789362072987e-05</v>
+        <v>0.5722850484633699</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08844982313898603</v>
+        <v>-812.9258602182908</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5367232412308083</v>
+        <v>0.8004745364149988</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001078107629269927</v>
+        <v>906.8795337927359</v>
       </c>
       <c r="C6" t="n">
-        <v>0.510561381553692</v>
+        <v>0.3943194307553884</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.571226526978577</v>
+        <v>331.0864182281236</v>
       </c>
       <c r="C7" t="n">
-        <v>0.773695360348626</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>20.06714146004243</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05589710164337305</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2120.292572813526</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.04695191052498904</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>315.2122520390731</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8147089893775976</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-157.2394879040294</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9517017040664038</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>33.27348680169821</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1894120448352644</v>
+        <v>0.003598333298445334</v>
       </c>
     </row>
   </sheetData>
@@ -9246,7 +6061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9278,140 +6093,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1918.329020086835</v>
+        <v>1609.983709157284</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4645514855863007</v>
+        <v>0.1227893314981742</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>240.1481102000293</v>
+        <v>420.7773097306038</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01524835421358227</v>
+        <v>0.0001664672013640479</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>345.8606846230354</v>
+        <v>-0.1071884555492698</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001230150279771422</v>
+        <v>0.3727563325896776</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0239188795242623</v>
+        <v>2033.537989204306</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8491259697373389</v>
+        <v>0.6086807482441031</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.892139756138797e-06</v>
+        <v>1110.021101712465</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9441481708133905</v>
+        <v>0.4466289625458387</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.499927115441011</v>
+        <v>358.7573947955843</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3893017301418193</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>5.216743062469583</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5743968679597073</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>287.5271461920838</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8610884676799875</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1226.545489876911</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2412883435197168</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-568.1955481426594</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8163475262146316</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-14.52859299270825</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5679742147227356</v>
+        <v>0.02109938574164558</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Dijon.xlsx
+++ b/outputs/ML_Results/dist_LR/Dijon.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ56695535" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ56955979" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ57222911" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ57530523" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ57826020" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ58098996" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ58375909" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ58638930" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ58902208" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ59183136" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ59466889" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ59747966" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ00052760" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ00339947" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ00638461" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ00924871" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ01201795" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ01482557" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ01759402" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ02034003" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ02305828" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ02568525" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ02845678" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ03156811" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ03445494" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ03731997" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ03996944" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ04275361" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ04554526" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ04831106" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ05111896" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ05396339" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ05663053" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ05943062" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ06226148" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ06502882" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ06781752" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ07051331" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ07325264" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ07612838" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ07892781" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ08151609" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ08435849" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ08711753" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ08998490" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ09272710" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ09560801" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ09847785" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ10109551" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ10398055" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ50203817" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ50388717" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ50556884" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ50742797" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ50920815" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ51104823" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ51272215" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ51455325" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ51638105" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ51804901" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ52003546" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ52172323" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ52355971" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ52540313" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ52723398" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ52907344" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ53090151" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ53272525" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ53455867" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ53737274" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ53914241" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ54088958" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ54278325" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ54459967" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ54639343" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ54825627" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ55035054" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ55240873" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ55420342" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ55591351" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ55775379" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ55958636" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ56138034" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ56326349" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ56507368" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ56689665" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ56887000" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ57073690" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ57259700" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ57441859" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ57622637" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ57827595" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ58035371" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ58230303" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ58405475" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ58588919" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ58771991" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ58955657" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ59138236" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ59321928" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2171.576307301042</v>
+        <v>2348.305469151413</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04883036871933237</v>
+        <v>0.009693115658345901</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>428.5802457480306</v>
+        <v>417.5531579586019</v>
       </c>
       <c r="C3" t="n">
-        <v>5.719083357359374e-05</v>
+        <v>1.306059574977568e-06</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09983138041453776</v>
+        <v>-0.09546449873587767</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3723797400175652</v>
+        <v>0.2814249302134852</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49.78320644980158</v>
+        <v>-3059.822611456061</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9904835469522122</v>
+        <v>0.3558231088910718</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>786.9724001536742</v>
+        <v>1171.083205950103</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5708971033062791</v>
+        <v>0.2857668138759802</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>245.5216038717282</v>
+        <v>307.2535883705019</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09323719972474875</v>
+        <v>0.007836658172734949</v>
       </c>
     </row>
   </sheetData>
@@ -621,10 +621,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2146.804688663234</v>
+        <v>1776.684681777462</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05688298242977084</v>
+        <v>0.09833873354569987</v>
       </c>
     </row>
     <row r="3">
@@ -634,10 +634,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>417.6407908021941</v>
+        <v>441.9933549649526</v>
       </c>
       <c r="C3" t="n">
-        <v>2.40673008271563e-05</v>
+        <v>1.596720930091483e-05</v>
       </c>
     </row>
     <row r="4">
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04991224758123536</v>
+        <v>-0.1060574736642687</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6340760999078243</v>
+        <v>0.3381261319254094</v>
       </c>
     </row>
     <row r="5">
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1281.371945680257</v>
+        <v>342.6470145428357</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7390175365874814</v>
+        <v>0.927050693486531</v>
       </c>
     </row>
     <row r="6">
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-347.3327872255352</v>
+        <v>1491.368281798256</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8053428724001066</v>
+        <v>0.3032774700385963</v>
       </c>
     </row>
     <row r="7">
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.5466694929519</v>
+        <v>307.206216957462</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04466310226039561</v>
+        <v>0.02759656916110139</v>
       </c>
     </row>
   </sheetData>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1996.963861012459</v>
+        <v>1484.541761303143</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06797721689798551</v>
+        <v>0.08325444286386506</v>
       </c>
     </row>
     <row r="3">
@@ -748,10 +748,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>436.7750838130772</v>
+        <v>452.7263685364773</v>
       </c>
       <c r="C3" t="n">
-        <v>8.519276639076448e-05</v>
+        <v>2.594957761672882e-07</v>
       </c>
     </row>
     <row r="4">
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05853097340604368</v>
+        <v>-0.04223307558492723</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5974443782530883</v>
+        <v>0.6063704136962433</v>
       </c>
     </row>
     <row r="5">
@@ -774,10 +774,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-457.9969826901124</v>
+        <v>342.1560703015639</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9182098065591868</v>
+        <v>0.9091359831332591</v>
       </c>
     </row>
     <row r="6">
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>280.6273618190312</v>
+        <v>913.7349775780224</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8373690374707772</v>
+        <v>0.371380165606484</v>
       </c>
     </row>
     <row r="7">
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>334.2376372286312</v>
+        <v>324.2792914234214</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03155891364383524</v>
+        <v>0.007616740106452843</v>
       </c>
     </row>
   </sheetData>
@@ -849,10 +849,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>563.2380933440459</v>
+        <v>1341.681957511726</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5979801910570103</v>
+        <v>0.1309051064985562</v>
       </c>
     </row>
     <row r="3">
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>436.3635082069429</v>
+        <v>401.2872316910949</v>
       </c>
       <c r="C3" t="n">
-        <v>6.615545715803982e-06</v>
+        <v>4.461560279086112e-05</v>
       </c>
     </row>
     <row r="4">
@@ -875,10 +875,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06305518263191071</v>
+        <v>-0.08119882970160919</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4896051634582979</v>
+        <v>0.3984961717692682</v>
       </c>
     </row>
     <row r="5">
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7808.754757196217</v>
+        <v>5519.12995510242</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0536628735257725</v>
+        <v>0.1257046981779499</v>
       </c>
     </row>
     <row r="6">
@@ -901,10 +901,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.76052410747616</v>
+        <v>-60.69390583131803</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9730990822753155</v>
+        <v>0.9599361087511803</v>
       </c>
     </row>
     <row r="7">
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>379.4391144461693</v>
+        <v>349.5092016195103</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009769895312739495</v>
+        <v>0.0121174922762121</v>
       </c>
     </row>
   </sheetData>
@@ -963,10 +963,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1669.473280403889</v>
+        <v>1891.445586040454</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03686498328606522</v>
+        <v>0.05880706298546392</v>
       </c>
     </row>
     <row r="3">
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>487.7989420674282</v>
+        <v>452.1482618854143</v>
       </c>
       <c r="C3" t="n">
-        <v>1.031989820107622e-07</v>
+        <v>2.404835453383261e-05</v>
       </c>
     </row>
     <row r="4">
@@ -989,10 +989,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04635848667886786</v>
+        <v>-0.103635000215101</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5515715524353293</v>
+        <v>0.332615712164663</v>
       </c>
     </row>
     <row r="5">
@@ -1002,10 +1002,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1503.478509410526</v>
+        <v>368.356579284201</v>
       </c>
       <c r="C5" t="n">
-        <v>0.580366162613135</v>
+        <v>0.9198739681317076</v>
       </c>
     </row>
     <row r="6">
@@ -1015,10 +1015,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1637.318047968472</v>
+        <v>1331.384614514015</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1187617235062912</v>
+        <v>0.3313747840950018</v>
       </c>
     </row>
     <row r="7">
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>278.909219071629</v>
+        <v>279.0242813619595</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01115734499039217</v>
+        <v>0.0499045576557559</v>
       </c>
     </row>
   </sheetData>
@@ -1077,10 +1077,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2300.810530646404</v>
+        <v>1224.852419995563</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03831329467635183</v>
+        <v>0.2015585814579073</v>
       </c>
     </row>
     <row r="3">
@@ -1090,10 +1090,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>412.22420413779</v>
+        <v>567.5574810551925</v>
       </c>
       <c r="C3" t="n">
-        <v>8.646477391827314e-05</v>
+        <v>6.060178500186762e-07</v>
       </c>
     </row>
     <row r="4">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1503086344589094</v>
+        <v>-0.03159606814136373</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3080654247329303</v>
+        <v>0.758108464157764</v>
       </c>
     </row>
     <row r="5">
@@ -1116,10 +1116,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-438.4086285443138</v>
+        <v>-673.323625921772</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9075083632073262</v>
+        <v>0.8505278896242523</v>
       </c>
     </row>
     <row r="6">
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1270.87317044894</v>
+        <v>1403.638201437702</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3948195736740575</v>
+        <v>0.2498076426081781</v>
       </c>
     </row>
     <row r="7">
@@ -1142,10 +1142,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>264.2056879393133</v>
+        <v>261.3178366717715</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0429536430277372</v>
+        <v>0.0259074067614948</v>
       </c>
     </row>
   </sheetData>
@@ -1191,10 +1191,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2095.311742400152</v>
+        <v>1645.275351395942</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07369359843199055</v>
+        <v>0.1464155353179784</v>
       </c>
     </row>
     <row r="3">
@@ -1204,10 +1204,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>474.1308108657429</v>
+        <v>461.6733201314473</v>
       </c>
       <c r="C3" t="n">
-        <v>1.274066589433207e-05</v>
+        <v>7.829304579289486e-06</v>
       </c>
     </row>
     <row r="4">
@@ -1217,10 +1217,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05959949045429183</v>
+        <v>-0.101411945403727</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6562171378702688</v>
+        <v>0.6290943785312996</v>
       </c>
     </row>
     <row r="5">
@@ -1230,10 +1230,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-781.0280347880107</v>
+        <v>274.724696061352</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8441414208597019</v>
+        <v>0.9428880402728621</v>
       </c>
     </row>
     <row r="6">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>594.8189852146006</v>
+        <v>1360.803536619126</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7257390325995707</v>
+        <v>0.5427416135715857</v>
       </c>
     </row>
     <row r="7">
@@ -1256,10 +1256,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>246.0348409693875</v>
+        <v>311.024457286099</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07425357865962078</v>
+        <v>0.02582467230683121</v>
       </c>
     </row>
   </sheetData>
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1702.476349177581</v>
+        <v>1022.560721078869</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1595240399034117</v>
+        <v>0.2438253827849603</v>
       </c>
     </row>
     <row r="3">
@@ -1318,10 +1318,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493.7745929333981</v>
+        <v>587.4250747135666</v>
       </c>
       <c r="C3" t="n">
-        <v>1.758148596019482e-05</v>
+        <v>1.216518477014734e-07</v>
       </c>
     </row>
     <row r="4">
@@ -1331,10 +1331,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04582279539609779</v>
+        <v>-0.04826667999427858</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6748999222406106</v>
+        <v>0.6287996721959901</v>
       </c>
     </row>
     <row r="5">
@@ -1344,10 +1344,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>433.9991551058333</v>
+        <v>129.1290379749171</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9111230279130129</v>
+        <v>0.9667550722867421</v>
       </c>
     </row>
     <row r="6">
@@ -1357,10 +1357,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>336.0585268638597</v>
+        <v>1982.244016560518</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8077850083289928</v>
+        <v>0.1290198272456058</v>
       </c>
     </row>
     <row r="7">
@@ -1370,10 +1370,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>304.0554298496662</v>
+        <v>268.5603506370817</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06245955018000962</v>
+        <v>0.02219781569975135</v>
       </c>
     </row>
   </sheetData>
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1607.364829322519</v>
+        <v>1871.999925312244</v>
       </c>
       <c r="C2" t="n">
-        <v>0.136906496243169</v>
+        <v>0.0943685657140881</v>
       </c>
     </row>
     <row r="3">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493.6774761032653</v>
+        <v>447.5855323045753</v>
       </c>
       <c r="C3" t="n">
-        <v>1.302881193145261e-05</v>
+        <v>1.946309081387114e-05</v>
       </c>
     </row>
     <row r="4">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1542047682980729</v>
+        <v>-0.07581048898883225</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3395311530973085</v>
+        <v>0.6543780714792278</v>
       </c>
     </row>
     <row r="5">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-141.3278715880551</v>
+        <v>495.6684722205264</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9702653917503807</v>
+        <v>0.8976877486886581</v>
       </c>
     </row>
     <row r="6">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3072.612662417439</v>
+        <v>874.2277204290394</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1434162340331674</v>
+        <v>0.6074675463591743</v>
       </c>
     </row>
     <row r="7">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>279.5607591323667</v>
+        <v>280.7992623560428</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03833792030643122</v>
+        <v>0.04886447448491163</v>
       </c>
     </row>
   </sheetData>
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.648548108638</v>
+        <v>2051.221946389231</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1452695064232401</v>
+        <v>0.02927126708148018</v>
       </c>
     </row>
     <row r="3">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>392.6879505032356</v>
+        <v>380.6698582107207</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000302060903232355</v>
+        <v>9.407744974713255e-05</v>
       </c>
     </row>
     <row r="4">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08722014733722044</v>
+        <v>-0.08601178546532598</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4274248076982662</v>
+        <v>0.3807897889405674</v>
       </c>
     </row>
     <row r="5">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2213.595938124068</v>
+        <v>2596.781495010498</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6311193640414348</v>
+        <v>0.4465917477339866</v>
       </c>
     </row>
     <row r="6">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>393.0192552183044</v>
+        <v>38.46128960548231</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7719560602321993</v>
+        <v>0.9759632148868014</v>
       </c>
     </row>
     <row r="7">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>396.7135997997256</v>
+        <v>261.0796801619506</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01989365994571499</v>
+        <v>0.04205427373499341</v>
       </c>
     </row>
   </sheetData>
@@ -1647,10 +1647,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2015.390718006951</v>
+        <v>1376.412968261905</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03682503780688808</v>
+        <v>0.1642427630321372</v>
       </c>
     </row>
     <row r="3">
@@ -1660,10 +1660,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>396.943515566067</v>
+        <v>424.5512077300718</v>
       </c>
       <c r="C3" t="n">
-        <v>3.428874745905551e-05</v>
+        <v>3.313267174212258e-05</v>
       </c>
     </row>
     <row r="4">
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08178331968190657</v>
+        <v>-0.09626641042353637</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3889519010542052</v>
+        <v>0.3740561214911099</v>
       </c>
     </row>
     <row r="5">
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3405.614023150647</v>
+        <v>3336.665082774656</v>
       </c>
       <c r="C5" t="n">
-        <v>0.345953636508612</v>
+        <v>0.4542769558529229</v>
       </c>
     </row>
     <row r="6">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-216.3874960323117</v>
+        <v>749.56981430617</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8563217175009969</v>
+        <v>0.5704870870635236</v>
       </c>
     </row>
     <row r="7">
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.1885550511769</v>
+        <v>371.0527657471833</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05329715348512304</v>
+        <v>0.0100427573565312</v>
       </c>
     </row>
   </sheetData>
@@ -1761,10 +1761,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2178.01964502867</v>
+        <v>1692.828946716686</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01933716461154946</v>
+        <v>0.1000483883038616</v>
       </c>
     </row>
     <row r="3">
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>386.9684912143027</v>
+        <v>476.5860258254478</v>
       </c>
       <c r="C3" t="n">
-        <v>1.986533975972501e-05</v>
+        <v>8.478142447121008e-06</v>
       </c>
     </row>
     <row r="4">
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08905223540676285</v>
+        <v>-0.05910690490414316</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2982678808748255</v>
+        <v>0.5906153356977799</v>
       </c>
     </row>
     <row r="5">
@@ -1800,10 +1800,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2596.145910271877</v>
+        <v>-170.6305286844963</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3971028410196228</v>
+        <v>0.9620949980285691</v>
       </c>
     </row>
     <row r="6">
@@ -1813,10 +1813,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1298.283273408616</v>
+        <v>707.6427624406231</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2398990017077734</v>
+        <v>0.621208015492986</v>
       </c>
     </row>
     <row r="7">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>379.8578987360373</v>
+        <v>333.2879189944538</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002953993948896867</v>
+        <v>0.02508145903068</v>
       </c>
     </row>
   </sheetData>
@@ -1875,10 +1875,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1590.115074729054</v>
+        <v>1249.134719628049</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05682678836960992</v>
+        <v>0.1614764316470568</v>
       </c>
     </row>
     <row r="3">
@@ -1888,10 +1888,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>471.9558007279999</v>
+        <v>483.5840224394481</v>
       </c>
       <c r="C3" t="n">
-        <v>4.255785269260963e-08</v>
+        <v>2.615999011284445e-08</v>
       </c>
     </row>
     <row r="4">
@@ -1901,10 +1901,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05141484428820509</v>
+        <v>-0.06198826608790906</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5788219819447918</v>
+        <v>0.4276148215515215</v>
       </c>
     </row>
     <row r="5">
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1312.793047020881</v>
+        <v>-245.2263317844463</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6549132807529323</v>
+        <v>0.9333519255379037</v>
       </c>
     </row>
     <row r="6">
@@ -1927,10 +1927,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1230.319174200949</v>
+        <v>1445.182305810446</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2079038203581541</v>
+        <v>0.1442152542126593</v>
       </c>
     </row>
     <row r="7">
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>297.3170129895938</v>
+        <v>336.2285158939162</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002947797446734817</v>
+        <v>0.003455627886541806</v>
       </c>
     </row>
   </sheetData>
@@ -1989,10 +1989,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1487.897656676348</v>
+        <v>1030.327441887664</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07647923253766838</v>
+        <v>0.2756824899404758</v>
       </c>
     </row>
     <row r="3">
@@ -2002,10 +2002,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>457.4914558005457</v>
+        <v>546.4954594319649</v>
       </c>
       <c r="C3" t="n">
-        <v>2.920817438498759e-07</v>
+        <v>9.004131830345794e-08</v>
       </c>
     </row>
     <row r="4">
@@ -2015,10 +2015,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.02025046287466589</v>
+        <v>-0.02696823734585271</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8145189358468576</v>
+        <v>0.7624229258454802</v>
       </c>
     </row>
     <row r="5">
@@ -2028,10 +2028,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-646.4422696635493</v>
+        <v>3929.770113310676</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8232837059365751</v>
+        <v>0.2551434825915169</v>
       </c>
     </row>
     <row r="6">
@@ -2041,10 +2041,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>835.1127714095476</v>
+        <v>344.0426343780359</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3832730999824476</v>
+        <v>0.7653326378243495</v>
       </c>
     </row>
     <row r="7">
@@ -2054,10 +2054,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>326.4892946902045</v>
+        <v>206.1570780449429</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001467211039002154</v>
+        <v>0.1048841202118766</v>
       </c>
     </row>
   </sheetData>
@@ -2103,10 +2103,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1567.653513811908</v>
+        <v>1590.137599709236</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1855128303871841</v>
+        <v>0.1093000449711331</v>
       </c>
     </row>
     <row r="3">
@@ -2116,10 +2116,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>474.6104179785904</v>
+        <v>430.6885444450398</v>
       </c>
       <c r="C3" t="n">
-        <v>3.325992918302347e-05</v>
+        <v>5.173715603808959e-05</v>
       </c>
     </row>
     <row r="4">
@@ -2129,10 +2129,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03847591775622006</v>
+        <v>-0.1054736931198519</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7891427893614256</v>
+        <v>0.3875337936048998</v>
       </c>
     </row>
     <row r="5">
@@ -2142,10 +2142,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>871.2081459353867</v>
+        <v>2144.460469906369</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8282041934020502</v>
+        <v>0.5628271886826727</v>
       </c>
     </row>
     <row r="6">
@@ -2155,10 +2155,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>467.4651126931052</v>
+        <v>1291.746444009021</v>
       </c>
       <c r="C6" t="n">
-        <v>0.782908291856879</v>
+        <v>0.3539288005265989</v>
       </c>
     </row>
     <row r="7">
@@ -2168,10 +2168,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>302.3458160185056</v>
+        <v>295.3471391033765</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04935453850596481</v>
+        <v>0.04346709711353926</v>
       </c>
     </row>
   </sheetData>
@@ -2217,10 +2217,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1019.95589224171</v>
+        <v>1905.917270300928</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2597077746902412</v>
+        <v>0.07523871896800841</v>
       </c>
     </row>
     <row r="3">
@@ -2230,10 +2230,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507.5170859613675</v>
+        <v>434.0768099807752</v>
       </c>
       <c r="C3" t="n">
-        <v>1.440497099684426e-06</v>
+        <v>4.062197892080797e-05</v>
       </c>
     </row>
     <row r="4">
@@ -2243,10 +2243,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04970522597056268</v>
+        <v>-0.06806140362921903</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5876284080484562</v>
+        <v>0.597799284466205</v>
       </c>
     </row>
     <row r="5">
@@ -2256,10 +2256,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7013.602318330752</v>
+        <v>-513.9667653294791</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09832060966540707</v>
+        <v>0.8964367295541917</v>
       </c>
     </row>
     <row r="6">
@@ -2269,10 +2269,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5143014919554503</v>
+        <v>840.1822576626655</v>
       </c>
       <c r="C6" t="n">
-        <v>0.999650703417818</v>
+        <v>0.5590678377656486</v>
       </c>
     </row>
     <row r="7">
@@ -2282,10 +2282,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>209.6773773154133</v>
+        <v>315.1551028866849</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1091790232580474</v>
+        <v>0.01682572288087359</v>
       </c>
     </row>
   </sheetData>
@@ -2331,10 +2331,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2431.689292908471</v>
+        <v>1524.536267648481</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03410847264143665</v>
+        <v>0.06448880138887404</v>
       </c>
     </row>
     <row r="3">
@@ -2344,10 +2344,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>407.7560208391732</v>
+        <v>484.468500450662</v>
       </c>
       <c r="C3" t="n">
-        <v>6.543170860316312e-05</v>
+        <v>6.97520825450899e-08</v>
       </c>
     </row>
     <row r="4">
@@ -2357,10 +2357,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1364985934268846</v>
+        <v>-0.0758598823226902</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2252016645478115</v>
+        <v>0.3713493679564845</v>
       </c>
     </row>
     <row r="5">
@@ -2370,10 +2370,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-510.9365933594549</v>
+        <v>-597.5377849993884</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8950272875543159</v>
+        <v>0.8348972731778608</v>
       </c>
     </row>
     <row r="6">
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1223.71295480935</v>
+        <v>1837.754372181179</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3922918128142459</v>
+        <v>0.1208900921374937</v>
       </c>
     </row>
     <row r="7">
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>243.7327500331972</v>
+        <v>307.809033172137</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08766472515061197</v>
+        <v>0.007856078004056759</v>
       </c>
     </row>
   </sheetData>
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2274.407781731081</v>
+        <v>1923.593691725416</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04332917481012</v>
+        <v>0.0690416313472394</v>
       </c>
     </row>
     <row r="3">
@@ -2458,10 +2458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>401.5974639156285</v>
+        <v>439.9286371432586</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001382186895006583</v>
+        <v>1.724679015613266e-05</v>
       </c>
     </row>
     <row r="4">
@@ -2471,10 +2471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0819229275820475</v>
+        <v>-0.08767895152987965</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4682800700838257</v>
+        <v>0.4256246930438441</v>
       </c>
     </row>
     <row r="5">
@@ -2484,10 +2484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-727.9066990346328</v>
+        <v>-549.4559159014934</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8531352080100051</v>
+        <v>0.884525123820759</v>
       </c>
     </row>
     <row r="6">
@@ -2497,10 +2497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>485.6687498652209</v>
+        <v>841.4405556844301</v>
       </c>
       <c r="C6" t="n">
-        <v>0.730369318245867</v>
+        <v>0.5473678269256085</v>
       </c>
     </row>
     <row r="7">
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>339.4241021003005</v>
+        <v>331.110559069338</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02034879447873637</v>
+        <v>0.0164382945072443</v>
       </c>
     </row>
   </sheetData>
@@ -2559,10 +2559,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1383.813718989051</v>
+        <v>1777.292376917</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06218701272609699</v>
+        <v>0.08917389529383772</v>
       </c>
     </row>
     <row r="3">
@@ -2572,10 +2572,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>437.2932161922429</v>
+        <v>466.2752117166405</v>
       </c>
       <c r="C3" t="n">
-        <v>1.258142882820084e-07</v>
+        <v>1.527200501897081e-05</v>
       </c>
     </row>
     <row r="4">
@@ -2585,10 +2585,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05161948919061828</v>
+        <v>-0.05126199909728085</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5352845784366596</v>
+        <v>0.62687451138725</v>
       </c>
     </row>
     <row r="5">
@@ -2598,10 +2598,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1952.694538604998</v>
+        <v>434.9464214976215</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5013665626192958</v>
+        <v>0.9065992586947282</v>
       </c>
     </row>
     <row r="6">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>523.8817201901362</v>
+        <v>650.2647339506457</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6289098701473665</v>
+        <v>0.6151296230676314</v>
       </c>
     </row>
     <row r="7">
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>334.7767096068901</v>
+        <v>271.0861439812376</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0008985773580083968</v>
+        <v>0.05139149653327254</v>
       </c>
     </row>
   </sheetData>
@@ -2673,10 +2673,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1954.375446129239</v>
+        <v>903.1788339393338</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07673132482476834</v>
+        <v>0.3782137636803773</v>
       </c>
     </row>
     <row r="3">
@@ -2686,10 +2686,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>448.7364797164526</v>
+        <v>474.0696818678252</v>
       </c>
       <c r="C3" t="n">
-        <v>2.870228578587447e-05</v>
+        <v>3.616141895514974e-06</v>
       </c>
     </row>
     <row r="4">
@@ -2699,10 +2699,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1081450187136534</v>
+        <v>-0.06829649004223526</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3605118399966359</v>
+        <v>0.5799018670695896</v>
       </c>
     </row>
     <row r="5">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>357.8098911239194</v>
+        <v>4080.517187177118</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9305816584034077</v>
+        <v>0.2946322364420966</v>
       </c>
     </row>
     <row r="6">
@@ -2725,10 +2725,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1080.557971627412</v>
+        <v>988.8230183229948</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4851694796324232</v>
+        <v>0.4964893997054018</v>
       </c>
     </row>
     <row r="7">
@@ -2738,10 +2738,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>274.5505455123765</v>
+        <v>326.4626362844622</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06682307058017238</v>
+        <v>0.01361125060118861</v>
       </c>
     </row>
   </sheetData>
@@ -2787,10 +2787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1928.216039333236</v>
+        <v>1845.450442709798</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0778214310330316</v>
+        <v>0.08086890701508251</v>
       </c>
     </row>
     <row r="3">
@@ -2800,10 +2800,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>459.2900229771919</v>
+        <v>450.1304747395367</v>
       </c>
       <c r="C3" t="n">
-        <v>5.264392473478177e-05</v>
+        <v>4.254391030026509e-05</v>
       </c>
     </row>
     <row r="4">
@@ -2813,10 +2813,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03109921392408366</v>
+        <v>-0.1309507005113836</v>
       </c>
       <c r="C4" t="n">
-        <v>0.784401834396368</v>
+        <v>0.2374381007548968</v>
       </c>
     </row>
     <row r="5">
@@ -2826,10 +2826,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-733.406693940613</v>
+        <v>39.08763088180604</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8631088290257234</v>
+        <v>0.9913357267228241</v>
       </c>
     </row>
     <row r="6">
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>268.423690126983</v>
+        <v>1655.324172922544</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8441541860935997</v>
+        <v>0.227289869165361</v>
       </c>
     </row>
     <row r="7">
@@ -2852,10 +2852,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>287.4122633549698</v>
+        <v>303.8184751850634</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06421392398500095</v>
+        <v>0.03463507093527032</v>
       </c>
     </row>
   </sheetData>
@@ -2901,10 +2901,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2615.571189599073</v>
+        <v>1588.752587407877</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02209976336466951</v>
+        <v>0.01969639825929849</v>
       </c>
     </row>
     <row r="3">
@@ -2914,10 +2914,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>376.0716203428079</v>
+        <v>481.2877004553617</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003257619481710996</v>
+        <v>6.041682710724428e-09</v>
       </c>
     </row>
     <row r="4">
@@ -2927,10 +2927,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07671865277763568</v>
+        <v>-0.02529383164567267</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5602514285421045</v>
+        <v>0.7098789407680945</v>
       </c>
     </row>
     <row r="5">
@@ -2940,10 +2940,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-690.2478586376678</v>
+        <v>153.0427650145921</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8589952400417515</v>
+        <v>0.9535214039089757</v>
       </c>
     </row>
     <row r="6">
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>309.9604853680221</v>
+        <v>667.1664138876922</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8325803753440884</v>
+        <v>0.4602077872572325</v>
       </c>
     </row>
     <row r="7">
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>280.3816403885364</v>
+        <v>261.4879900761615</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04419826272768243</v>
+        <v>0.0050710531901062</v>
       </c>
     </row>
   </sheetData>
@@ -3015,10 +3015,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>667.0798499251443</v>
+        <v>1001.691930359139</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4739731665285779</v>
+        <v>0.2502963498474452</v>
       </c>
     </row>
     <row r="3">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>558.1448641795598</v>
+        <v>516.3040521495413</v>
       </c>
       <c r="C3" t="n">
-        <v>1.977780265197852e-07</v>
+        <v>5.82913335215281e-07</v>
       </c>
     </row>
     <row r="4">
@@ -3041,10 +3041,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.007896814301571742</v>
+        <v>-0.07149521425161323</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9374429908985669</v>
+        <v>0.4676591712052658</v>
       </c>
     </row>
     <row r="5">
@@ -3054,10 +3054,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4774.422851955236</v>
+        <v>2412.919147276549</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1643191919048348</v>
+        <v>0.4737359674649626</v>
       </c>
     </row>
     <row r="6">
@@ -3067,10 +3067,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>591.232058732415</v>
+        <v>1622.288288967044</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6665998456612379</v>
+        <v>0.2215767238625535</v>
       </c>
     </row>
     <row r="7">
@@ -3080,10 +3080,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>212.7643463348931</v>
+        <v>287.9778687136451</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06329196066486174</v>
+        <v>0.01984068516654152</v>
       </c>
     </row>
   </sheetData>
@@ -3129,10 +3129,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1028.335244484601</v>
+        <v>1794.342921599826</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3753545967970081</v>
+        <v>0.1110203600321677</v>
       </c>
     </row>
     <row r="3">
@@ -3142,10 +3142,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>543.5950841066234</v>
+        <v>433.1387152304907</v>
       </c>
       <c r="C3" t="n">
-        <v>1.585577303284424e-06</v>
+        <v>4.957219407687026e-05</v>
       </c>
     </row>
     <row r="4">
@@ -3155,10 +3155,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03560068847979095</v>
+        <v>-0.07429089553301368</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7225723049200568</v>
+        <v>0.5790889565870756</v>
       </c>
     </row>
     <row r="5">
@@ -3168,10 +3168,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2017.074733602467</v>
+        <v>-48.65877846661169</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5939803377495745</v>
+        <v>0.9901147288956846</v>
       </c>
     </row>
     <row r="6">
@@ -3181,10 +3181,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>848.4083294114444</v>
+        <v>951.578632934049</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4968503906593458</v>
+        <v>0.5447927939523558</v>
       </c>
     </row>
     <row r="7">
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.7589271776186</v>
+        <v>351.8717432556469</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03765032325994638</v>
+        <v>0.01878103396024337</v>
       </c>
     </row>
   </sheetData>
@@ -3243,10 +3243,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1110.703115178757</v>
+        <v>1275.34160475169</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3701994723738511</v>
+        <v>0.2843415975728908</v>
       </c>
     </row>
     <row r="3">
@@ -3256,10 +3256,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>521.6500706290732</v>
+        <v>505.1648472039599</v>
       </c>
       <c r="C3" t="n">
-        <v>8.600535035543136e-06</v>
+        <v>9.666457293794635e-07</v>
       </c>
     </row>
     <row r="4">
@@ -3269,10 +3269,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03081649128652242</v>
+        <v>-0.08257429247623277</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7981675818414722</v>
+        <v>0.4852378494330279</v>
       </c>
     </row>
     <row r="5">
@@ -3282,10 +3282,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2439.774093171358</v>
+        <v>1624.614332419931</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5575022057703979</v>
+        <v>0.6766116289712777</v>
       </c>
     </row>
     <row r="6">
@@ -3295,10 +3295,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>577.8616633503098</v>
+        <v>1197.762396484432</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6684038496142585</v>
+        <v>0.3723213714610176</v>
       </c>
     </row>
     <row r="7">
@@ -3308,10 +3308,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>278.3887312858655</v>
+        <v>270.8970639442985</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07737191423778619</v>
+        <v>0.05858019955259099</v>
       </c>
     </row>
   </sheetData>
@@ -3357,10 +3357,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2018.718143099636</v>
+        <v>1894.6050676242</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006056966889188525</v>
+        <v>0.02005856141788255</v>
       </c>
     </row>
     <row r="3">
@@ -3370,10 +3370,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>405.8825095506313</v>
+        <v>442.9305041096151</v>
       </c>
       <c r="C3" t="n">
-        <v>1.746961989349123e-06</v>
+        <v>6.441586051863229e-07</v>
       </c>
     </row>
     <row r="4">
@@ -3383,10 +3383,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06897112195644772</v>
+        <v>-0.04946865228416755</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3467699911978074</v>
+        <v>0.5774188472205193</v>
       </c>
     </row>
     <row r="5">
@@ -3396,10 +3396,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1162.226169020956</v>
+        <v>-2266.261527971218</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6557523655825148</v>
+        <v>0.4338599119219227</v>
       </c>
     </row>
     <row r="6">
@@ -3409,10 +3409,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1272.478369965352</v>
+        <v>975.0515632851852</v>
       </c>
       <c r="C6" t="n">
-        <v>0.157986770179942</v>
+        <v>0.3634979286840095</v>
       </c>
     </row>
     <row r="7">
@@ -3422,10 +3422,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>295.3057491942935</v>
+        <v>348.7269733482885</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001918611249762392</v>
+        <v>0.001264681378945932</v>
       </c>
     </row>
   </sheetData>
@@ -3471,10 +3471,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2114.240465012649</v>
+        <v>1313.937234200929</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05193567328018815</v>
+        <v>0.1664490714752173</v>
       </c>
     </row>
     <row r="3">
@@ -3484,10 +3484,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>423.5822738753646</v>
+        <v>466.1327680722465</v>
       </c>
       <c r="C3" t="n">
-        <v>2.187696811567848e-05</v>
+        <v>2.155210246033626e-05</v>
       </c>
     </row>
     <row r="4">
@@ -3497,10 +3497,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03508655255089224</v>
+        <v>-0.1093847655074242</v>
       </c>
       <c r="C4" t="n">
-        <v>0.735406856529378</v>
+        <v>0.2646588528955889</v>
       </c>
     </row>
     <row r="5">
@@ -3510,10 +3510,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2340.836180723287</v>
+        <v>1598.537570259437</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5931951187775371</v>
+        <v>0.6023106809796304</v>
       </c>
     </row>
     <row r="6">
@@ -3523,10 +3523,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-743.4680968936875</v>
+        <v>2144.498693296234</v>
       </c>
       <c r="C6" t="n">
-        <v>0.59019005590977</v>
+        <v>0.09791700957915457</v>
       </c>
     </row>
     <row r="7">
@@ -3536,10 +3536,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>237.3810278461601</v>
+        <v>314.3203292910781</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06004780172422517</v>
+        <v>0.0195340061252566</v>
       </c>
     </row>
   </sheetData>
@@ -3585,10 +3585,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1844.80653288483</v>
+        <v>1548.72957143149</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07699540196502581</v>
+        <v>0.1413808435490934</v>
       </c>
     </row>
     <row r="3">
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>449.2483438155816</v>
+        <v>434.6921658032143</v>
       </c>
       <c r="C3" t="n">
-        <v>3.336317316229172e-05</v>
+        <v>2.857743439685555e-05</v>
       </c>
     </row>
     <row r="4">
@@ -3611,10 +3611,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1051782027101944</v>
+        <v>-0.07556807924353198</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4207552240431303</v>
+        <v>0.5802622063431249</v>
       </c>
     </row>
     <row r="5">
@@ -3624,10 +3624,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>214.2287671929807</v>
+        <v>2325.10115196671</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9543058399951645</v>
+        <v>0.5947413403854878</v>
       </c>
     </row>
     <row r="6">
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1313.469982759511</v>
+        <v>700.1608594738891</v>
       </c>
       <c r="C6" t="n">
-        <v>0.369830075182852</v>
+        <v>0.6600912933608101</v>
       </c>
     </row>
     <row r="7">
@@ -3650,10 +3650,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>317.1854674095674</v>
+        <v>326.4566948151281</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03415940864877931</v>
+        <v>0.02605151208652062</v>
       </c>
     </row>
   </sheetData>
@@ -3699,10 +3699,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1946.200933269271</v>
+        <v>1499.913644440716</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09685467617932723</v>
+        <v>0.123376018268543</v>
       </c>
     </row>
     <row r="3">
@@ -3712,10 +3712,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>455.2493647650347</v>
+        <v>477.5432987384196</v>
       </c>
       <c r="C3" t="n">
-        <v>1.383856961557782e-05</v>
+        <v>2.746364578811763e-06</v>
       </c>
     </row>
     <row r="4">
@@ -3725,10 +3725,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08979000499899198</v>
+        <v>-0.05273790993228575</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4482862680425662</v>
+        <v>0.5940935381309249</v>
       </c>
     </row>
     <row r="5">
@@ -3738,10 +3738,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-514.2157500134108</v>
+        <v>2998.428489025941</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8984796934355705</v>
+        <v>0.428770591272894</v>
       </c>
     </row>
     <row r="6">
@@ -3751,10 +3751,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>792.3961716527251</v>
+        <v>204.9676174354636</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6111296605615827</v>
+        <v>0.8747666858197719</v>
       </c>
     </row>
     <row r="7">
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>299.1555209703175</v>
+        <v>250.435917549727</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04993361818816163</v>
+        <v>0.0567792882121213</v>
       </c>
     </row>
   </sheetData>
@@ -3813,10 +3813,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2182.481838651873</v>
+        <v>1567.257647184987</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05743684398959698</v>
+        <v>0.1486301784721042</v>
       </c>
     </row>
     <row r="3">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>461.9835860068256</v>
+        <v>473.6286538672628</v>
       </c>
       <c r="C3" t="n">
-        <v>1.888081412232153e-05</v>
+        <v>3.993839501054015e-06</v>
       </c>
     </row>
     <row r="4">
@@ -3839,10 +3839,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06100726568914626</v>
+        <v>-0.0550537767761663</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6174767342789391</v>
+        <v>0.578046926731542</v>
       </c>
     </row>
     <row r="5">
@@ -3852,10 +3852,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-571.6646519512706</v>
+        <v>2002.159470667419</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8923212058252952</v>
+        <v>0.5775828774019656</v>
       </c>
     </row>
     <row r="6">
@@ -3865,10 +3865,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>303.4255842717821</v>
+        <v>299.1430757219437</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8264612060121281</v>
+        <v>0.8203849962772189</v>
       </c>
     </row>
     <row r="7">
@@ -3878,10 +3878,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>264.7219407841549</v>
+        <v>281.2598172268313</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05205809166133962</v>
+        <v>0.03787618762328628</v>
       </c>
     </row>
   </sheetData>
@@ -3927,10 +3927,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2587.395558964529</v>
+        <v>1460.83798092393</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004842827431248846</v>
+        <v>0.1339494736271515</v>
       </c>
     </row>
     <row r="3">
@@ -3940,10 +3940,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>380.4356863197827</v>
+        <v>357.0951164983296</v>
       </c>
       <c r="C3" t="n">
-        <v>1.310693590134372e-05</v>
+        <v>0.0007125804510379435</v>
       </c>
     </row>
     <row r="4">
@@ -3953,10 +3953,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1017516730265983</v>
+        <v>-0.1479936235671799</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3167063232745911</v>
+        <v>0.1853273557809822</v>
       </c>
     </row>
     <row r="5">
@@ -3966,10 +3966,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2441.467546789232</v>
+        <v>3265.658968265103</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4147498541935842</v>
+        <v>0.440920190480838</v>
       </c>
     </row>
     <row r="6">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>899.3842970858527</v>
+        <v>1433.248822309455</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3959352419968357</v>
+        <v>0.3033924304734475</v>
       </c>
     </row>
     <row r="7">
@@ -3992,10 +3992,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>264.4741489177324</v>
+        <v>458.2212411248246</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02795872958044661</v>
+        <v>0.006148649448305218</v>
       </c>
     </row>
   </sheetData>
@@ -4041,10 +4041,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.6761725223038</v>
+        <v>1431.363871384039</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5822428440184577</v>
+        <v>0.2005667995274856</v>
       </c>
     </row>
     <row r="3">
@@ -4054,10 +4054,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.5945301676107</v>
+        <v>483.7369446260106</v>
       </c>
       <c r="C3" t="n">
-        <v>2.118253668396398e-07</v>
+        <v>1.966922014812871e-06</v>
       </c>
     </row>
     <row r="4">
@@ -4067,10 +4067,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01497845378750137</v>
+        <v>-0.139667623375426</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8741039594064168</v>
+        <v>0.4317280872627298</v>
       </c>
     </row>
     <row r="5">
@@ -4080,10 +4080,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3470.575768972925</v>
+        <v>965.5109976706844</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3327079057252288</v>
+        <v>0.8038196350142013</v>
       </c>
     </row>
     <row r="6">
@@ -4093,10 +4093,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1171.462347878646</v>
+        <v>1618.302616463999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3237479164046798</v>
+        <v>0.2825798530580017</v>
       </c>
     </row>
     <row r="7">
@@ -4106,10 +4106,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>174.0045969204166</v>
+        <v>291.4535753856994</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1564807475307296</v>
+        <v>0.02332626538717071</v>
       </c>
     </row>
   </sheetData>
@@ -4155,10 +4155,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1999.717480076969</v>
+        <v>2405.350597542383</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0729180877338364</v>
+        <v>0.002922595288576726</v>
       </c>
     </row>
     <row r="3">
@@ -4168,10 +4168,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>415.7894969025003</v>
+        <v>380.2973149891534</v>
       </c>
       <c r="C3" t="n">
-        <v>3.854582092354112e-05</v>
+        <v>1.104491681564876e-05</v>
       </c>
     </row>
     <row r="4">
@@ -4181,10 +4181,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06256393112767347</v>
+        <v>-0.09692300118714942</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5546279159797953</v>
+        <v>0.2499111197176229</v>
       </c>
     </row>
     <row r="5">
@@ -4194,10 +4194,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1592.370498209155</v>
+        <v>-1788.33562952069</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6859193247994118</v>
+        <v>0.5197836795942687</v>
       </c>
     </row>
     <row r="6">
@@ -4207,10 +4207,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-147.9534805995131</v>
+        <v>1025.592041114641</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9146274400623734</v>
+        <v>0.3166075458362533</v>
       </c>
     </row>
     <row r="7">
@@ -4220,10 +4220,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>297.8122290083266</v>
+        <v>313.1948678437183</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03532301565165129</v>
+        <v>0.003767229018687244</v>
       </c>
     </row>
   </sheetData>
@@ -4269,10 +4269,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1775.38066049054</v>
+        <v>948.0885096254488</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1062967270696985</v>
+        <v>0.3601124230800636</v>
       </c>
     </row>
     <row r="3">
@@ -4282,10 +4282,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>456.4138377175017</v>
+        <v>494.918581504507</v>
       </c>
       <c r="C3" t="n">
-        <v>1.983696378558398e-05</v>
+        <v>2.295738261328439e-06</v>
       </c>
     </row>
     <row r="4">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07489601783986388</v>
+        <v>-0.06964049597163607</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5389183699962825</v>
+        <v>0.5433904648912091</v>
       </c>
     </row>
     <row r="5">
@@ -4308,10 +4308,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1653.198523936284</v>
+        <v>3910.391157965183</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6914352199435904</v>
+        <v>0.319714589487498</v>
       </c>
     </row>
     <row r="6">
@@ -4321,10 +4321,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>473.1012023653293</v>
+        <v>1048.098178618945</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7348002750264532</v>
+        <v>0.4354848822302583</v>
       </c>
     </row>
     <row r="7">
@@ -4334,10 +4334,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>284.6091982760339</v>
+        <v>296.0437339101115</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04750074326218695</v>
+        <v>0.02652021497753916</v>
       </c>
     </row>
   </sheetData>
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1521.724707904981</v>
+        <v>863.3453221180764</v>
       </c>
       <c r="C2" t="n">
-        <v>0.151516319396327</v>
+        <v>0.3610505363093758</v>
       </c>
     </row>
     <row r="3">
@@ -4396,10 +4396,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>417.1845421168623</v>
+        <v>584.4387160243911</v>
       </c>
       <c r="C3" t="n">
-        <v>6.678347951108592e-05</v>
+        <v>9.347182618930343e-08</v>
       </c>
     </row>
     <row r="4">
@@ -4409,10 +4409,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1208780108411049</v>
+        <v>-0.02647279377995876</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3308922112109174</v>
+        <v>0.8010059946256236</v>
       </c>
     </row>
     <row r="5">
@@ -4422,10 +4422,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2102.632912579549</v>
+        <v>1521.099068766991</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6042999593736622</v>
+        <v>0.6406865208881556</v>
       </c>
     </row>
     <row r="6">
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1417.138323912029</v>
+        <v>1704.961573406558</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4027228787897519</v>
+        <v>0.2356882984556882</v>
       </c>
     </row>
     <row r="7">
@@ -4448,10 +4448,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.0222898052027</v>
+        <v>235.0105009107518</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0143270124764704</v>
+        <v>0.06195622746498355</v>
       </c>
     </row>
   </sheetData>
@@ -4497,10 +4497,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2559.545339639844</v>
+        <v>1448.297257396999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001848456227231476</v>
+        <v>0.0224324976954014</v>
       </c>
     </row>
     <row r="3">
@@ -4510,10 +4510,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>332.1464686615045</v>
+        <v>521.3715132547572</v>
       </c>
       <c r="C3" t="n">
-        <v>5.374700526985913e-05</v>
+        <v>1.387061735473329e-09</v>
       </c>
     </row>
     <row r="4">
@@ -4523,10 +4523,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0882061935089398</v>
+        <v>-0.03337810855017025</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2666179662252783</v>
+        <v>0.6298058675481999</v>
       </c>
     </row>
     <row r="5">
@@ -4536,10 +4536,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2309.838348468049</v>
+        <v>456.0888280155996</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4194030408275171</v>
+        <v>0.8417674962684548</v>
       </c>
     </row>
     <row r="6">
@@ -4549,10 +4549,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>822.4563522701616</v>
+        <v>974.6916606418738</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4019317610866148</v>
+        <v>0.3290208124170544</v>
       </c>
     </row>
     <row r="7">
@@ -4562,10 +4562,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>321.8126462176336</v>
+        <v>238.6903852469143</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002676605293735342</v>
+        <v>0.006486398253090606</v>
       </c>
     </row>
   </sheetData>
@@ -4611,10 +4611,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2078.882131841285</v>
+        <v>1591.010314595396</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09909915140882863</v>
+        <v>0.1314221914863181</v>
       </c>
     </row>
     <row r="3">
@@ -4624,10 +4624,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>441.8646174441387</v>
+        <v>458.5547414365849</v>
       </c>
       <c r="C3" t="n">
-        <v>3.185161563064664e-05</v>
+        <v>1.541850775033755e-05</v>
       </c>
     </row>
     <row r="4">
@@ -4637,10 +4637,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07900471750947924</v>
+        <v>-0.09095291250091664</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5294957577858554</v>
+        <v>0.5788710405323383</v>
       </c>
     </row>
     <row r="5">
@@ -4650,10 +4650,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-422.5038805749546</v>
+        <v>1264.260935228132</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9223866871708335</v>
+        <v>0.7428346050761372</v>
       </c>
     </row>
     <row r="6">
@@ -4663,10 +4663,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>804.7499605745893</v>
+        <v>922.1006070009407</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6300140854420406</v>
+        <v>0.5301812668417619</v>
       </c>
     </row>
     <row r="7">
@@ -4676,10 +4676,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>278.367082572488</v>
+        <v>311.8947966608534</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06617648878957882</v>
+        <v>0.03606787578623948</v>
       </c>
     </row>
   </sheetData>
@@ -4725,10 +4725,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1360.048653821832</v>
+        <v>2006.565348138477</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2420268597237086</v>
+        <v>0.08302849029951925</v>
       </c>
     </row>
     <row r="3">
@@ -4738,10 +4738,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>415.3515857659718</v>
+        <v>468.5985203593756</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001676769880771677</v>
+        <v>9.632722772378845e-06</v>
       </c>
     </row>
     <row r="4">
@@ -4751,10 +4751,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1065999654060378</v>
+        <v>-0.05831469810252753</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3385778311705177</v>
+        <v>0.5833652063052304</v>
       </c>
     </row>
     <row r="5">
@@ -4764,10 +4764,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2951.985811226217</v>
+        <v>115.3385231248731</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4890901524662906</v>
+        <v>0.9762316484827869</v>
       </c>
     </row>
     <row r="6">
@@ -4777,10 +4777,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>959.4164218454553</v>
+        <v>560.0271174318</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5042331096622044</v>
+        <v>0.6784575515212532</v>
       </c>
     </row>
     <row r="7">
@@ -4790,10 +4790,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>440.2356062450407</v>
+        <v>253.2164001385497</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01354186399727374</v>
+        <v>0.08468969794829095</v>
       </c>
     </row>
   </sheetData>
@@ -4839,10 +4839,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1715.30914221083</v>
+        <v>2095.176344314988</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07760197987140047</v>
+        <v>0.04420246803043022</v>
       </c>
     </row>
     <row r="3">
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>465.7926332766929</v>
+        <v>389.9263242239981</v>
       </c>
       <c r="C3" t="n">
-        <v>3.436082490443202e-06</v>
+        <v>0.0001217284949673653</v>
       </c>
     </row>
     <row r="4">
@@ -4865,10 +4865,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07406741443027481</v>
+        <v>-0.1738404568954923</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5521474058990923</v>
+        <v>0.146247200891378</v>
       </c>
     </row>
     <row r="5">
@@ -4878,10 +4878,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1912.466184218127</v>
+        <v>65.06022535817283</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6077494942113618</v>
+        <v>0.9860908648735333</v>
       </c>
     </row>
     <row r="6">
@@ -4891,10 +4891,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-73.73559378070672</v>
+        <v>2039.778022419972</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9552396422272087</v>
+        <v>0.1769416219109232</v>
       </c>
     </row>
     <row r="7">
@@ -4904,10 +4904,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>270.6915914300608</v>
+        <v>322.7579397974225</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02640869264668566</v>
+        <v>0.02213072096341891</v>
       </c>
     </row>
   </sheetData>
@@ -4953,10 +4953,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000.095778492847</v>
+        <v>597.6389327605941</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3294261305440288</v>
+        <v>0.5661992654547218</v>
       </c>
     </row>
     <row r="3">
@@ -4966,10 +4966,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589.3932180170052</v>
+        <v>482.0358594375765</v>
       </c>
       <c r="C3" t="n">
-        <v>2.16078822048155e-07</v>
+        <v>3.88896805956668e-06</v>
       </c>
     </row>
     <row r="4">
@@ -4979,10 +4979,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.009728928417136129</v>
+        <v>-0.03802362176940341</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9293777039336053</v>
+        <v>0.7035157327460426</v>
       </c>
     </row>
     <row r="5">
@@ -4992,10 +4992,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2419.854488832652</v>
+        <v>3602.54466641549</v>
       </c>
       <c r="C5" t="n">
-        <v>0.491510566037234</v>
+        <v>0.3608505373893498</v>
       </c>
     </row>
     <row r="6">
@@ -5005,10 +5005,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1170.50890897602</v>
+        <v>965.5086561326366</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3380057898272379</v>
+        <v>0.4292900041746855</v>
       </c>
     </row>
     <row r="7">
@@ -5018,10 +5018,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>168.0983202734543</v>
+        <v>380.4360113024773</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1867622044180182</v>
+        <v>0.004744910990269089</v>
       </c>
     </row>
   </sheetData>
@@ -5067,10 +5067,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1645.803772073279</v>
+        <v>2176.487266560496</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1165129126913649</v>
+        <v>0.04089848072441597</v>
       </c>
     </row>
     <row r="3">
@@ -5080,10 +5080,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>453.084254963544</v>
+        <v>401.2888678988716</v>
       </c>
       <c r="C3" t="n">
-        <v>1.006725930015251e-05</v>
+        <v>0.0001577958015205151</v>
       </c>
     </row>
     <row r="4">
@@ -5093,10 +5093,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03900076984055012</v>
+        <v>-0.0835316061487815</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7701051724329214</v>
+        <v>0.4403236559012346</v>
       </c>
     </row>
     <row r="5">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3641.213591665408</v>
+        <v>-771.4703087051766</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3607712916072111</v>
+        <v>0.8353234871156157</v>
       </c>
     </row>
     <row r="6">
@@ -5119,10 +5119,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-512.4948070737128</v>
+        <v>604.9290783488423</v>
       </c>
       <c r="C6" t="n">
-        <v>0.75635064593674</v>
+        <v>0.6629912010538835</v>
       </c>
     </row>
     <row r="7">
@@ -5132,10 +5132,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>253.7389236865127</v>
+        <v>342.0413590626603</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06946829586180832</v>
+        <v>0.01857812592031461</v>
       </c>
     </row>
   </sheetData>
@@ -5181,10 +5181,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1741.254872010976</v>
+        <v>1777.183800241304</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1566044999822512</v>
+        <v>0.1222684614455936</v>
       </c>
     </row>
     <row r="3">
@@ -5194,10 +5194,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>470.6816587277399</v>
+        <v>470.0208525147991</v>
       </c>
       <c r="C3" t="n">
-        <v>2.039863020681643e-05</v>
+        <v>1.302644939297991e-05</v>
       </c>
     </row>
     <row r="4">
@@ -5207,10 +5207,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0363506247061734</v>
+        <v>-0.06431609293225715</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7548089463083825</v>
+        <v>0.5715744289633262</v>
       </c>
     </row>
     <row r="5">
@@ -5220,10 +5220,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64.91703489486645</v>
+        <v>-117.8087693038808</v>
       </c>
       <c r="C5" t="n">
-        <v>0.988103357707796</v>
+        <v>0.9755755621032178</v>
       </c>
     </row>
     <row r="6">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>327.4468496692266</v>
+        <v>970.6495062882418</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8214476206823917</v>
+        <v>0.4744751603677412</v>
       </c>
     </row>
     <row r="7">
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>292.0916787474559</v>
+        <v>275.9713667658528</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05944697223546137</v>
+        <v>0.04894234456615169</v>
       </c>
     </row>
   </sheetData>
@@ -5295,10 +5295,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1648.711841894254</v>
+        <v>1325.36354301398</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0576135797005277</v>
+        <v>0.1258879674440475</v>
       </c>
     </row>
     <row r="3">
@@ -5308,10 +5308,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>463.6252868271829</v>
+        <v>435.7977393645446</v>
       </c>
       <c r="C3" t="n">
-        <v>4.288677462883395e-07</v>
+        <v>2.134425560838362e-07</v>
       </c>
     </row>
     <row r="4">
@@ -5321,10 +5321,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04136520867684514</v>
+        <v>-0.0007248730112526247</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6556100133963135</v>
+        <v>0.995224448718018</v>
       </c>
     </row>
     <row r="5">
@@ -5334,10 +5334,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1231.553946224292</v>
+        <v>337.8258019721106</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7011980952439757</v>
+        <v>0.9144389026809602</v>
       </c>
     </row>
     <row r="6">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>925.9619131406321</v>
+        <v>998.237361061264</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3667324614746551</v>
+        <v>0.3939758865250611</v>
       </c>
     </row>
     <row r="7">
@@ -5360,10 +5360,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>322.9500860436069</v>
+        <v>354.3511125458417</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004386220761135341</v>
+        <v>0.001206335236492845</v>
       </c>
     </row>
   </sheetData>
@@ -5409,10 +5409,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2344.217500803708</v>
+        <v>1029.932821889206</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0469336833688425</v>
+        <v>0.2294258702971975</v>
       </c>
     </row>
     <row r="3">
@@ -5422,10 +5422,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>433.3990130130046</v>
+        <v>578.5750035663972</v>
       </c>
       <c r="C3" t="n">
-        <v>5.233572961530748e-05</v>
+        <v>8.312397120189833e-08</v>
       </c>
     </row>
     <row r="4">
@@ -5435,10 +5435,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06130129001955431</v>
+        <v>-0.03037403123376356</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5756654597995692</v>
+        <v>0.748172812621425</v>
       </c>
     </row>
     <row r="5">
@@ -5448,10 +5448,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-157.3643388726268</v>
+        <v>1663.192058753379</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9676344501150416</v>
+        <v>0.610163728335688</v>
       </c>
     </row>
     <row r="6">
@@ -5461,10 +5461,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>397.9444330755423</v>
+        <v>1058.565797103117</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7898214291424279</v>
+        <v>0.4282066710376753</v>
       </c>
     </row>
     <row r="7">
@@ -5474,10 +5474,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>247.1259510242503</v>
+        <v>242.6278484825239</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08004174300102995</v>
+        <v>0.04969358904613942</v>
       </c>
     </row>
   </sheetData>
@@ -5523,10 +5523,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1995.470304934497</v>
+        <v>1780.251067973491</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08145514907400637</v>
+        <v>0.08761558741551498</v>
       </c>
     </row>
     <row r="3">
@@ -5536,10 +5536,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>440.2969970534835</v>
+        <v>422.1243812555658</v>
       </c>
       <c r="C3" t="n">
-        <v>3.620219060561977e-05</v>
+        <v>5.623871082550575e-05</v>
       </c>
     </row>
     <row r="4">
@@ -5549,10 +5549,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03127439571946683</v>
+        <v>-0.06672918261701495</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8136651718689245</v>
+        <v>0.5980574654909203</v>
       </c>
     </row>
     <row r="5">
@@ -5562,10 +5562,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-30.86158370954945</v>
+        <v>1437.517069916298</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9939238516962658</v>
+        <v>0.6786158828930471</v>
       </c>
     </row>
     <row r="6">
@@ -5575,10 +5575,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>123.901957951002</v>
+        <v>722.7655219575959</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9316546865801271</v>
+        <v>0.5947321090742086</v>
       </c>
     </row>
     <row r="7">
@@ -5588,10 +5588,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>293.3558024260628</v>
+        <v>295.8113012585528</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03863710535725036</v>
+        <v>0.02891795152647609</v>
       </c>
     </row>
   </sheetData>
@@ -5637,10 +5637,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1703.838534079303</v>
+        <v>1456.026371805453</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08604275924987997</v>
+        <v>0.1475587133342055</v>
       </c>
     </row>
     <row r="3">
@@ -5650,10 +5650,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>450.060775943118</v>
+        <v>440.7928656013612</v>
       </c>
       <c r="C3" t="n">
-        <v>4.696264873907349e-05</v>
+        <v>2.15148245933303e-05</v>
       </c>
     </row>
     <row r="4">
@@ -5663,10 +5663,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1022316071565205</v>
+        <v>-0.1143860629341676</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3177503872048548</v>
+        <v>0.2741791777331917</v>
       </c>
     </row>
     <row r="5">
@@ -5676,10 +5676,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1514.090508533955</v>
+        <v>3209.573121885624</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6820991223753603</v>
+        <v>0.3903177319296796</v>
       </c>
     </row>
     <row r="6">
@@ -5689,10 +5689,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1318.031833021433</v>
+        <v>1170.106657663914</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2871467070022825</v>
+        <v>0.3649297041131816</v>
       </c>
     </row>
     <row r="7">
@@ -5702,10 +5702,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>262.9420255922621</v>
+        <v>306.7275872452353</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05152631604066567</v>
+        <v>0.03141076720374934</v>
       </c>
     </row>
   </sheetData>
@@ -5751,10 +5751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2129.731180636882</v>
+        <v>1826.269634203486</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05769371072582204</v>
+        <v>0.03836784486698702</v>
       </c>
     </row>
     <row r="3">
@@ -5764,10 +5764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>465.8159813309033</v>
+        <v>435.1976661260045</v>
       </c>
       <c r="C3" t="n">
-        <v>2.356805146180251e-05</v>
+        <v>1.171571583401333e-06</v>
       </c>
     </row>
     <row r="4">
@@ -5777,10 +5777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06489722812750492</v>
+        <v>-0.05917846215662326</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6181024671240924</v>
+        <v>0.5374851463797498</v>
       </c>
     </row>
     <row r="5">
@@ -5790,10 +5790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-466.7015382552017</v>
+        <v>-1242.956283517469</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9099148713057585</v>
+        <v>0.6767050376795194</v>
       </c>
     </row>
     <row r="6">
@@ -5803,10 +5803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>456.4603580232465</v>
+        <v>860.9461175673719</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7724355750522948</v>
+        <v>0.4245209869305034</v>
       </c>
     </row>
     <row r="7">
@@ -5816,10 +5816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>237.5807601311445</v>
+        <v>347.3027028625634</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09819047292736621</v>
+        <v>0.006584120607595599</v>
       </c>
     </row>
   </sheetData>
@@ -5865,10 +5865,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1037.589005437163</v>
+        <v>1789.284133798462</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3435367469355632</v>
+        <v>0.06146065687889164</v>
       </c>
     </row>
     <row r="3">
@@ -5878,10 +5878,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>555.2506565366515</v>
+        <v>476.6077984397691</v>
       </c>
       <c r="C3" t="n">
-        <v>7.680926782404548e-06</v>
+        <v>1.682397056099143e-06</v>
       </c>
     </row>
     <row r="4">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03461359811420506</v>
+        <v>-0.06370353889707245</v>
       </c>
       <c r="C4" t="n">
-        <v>0.734744759863331</v>
+        <v>0.5675358756723639</v>
       </c>
     </row>
     <row r="5">
@@ -5904,10 +5904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1123.459884731233</v>
+        <v>2142.705190395976</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7601239576704355</v>
+        <v>0.5593606037105481</v>
       </c>
     </row>
     <row r="6">
@@ -5917,10 +5917,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1242.568145151835</v>
+        <v>147.9318977061689</v>
       </c>
       <c r="C6" t="n">
-        <v>0.334001761604122</v>
+        <v>0.9241675473252569</v>
       </c>
     </row>
     <row r="7">
@@ -5930,10 +5930,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>299.7234295664523</v>
+        <v>224.4766227883296</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06493051338699479</v>
+        <v>0.08360809784437527</v>
       </c>
     </row>
   </sheetData>
@@ -5979,10 +5979,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1818.065702346535</v>
+        <v>1265.491031930064</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04870884319032157</v>
+        <v>0.1815173414255524</v>
       </c>
     </row>
     <row r="3">
@@ -5992,10 +5992,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>423.9762815434192</v>
+        <v>520.1733642542786</v>
       </c>
       <c r="C3" t="n">
-        <v>1.257158880030032e-06</v>
+        <v>3.568034778100543e-06</v>
       </c>
     </row>
     <row r="4">
@@ -6005,10 +6005,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05705969766798258</v>
+        <v>-0.05954707912767687</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5722850484633699</v>
+        <v>0.6128638040151146</v>
       </c>
     </row>
     <row r="5">
@@ -6018,10 +6018,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-812.9258602182908</v>
+        <v>804.3259268288516</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8004745364149988</v>
+        <v>0.8141559290297242</v>
       </c>
     </row>
     <row r="6">
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>906.8795337927359</v>
+        <v>1486.499383636455</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3943194307553884</v>
+        <v>0.2362098200462069</v>
       </c>
     </row>
     <row r="7">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>331.0864182281236</v>
+        <v>273.8083988972878</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003598333298445334</v>
+        <v>0.02508976950240157</v>
       </c>
     </row>
   </sheetData>
@@ -6093,10 +6093,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1609.983709157284</v>
+        <v>983.1160651758478</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1227893314981742</v>
+        <v>0.3581347369315246</v>
       </c>
     </row>
     <row r="3">
@@ -6106,10 +6106,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>420.7773097306038</v>
+        <v>467.3012598772439</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001664672013640479</v>
+        <v>2.655573490214377e-05</v>
       </c>
     </row>
     <row r="4">
@@ -6119,10 +6119,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1071884555492698</v>
+        <v>-0.0446206146831425</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3727563325896776</v>
+        <v>0.6729921040728902</v>
       </c>
     </row>
     <row r="5">
@@ -6132,10 +6132,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2033.537989204306</v>
+        <v>3816.725939036511</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6086807482441031</v>
+        <v>0.3339155193061656</v>
       </c>
     </row>
     <row r="6">
@@ -6145,10 +6145,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1110.021101712465</v>
+        <v>712.0812773373946</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4466289625458387</v>
+        <v>0.5862751957801235</v>
       </c>
     </row>
     <row r="7">
@@ -6158,10 +6158,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>358.7573947955843</v>
+        <v>334.9965336576677</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02109938574164558</v>
+        <v>0.01938349806949894</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Dijon.xlsx
+++ b/outputs/ML_Results/dist_LR/Dijon.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ50203817" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ50388717" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ50556884" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ50742797" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ50920815" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ51104823" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ51272215" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ51455325" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ51638105" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ51804901" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ52003546" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ52172323" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ52355971" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ52540313" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ52723398" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ52907344" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ53090151" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ53272525" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ53455867" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ53737274" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ53914241" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ54088958" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ54278325" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ54459967" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ54639343" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ54825627" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ55035054" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ55240873" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ55420342" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ55591351" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ55775379" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ55958636" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ56138034" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ56326349" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ56507368" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ56689665" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ56887000" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ57073690" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ57259700" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ57441859" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ57622637" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ57827595" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ58035371" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ58230303" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ58405475" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ58588919" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ58771991" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ58955657" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ59138236" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ59321928" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ45477113" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ45702297" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ45920552" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ46138869" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ46358412" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ46577865" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ46793014" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ47007044" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ47224951" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ47442081" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ47654570" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ47873366" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ48093870" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ48314151" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ48534685" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ48757227" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ48981699" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ49198720" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ49420403" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ49638817" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ49853839" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ50074710" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ50297175" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ50516707" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ50726431" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ50945455" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ51162562" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ51382226" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ51600249" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ51811716" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ52029259" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ52244282" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ52453724" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ52682814" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ52938167" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ53171711" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ53536103" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ53794262" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ54010216" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ54225866" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ54442745" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ54654695" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ54875014" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ55093996" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ55319129" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ55544198" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ55767465" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ55989028" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ56198349" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ56422545" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,75 +507,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2348.305469151413</v>
+        <v>-706.4977190494101</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009693115658345901</v>
+        <v>0.7807055422168445</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>417.5531579586019</v>
+        <v>234.9630270281012</v>
       </c>
       <c r="C3" t="n">
-        <v>1.306059574977568e-06</v>
+        <v>0.1178556390523609</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09546449873587767</v>
+        <v>442.226082509194</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2814249302134852</v>
+        <v>6.180304590605736e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3059.822611456061</v>
+        <v>0.04504535145451716</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3558231088910718</v>
+        <v>0.7912674003471335</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1171.083205950103</v>
+        <v>-8.557203635817418e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2857668138759802</v>
+        <v>0.6532739750911986</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>307.2535883705019</v>
+        <v>11.40698964905697</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007836658172734949</v>
+        <v>0.2894073652957154</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>213.1057740278106</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9173394173469636</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>550.0794686370409</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6836045105177208</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-2062.109083666791</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5636652845538792</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>40.09128785767265</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2081705430296484</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,75 +673,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1776.684681777462</v>
+        <v>-2553.759993514208</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09833873354569987</v>
+        <v>0.4264517683205932</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>441.9933549649526</v>
+        <v>269.5507460843531</v>
       </c>
       <c r="C3" t="n">
-        <v>1.596720930091483e-05</v>
+        <v>0.1450326485844933</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1060574736642687</v>
+        <v>486.5900541774186</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3381261319254094</v>
+        <v>2.430522475486378e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>342.6470145428357</v>
+        <v>0.05573563745514787</v>
       </c>
       <c r="C5" t="n">
-        <v>0.927050693486531</v>
+        <v>0.8052999620746298</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1491.368281798256</v>
+        <v>-5.197971526405898e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3032774700385963</v>
+        <v>0.8363575412666753</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>307.206216957462</v>
+        <v>11.16487714670397</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02759656916110139</v>
+        <v>0.427390385012122</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-111.9602496322168</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9723034733607794</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>702.4804589406085</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7016702980562735</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1751.513956708906</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6642762751070592</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>61.13155440923659</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1313551609865513</v>
       </c>
     </row>
   </sheetData>
@@ -703,7 +807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,75 +839,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1484.541761303143</v>
+        <v>-218.6534545991308</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08325444286386506</v>
+        <v>0.9303764343330276</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>452.7263685364773</v>
+        <v>295.6548192507761</v>
       </c>
       <c r="C3" t="n">
-        <v>2.594957761672882e-07</v>
+        <v>0.1048571683805495</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04223307558492723</v>
+        <v>461.7495603561364</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6063704136962433</v>
+        <v>3.730292737345913e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>342.1560703015639</v>
+        <v>0.0743655263078471</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9091359831332591</v>
+        <v>0.6709294940000157</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>913.7349775780224</v>
+        <v>-0.0001016699516607358</v>
       </c>
       <c r="C6" t="n">
-        <v>0.371380165606484</v>
+        <v>0.623746305161162</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>324.2792914234214</v>
+        <v>6.358543877930018</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007616740106452843</v>
+        <v>0.6303153221768066</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>701.0386062856342</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7423726740039255</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>386.2892118477998</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7805076270545636</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>913.9375026355629</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.787025896744355</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>21.16611801451057</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5462762709432619</v>
       </c>
     </row>
   </sheetData>
@@ -817,7 +973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,75 +1005,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1341.681957511726</v>
+        <v>-1504.68257595045</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1309051064985562</v>
+        <v>0.5902337305751414</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>401.2872316910949</v>
+        <v>300.8145518286528</v>
       </c>
       <c r="C3" t="n">
-        <v>4.461560279086112e-05</v>
+        <v>0.08114892244204949</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08119882970160919</v>
+        <v>415.7426577943842</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3984961717692682</v>
+        <v>0.0002084938485445819</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5519.12995510242</v>
+        <v>-0.01742285372997987</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1257046981779499</v>
+        <v>0.9308728112115495</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-60.69390583131803</v>
+        <v>4.831088233368417e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9599361087511803</v>
+        <v>0.8315823369065438</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>349.5092016195103</v>
+        <v>9.031365116057575</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0121174922762121</v>
+        <v>0.4658161882989794</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1203.891432376051</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6088568362833946</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-456.0645644450087</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7706874879018144</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6060.124360958456</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1134593670431674</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>42.80656499375044</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2246342137283875</v>
       </c>
     </row>
   </sheetData>
@@ -931,7 +1139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -963,75 +1171,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1891.445586040454</v>
+        <v>-2875.772079446339</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05880706298546392</v>
+        <v>0.4794947725339771</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>452.1482618854143</v>
+        <v>259.7705848332204</v>
       </c>
       <c r="C3" t="n">
-        <v>2.404835453383261e-05</v>
+        <v>0.1643298351394049</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.103635000215101</v>
+        <v>507.8889551591711</v>
       </c>
       <c r="C4" t="n">
-        <v>0.332615712164663</v>
+        <v>5.039862643592568e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>368.356579284201</v>
+        <v>0.09736838169558065</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9198739681317076</v>
+        <v>0.7412990938855366</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1331.384614514015</v>
+        <v>-8.323593441480971e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3313747840950018</v>
+        <v>0.772628943423217</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>279.0242813619595</v>
+        <v>11.88667588914711</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0499045576557559</v>
+        <v>0.482843193962352</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1406.369234328818</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6614314184067511</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100.1757667345933</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9627262060350773</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2155.405792694614</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6161055088744632</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>62.70173686842878</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1666819353715011</v>
       </c>
     </row>
   </sheetData>
@@ -1045,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1077,75 +1337,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1224.852419995563</v>
+        <v>-2923.957563606768</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2015585814579073</v>
+        <v>0.2938968404353527</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>567.5574810551925</v>
+        <v>218.3148426625601</v>
       </c>
       <c r="C3" t="n">
-        <v>6.060178500186762e-07</v>
+        <v>0.1496842995044221</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03159606814136373</v>
+        <v>576.1942961499627</v>
       </c>
       <c r="C4" t="n">
-        <v>0.758108464157764</v>
+        <v>1.925913445939517e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-673.323625921772</v>
+        <v>0.2564173489204887</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8505278896242523</v>
+        <v>0.191104256754314</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1403.638201437702</v>
+        <v>-0.0002665587895347971</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2498076426081781</v>
+        <v>0.2069067703793158</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>261.3178366717715</v>
+        <v>10.63847347087952</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0259074067614948</v>
+        <v>0.367850575443903</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1772.307366175555</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4791400617762126</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>24.56084559342889</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9866305088550466</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1206.840807480097</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7437217085389629</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>59.64060260622233</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1146019067470718</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1191,75 +1503,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1645.275351395942</v>
+        <v>-3125.131086008318</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1464155353179784</v>
+        <v>0.3391707725315445</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>461.6733201314473</v>
+        <v>242.9585716364537</v>
       </c>
       <c r="C3" t="n">
-        <v>7.829304579289486e-06</v>
+        <v>0.2038215091429269</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.101411945403727</v>
+        <v>495.0751683450371</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6290943785312996</v>
+        <v>2.413759684279157e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>274.724696061352</v>
+        <v>0.08020879975406092</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9428880402728621</v>
+        <v>0.7669664126959705</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1360.803536619126</v>
+        <v>-3.706449243865567e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5427416135715857</v>
+        <v>0.8945172445867713</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>311.024457286099</v>
+        <v>14.39691446142974</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02582467230683121</v>
+        <v>0.3082858325724477</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>142.1102455408745</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9593580495917453</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>708.1378080909853</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7739914286717052</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>742.6152179764213</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8543639041011365</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>68.69185577156686</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0949393421833204</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1305,75 +1669,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1022.560721078869</v>
+        <v>-2517.793354583962</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2438253827849603</v>
+        <v>0.3702919288676357</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>587.4250747135666</v>
+        <v>205.9157110443339</v>
       </c>
       <c r="C3" t="n">
-        <v>1.216518477014734e-07</v>
+        <v>0.195039412503683</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04826667999427858</v>
+        <v>599.9974665659997</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6287996721959901</v>
+        <v>5.39296272475875e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>129.1290379749171</v>
+        <v>0.1583850635134504</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9667550722867421</v>
+        <v>0.4261000926141639</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1982.244016560518</v>
+        <v>-0.0001643721645679393</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1290198272456058</v>
+        <v>0.4363322535323856</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5603506370817</v>
+        <v>10.15356765484598</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02219781569975135</v>
+        <v>0.3859550558615954</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>982.6418654984554</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6793662762313482</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1003.917173527703</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5290525459901755</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1427.985962804643</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.673875898571261</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>52.00111171250607</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1716628190827059</v>
       </c>
     </row>
   </sheetData>
@@ -1387,7 +1803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1419,75 +1835,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1871.999925312244</v>
+        <v>-2750.420215951055</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0943685657140881</v>
+        <v>0.4394973114409398</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>447.5855323045753</v>
+        <v>348.6399614163173</v>
       </c>
       <c r="C3" t="n">
-        <v>1.946309081387114e-05</v>
+        <v>0.1210172728786847</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07581048898883225</v>
+        <v>501.9656767532699</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6543780714792278</v>
+        <v>2.977808061324265e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>495.6684722205264</v>
+        <v>0.1020725142509618</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8976877486886581</v>
+        <v>0.6835613079515322</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>874.2277204290394</v>
+        <v>-5.067627773869222e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6074675463591743</v>
+        <v>0.8553920427796735</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>280.7992623560428</v>
+        <v>6.506462136364593</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04886447448491163</v>
+        <v>0.6817679247397961</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1216.924607229474</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6935250038685168</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>74.08824225431022</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.970561828957027</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2142.293326898525</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6169730267876106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>64.62155315369347</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1538914432373104</v>
       </c>
     </row>
   </sheetData>
@@ -1501,7 +1969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1533,75 +2001,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2051.221946389231</v>
+        <v>-2063.13427377795</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02927126708148018</v>
+        <v>0.4473322753573196</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>380.6698582107207</v>
+        <v>148.3188640777704</v>
       </c>
       <c r="C3" t="n">
-        <v>9.407744974713255e-05</v>
+        <v>0.3620470303972473</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08601178546532598</v>
+        <v>396.0965150168467</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3807897889405674</v>
+        <v>0.0002355429565355947</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2596.781495010498</v>
+        <v>0.03137154078846782</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4465917477339866</v>
+        <v>0.8824434199865797</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.46128960548231</v>
+        <v>2.93012415771279e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9759632148868014</v>
+        <v>0.8954037455920342</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>261.0796801619506</v>
+        <v>17.00162173753169</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04205427373499341</v>
+        <v>0.1588731127489575</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-811.5474939299138</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7131093896519354</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-567.5167705547383</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7253382171308649</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3395.11847718631</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3338074156065538</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>53.96513778159444</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1066976970217674</v>
       </c>
     </row>
   </sheetData>
@@ -1615,7 +2135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1647,75 +2167,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1376.412968261905</v>
+        <v>-3405.793438698427</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1642427630321372</v>
+        <v>0.2914142090537919</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>424.5512077300718</v>
+        <v>333.2427940564187</v>
       </c>
       <c r="C3" t="n">
-        <v>3.313267174212258e-05</v>
+        <v>0.06100126123389561</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09626641042353637</v>
+        <v>447.9777950514158</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3740561214911099</v>
+        <v>8.891846486705738e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3336.665082774656</v>
+        <v>0.1438562355435606</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4542769558529229</v>
+        <v>0.5247593219490737</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>749.56981430617</v>
+        <v>-0.0001476368582934947</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5704870870635236</v>
+        <v>0.5693736488167995</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>371.0527657471833</v>
+        <v>15.0027053194736</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0100427573565312</v>
+        <v>0.3360638303803316</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1023.84201635408</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.733620414919652</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-572.1476363885586</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7357167307505701</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4435.595897915187</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3408705972567582</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>65.84987130159271</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.09390233506515207</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +2301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1761,75 +2333,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1692.828946716686</v>
+        <v>-3214.246352904654</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1000483883038616</v>
+        <v>0.4043467523615015</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>476.5860258254478</v>
+        <v>268.8415679785056</v>
       </c>
       <c r="C3" t="n">
-        <v>8.478142447121008e-06</v>
+        <v>0.1605061171340645</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05910690490414316</v>
+        <v>490.2921586959015</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5906153356977799</v>
+        <v>3.025703599320386e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-170.6305286844963</v>
+        <v>0.1127200067716367</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9620949980285691</v>
+        <v>0.6294776568167724</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>707.6427624406231</v>
+        <v>-0.0001041619766883624</v>
       </c>
       <c r="C6" t="n">
-        <v>0.621208015492986</v>
+        <v>0.6873533609897984</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>333.2879189944538</v>
+        <v>20.26431956760709</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02508145903068</v>
+        <v>0.2428289165129354</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1425.263161345173</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6514045379975807</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>273.9747747094896</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8874768512557201</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1439.467188617462</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.72118695488572</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>53.6800515743499</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2339162760319581</v>
       </c>
     </row>
   </sheetData>
@@ -1843,7 +2467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1875,75 +2499,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1249.134719628049</v>
+        <v>-803.9440462718467</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1614764316470568</v>
+        <v>0.7395291696756199</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>483.5840224394481</v>
+        <v>359.6684479954918</v>
       </c>
       <c r="C3" t="n">
-        <v>2.615999011284445e-08</v>
+        <v>0.01940849523410553</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06198826608790906</v>
+        <v>505.2958630142892</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4276148215515215</v>
+        <v>6.341834250387501e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-245.2263317844463</v>
+        <v>0.03063597580479172</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9333519255379037</v>
+        <v>0.8560404325443428</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1445.182305810446</v>
+        <v>-7.842299859378479e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1442152542126593</v>
+        <v>0.6995898066978843</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>336.2285158939162</v>
+        <v>4.772772611131309</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003455627886541806</v>
+        <v>0.6562246775777192</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1386.427579557288</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4874467741818277</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1151.160146314821</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4080925889264595</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>467.8488617211387</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.885744460814355</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>23.62532549137356</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4197411708678583</v>
       </c>
     </row>
   </sheetData>
@@ -1957,7 +2633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1989,75 +2665,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1030.327441887664</v>
+        <v>1756.13611509107</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2756824899404758</v>
+        <v>0.6089276630598539</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>546.4954594319649</v>
+        <v>191.2517129855396</v>
       </c>
       <c r="C3" t="n">
-        <v>9.004131830345794e-08</v>
+        <v>0.2538890671162485</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.02696823734585271</v>
+        <v>546.4155863901398</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7624229258454802</v>
+        <v>1.696197443956157e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3929.770113310676</v>
+        <v>-0.1509065490760732</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2551434825915169</v>
+        <v>0.5328193125616785</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>344.0426343780359</v>
+        <v>0.0001902646062678148</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7653326378243495</v>
+        <v>0.4899788637373009</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>206.1570780449429</v>
+        <v>-5.111567983906312</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1048841202118766</v>
+        <v>0.7129548588842901</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2109.00052321796</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4966587201111972</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>660.586746928494</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6811242160135216</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3099.465218615949</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.424128145988532</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.188766860451935</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9404692368241163</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2103,75 +2831,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1590.137599709236</v>
+        <v>-2816.266919197769</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1093000449711331</v>
+        <v>0.3721825574884635</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>430.6885444450398</v>
+        <v>214.795170408857</v>
       </c>
       <c r="C3" t="n">
-        <v>5.173715603808959e-05</v>
+        <v>0.2895349573502329</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1054736931198519</v>
+        <v>464.9237138444973</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3875337936048998</v>
+        <v>0.0001091963005952417</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2144.460469906369</v>
+        <v>0.09209763480377864</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5628271886826727</v>
+        <v>0.6805009520482788</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1291.746444009021</v>
+        <v>-6.214066571643491e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3539288005265989</v>
+        <v>0.7898306938934454</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>295.3471391033765</v>
+        <v>14.32343035917241</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04346709711353926</v>
+        <v>0.3207700616844069</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>442.048963603851</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8600803953495628</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>291.8307293326384</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8674098103207106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3492.445122512019</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3841454976447168</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>57.49226009426707</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1336130141380078</v>
       </c>
     </row>
   </sheetData>
@@ -2185,7 +2965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2217,75 +2997,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1905.917270300928</v>
+        <v>-3696.398315442691</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07523871896800841</v>
+        <v>0.2751274785597609</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>434.0768099807752</v>
+        <v>296.373370343407</v>
       </c>
       <c r="C3" t="n">
-        <v>4.062197892080797e-05</v>
+        <v>0.08967010933522841</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06806140362921903</v>
+        <v>500.3506022390417</v>
       </c>
       <c r="C4" t="n">
-        <v>0.597799284466205</v>
+        <v>4.048815178825672e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-513.9667653294791</v>
+        <v>0.1233454734149178</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8964367295541917</v>
+        <v>0.5849892875747389</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>840.1822576626655</v>
+        <v>-1.61166868266575e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5590678377656486</v>
+        <v>0.9488145924300582</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>315.1551028866849</v>
+        <v>14.91942186240174</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01682572288087359</v>
+        <v>0.2752970208828681</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>900.2223561344281</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7238848366377453</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-74.25562362490791</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9665141621522726</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>571.1678474396604</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8916777520851202</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>72.51797062312902</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.07923131624515342</v>
       </c>
     </row>
   </sheetData>
@@ -2299,7 +3131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2331,75 +3163,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1524.536267648481</v>
+        <v>-2934.465423039417</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06448880138887404</v>
+        <v>0.1851943768339027</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>484.468500450662</v>
+        <v>276.6560628226813</v>
       </c>
       <c r="C3" t="n">
-        <v>6.97520825450899e-08</v>
+        <v>0.07892130697177664</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0758598823226902</v>
+        <v>521.6866482055889</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3713493679564845</v>
+        <v>8.396955031212403e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-597.5377849993884</v>
+        <v>0.1262553247445877</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8348972731778608</v>
+        <v>0.4162068665697432</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1837.754372181179</v>
+        <v>-0.000153940593849108</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1208900921374937</v>
+        <v>0.3605587634007652</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>307.809033172137</v>
+        <v>11.73614068012672</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007856078004056759</v>
+        <v>0.3045792916437142</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>842.7814603503566</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6672748301539153</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1153.643197425693</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4298429291820757</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1291.10495579839</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6667155650107465</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>61.80029673290277</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.04844779639394589</v>
       </c>
     </row>
   </sheetData>
@@ -2413,7 +3297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,75 +3329,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1923.593691725416</v>
+        <v>-1525.835001563384</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0690416313472394</v>
+        <v>0.6113739340020783</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>439.9286371432586</v>
+        <v>273.2976962029645</v>
       </c>
       <c r="C3" t="n">
-        <v>1.724679015613266e-05</v>
+        <v>0.137122204792149</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08767895152987965</v>
+        <v>457.2619234042696</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4256246930438441</v>
+        <v>0.0001259079617187536</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-549.4559159014934</v>
+        <v>0.1300605951294512</v>
       </c>
       <c r="C5" t="n">
-        <v>0.884525123820759</v>
+        <v>0.5879891085478717</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.4405556844301</v>
+        <v>-0.0001578812992330253</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5473678269256085</v>
+        <v>0.5606640382690107</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>331.110559069338</v>
+        <v>11.49787244232469</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0164382945072443</v>
+        <v>0.4006397983617614</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>561.0872073379569</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8299446240329778</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-276.6031386669965</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8817767433315744</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>131.4388037938861</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9736565854630151</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>49.01733516597412</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1965362143083236</v>
       </c>
     </row>
   </sheetData>
@@ -2527,7 +3463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2559,75 +3495,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1777.292376917</v>
+        <v>-2774.063282306478</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08917389529383772</v>
+        <v>0.3589751820508325</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>466.2752117166405</v>
+        <v>338.6888106803347</v>
       </c>
       <c r="C3" t="n">
-        <v>1.527200501897081e-05</v>
+        <v>0.06332977003385944</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05126199909728085</v>
+        <v>528.9627997610866</v>
       </c>
       <c r="C4" t="n">
-        <v>0.62687451138725</v>
+        <v>1.741571240850438e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>434.9464214976215</v>
+        <v>0.03146412913019747</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9065992586947282</v>
+        <v>0.8899769640759887</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2647339506457</v>
+        <v>4.354321564658474e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6151296230676314</v>
+        <v>0.8598353632327317</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>271.0861439812376</v>
+        <v>7.071251537756975</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05139149653327254</v>
+        <v>0.6069901672498015</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1841.819474161228</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5055890025061264</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>385.9955901115095</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8206276788273337</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>516.3162797894875</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8937982147236503</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>62.21262913741153</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1029714593678281</v>
       </c>
     </row>
   </sheetData>
@@ -2641,7 +3629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2673,75 +3661,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>903.1788339393338</v>
+        <v>-2696.594918286079</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3782137636803773</v>
+        <v>0.4145005741763254</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>474.0696818678252</v>
+        <v>349.2785669006732</v>
       </c>
       <c r="C3" t="n">
-        <v>3.616141895514974e-06</v>
+        <v>0.05243780328397897</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06829649004223526</v>
+        <v>494.214485267679</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5799018670695896</v>
+        <v>1.284428387535087e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4080.517187177118</v>
+        <v>0.1532694184578717</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2946322364420966</v>
+        <v>0.5366435401698322</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.8230183229948</v>
+        <v>-0.0001688098505277492</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4964893997054018</v>
+        <v>0.5447135366215592</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>326.4626362844622</v>
+        <v>6.080756670827952</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01361125060118861</v>
+        <v>0.6882767357153026</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1416.150526982276</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6367224340697281</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-227.7856286866856</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9030187200564568</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5334.96284533968</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2288624831752235</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>55.99681296844531</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1765737567373085</v>
       </c>
     </row>
   </sheetData>
@@ -2755,7 +3795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2787,75 +3827,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1845.450442709798</v>
+        <v>-3163.831776080737</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08086890701508251</v>
+        <v>0.3271296681959918</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>450.1304747395367</v>
+        <v>170.591119826915</v>
       </c>
       <c r="C3" t="n">
-        <v>4.254391030026509e-05</v>
+        <v>0.3457495439086361</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1309507005113836</v>
+        <v>428.4898879932756</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2374381007548968</v>
+        <v>0.0001843236388920193</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39.08763088180604</v>
+        <v>0.0912946432666466</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9913357267228241</v>
+        <v>0.6680517597533936</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1655.324172922544</v>
+        <v>-0.0001469106312429716</v>
       </c>
       <c r="C6" t="n">
-        <v>0.227289869165361</v>
+        <v>0.5436769886199049</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>303.8184751850634</v>
+        <v>14.71831526001813</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03463507093527032</v>
+        <v>0.281636114440684</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>761.651230077623</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7632313924892032</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>438.0695893041839</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8072642685819962</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1762.804984306911</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6463751737397718</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>80.72913504378727</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.08694393985933267</v>
       </c>
     </row>
   </sheetData>
@@ -2869,7 +3961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2901,75 +3993,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1588.752587407877</v>
+        <v>-399.0819369923083</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01969639825929849</v>
+        <v>0.8578032368691942</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>481.2877004553617</v>
+        <v>217.5939923631967</v>
       </c>
       <c r="C3" t="n">
-        <v>6.041682710724428e-09</v>
+        <v>0.1088683613070295</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.02529383164567267</v>
+        <v>500.5524555954819</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7098789407680945</v>
+        <v>3.887202492205318e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.0427650145921</v>
+        <v>0.1078529794342577</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9535214039089757</v>
+        <v>0.4957373553356378</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>667.1664138876922</v>
+        <v>-9.717423190986653e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4602077872572325</v>
+        <v>0.57171594964572</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>261.4879900761615</v>
+        <v>6.54953183839126</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0050710531901062</v>
+        <v>0.4815517019507394</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>20.46407418080116</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9912078881004538</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>57.8438309017547</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9587904711614892</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>798.2593093986106</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7783133171389998</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>28.50716479524047</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3526824509263577</v>
       </c>
     </row>
   </sheetData>
@@ -2983,7 +4127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3015,75 +4159,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1001.691930359139</v>
+        <v>-3817.335872139794</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2502963498474452</v>
+        <v>0.1962781808502856</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>516.3040521495413</v>
+        <v>327.8225751131099</v>
       </c>
       <c r="C3" t="n">
-        <v>5.82913335215281e-07</v>
+        <v>0.07274384757234408</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07149521425161323</v>
+        <v>614.4319933748925</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4676591712052658</v>
+        <v>1.768568473545335e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2412.919147276549</v>
+        <v>0.2078746304478969</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4737359674649626</v>
+        <v>0.3505524591401724</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1622.288288967044</v>
+        <v>-0.0001643585910786365</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2215767238625535</v>
+        <v>0.4574761910630021</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>287.9778687136451</v>
+        <v>3.553193414599384</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01984068516654152</v>
+        <v>0.7711764594735702</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1982.095866265762</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4181700498384703</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>35.68342316759845</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9827111878762036</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2716.563966818095</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4241647861711918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>78.11187074615306</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.05443903349338563</v>
       </c>
     </row>
   </sheetData>
@@ -3097,7 +4293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3129,75 +4325,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1794.342921599826</v>
+        <v>-1349.931034904905</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1110203600321677</v>
+        <v>0.6777255507895601</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>433.1387152304907</v>
+        <v>251.381041238414</v>
       </c>
       <c r="C3" t="n">
-        <v>4.957219407687026e-05</v>
+        <v>0.2135517988093699</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07429089553301368</v>
+        <v>449.8182352914664</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5790889565870756</v>
+        <v>0.0004185970938063384</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-48.65877846661169</v>
+        <v>0.1254782164471133</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9901147288956846</v>
+        <v>0.6019129593211195</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>951.578632934049</v>
+        <v>-0.0001126921841055524</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5447927939523558</v>
+        <v>0.6660950554193787</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.8717432556469</v>
+        <v>12.72398660859592</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01878103396024337</v>
+        <v>0.3805755968919177</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18.1713357732242</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.994764981902116</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-325.6024125819686</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8723803574052345</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1056.77957423067</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8068206230280367</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>42.87011422860701</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2668027617305435</v>
       </c>
     </row>
   </sheetData>
@@ -3211,7 +4459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3243,75 +4491,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1275.34160475169</v>
+        <v>-1746.01665558851</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2843415975728908</v>
+        <v>0.5571934569945682</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>505.1648472039599</v>
+        <v>288.0371142584497</v>
       </c>
       <c r="C3" t="n">
-        <v>9.666457293794635e-07</v>
+        <v>0.1292968180453915</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08257429247623277</v>
+        <v>543.1113125717021</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4852378494330279</v>
+        <v>2.81346608111134e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1624.614332419931</v>
+        <v>0.1760844633221566</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6766116289712777</v>
+        <v>0.4072663689933508</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1197.762396484432</v>
+        <v>-0.0002576542106482165</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3723213714610176</v>
+        <v>0.284751296208256</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>270.8970639442985</v>
+        <v>3.194232738570218</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05858019955259099</v>
+        <v>0.8116926023790245</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2307.944797386032</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4247245650181279</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-160.2046075188268</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9232572841263713</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2822.948678363139</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.493470437953589</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>47.04446491310273</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2264923392433042</v>
       </c>
     </row>
   </sheetData>
@@ -3325,7 +4625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3357,75 +4657,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1894.6050676242</v>
+        <v>535.0839625166318</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02005856141788255</v>
+        <v>0.86294405714956</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>442.9305041096151</v>
+        <v>303.8653507060574</v>
       </c>
       <c r="C3" t="n">
-        <v>6.441586051863229e-07</v>
+        <v>0.03836481244089018</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04946865228416755</v>
+        <v>445.5200847652687</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5774188472205193</v>
+        <v>1.071836639835718e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2266.261527971218</v>
+        <v>0.04594399403005811</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4338599119219227</v>
+        <v>0.8266103115622643</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>975.0515632851852</v>
+        <v>-7.224729853987175e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3634979286840095</v>
+        <v>0.7438479501628057</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>348.7269733482885</v>
+        <v>6.159029181775454</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001264681378945932</v>
+        <v>0.6216968870819495</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>162.2125713528458</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9496252647082779</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>474.3379943911814</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7516563405987187</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1546.825984877769</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6537810745419935</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>16.50522959542728</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6573237267291233</v>
       </c>
     </row>
   </sheetData>
@@ -3439,7 +4791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3471,75 +4823,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1313.937234200929</v>
+        <v>-3953.508105299701</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1664490714752173</v>
+        <v>0.1185024385600878</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>466.1327680722465</v>
+        <v>197.939153428291</v>
       </c>
       <c r="C3" t="n">
-        <v>2.155210246033626e-05</v>
+        <v>0.1896978503399774</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1093847655074242</v>
+        <v>476.7189655831185</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2646588528955889</v>
+        <v>2.809510029916693e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1598.537570259437</v>
+        <v>0.1301995986415801</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6023106809796304</v>
+        <v>0.4746389031092069</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2144.498693296234</v>
+        <v>-0.0001437961898433764</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09791700957915457</v>
+        <v>0.4716645544829086</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>314.3203292910781</v>
+        <v>21.2719783596537</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0195340061252566</v>
+        <v>0.1061377717398512</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>886.5144375262796</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6844459870964017</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1060.273204843926</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4810732024602339</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2753.203080737389</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.368185230078544</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>67.85972646809229</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.04041857611089721</v>
       </c>
     </row>
   </sheetData>
@@ -3553,7 +4957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3585,75 +4989,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1548.72957143149</v>
+        <v>-2935.810057853215</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1413808435490934</v>
+        <v>0.348962083472088</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>434.6921658032143</v>
+        <v>351.582045814191</v>
       </c>
       <c r="C3" t="n">
-        <v>2.857743439685555e-05</v>
+        <v>0.06667020215592707</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07556807924353198</v>
+        <v>476.5489456274644</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5802622063431249</v>
+        <v>4.512695148738322e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2325.10115196671</v>
+        <v>0.07754301357189064</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5947413403854878</v>
+        <v>0.7280432040360107</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>700.1608594738891</v>
+        <v>-5.45089085767377e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6600912933608101</v>
+        <v>0.8300411159123781</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>326.4566948151281</v>
+        <v>7.546467183020258</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02605151208652062</v>
+        <v>0.5739193842869136</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>679.7745090904154</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7884517125717485</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-128.8700799485423</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9454392433613402</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3904.281263833464</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4083469666883689</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>66.99457802160867</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.08949643146370491</v>
       </c>
     </row>
   </sheetData>
@@ -3667,7 +5123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3699,75 +5155,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1499.913644440716</v>
+        <v>-1601.19356611096</v>
       </c>
       <c r="C2" t="n">
-        <v>0.123376018268543</v>
+        <v>0.6026354985657314</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>477.5432987384196</v>
+        <v>314.0006215248711</v>
       </c>
       <c r="C3" t="n">
-        <v>2.746364578811763e-06</v>
+        <v>0.1670080581263413</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05273790993228575</v>
+        <v>514.6381894486672</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5940935381309249</v>
+        <v>2.522595098973291e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2998.428489025941</v>
+        <v>-0.1154589700393961</v>
       </c>
       <c r="C5" t="n">
-        <v>0.428770591272894</v>
+        <v>0.6304489514908878</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>204.9676174354636</v>
+        <v>0.0001926432062364457</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8747666858197719</v>
+        <v>0.4807687708033829</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>250.435917549727</v>
+        <v>3.679404955812434</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0567792882121213</v>
+        <v>0.7942157996050303</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-983.4759962324351</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6931973799300948</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>662.7008960555168</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7289499034296255</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2565.985140534774</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5192985472514711</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>49.89383150506427</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2342178057237172</v>
       </c>
     </row>
   </sheetData>
@@ -3781,7 +5289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3813,75 +5321,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1567.257647184987</v>
+        <v>-1981.855020169241</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1486301784721042</v>
+        <v>0.5987785922059665</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>473.6286538672628</v>
+        <v>327.1290935113268</v>
       </c>
       <c r="C3" t="n">
-        <v>3.993839501054015e-06</v>
+        <v>0.1002657182262168</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0550537767761663</v>
+        <v>531.1577556952891</v>
       </c>
       <c r="C4" t="n">
-        <v>0.578046926731542</v>
+        <v>4.600292216534571e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2002.159470667419</v>
+        <v>-0.1271465733255276</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5775828774019656</v>
+        <v>0.6177705109527749</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>299.1430757219437</v>
+        <v>0.0002162352786250082</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8203849962772189</v>
+        <v>0.4616394750780239</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>281.2598172268313</v>
+        <v>5.94122273263109</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03787618762328628</v>
+        <v>0.72588903096876</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1044.765105778488</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7841332948792836</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1016.941365757593</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6053170507268423</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2511.713413996908</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5043099713257964</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>48.36363564171241</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2513399969473994</v>
       </c>
     </row>
   </sheetData>
@@ -3895,7 +5455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3927,75 +5487,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1460.83798092393</v>
+        <v>-3090.970537020716</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1339494736271515</v>
+        <v>0.2755479948678865</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>357.0951164983296</v>
+        <v>379.4338696008168</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007125804510379435</v>
+        <v>0.06139728396837179</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1479936235671799</v>
+        <v>391.0623858735855</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1853273557809822</v>
+        <v>0.000873549495798791</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3265.658968265103</v>
+        <v>0.05574337751503017</v>
       </c>
       <c r="C5" t="n">
-        <v>0.440920190480838</v>
+        <v>0.7858568730820198</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1433.248822309455</v>
+        <v>-8.289676858978811e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3033924304734475</v>
+        <v>0.695053014585492</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>458.2212411248246</v>
+        <v>14.17410839386976</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006148649448305218</v>
+        <v>0.2968632527323192</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>381.5246049880443</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8691769494820936</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>294.7453113744837</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.860871015313764</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3634.981044424725</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4000995018799103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>66.47294190708331</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.07508415207068653</v>
       </c>
     </row>
   </sheetData>
@@ -4009,7 +5621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4041,75 +5653,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1431.363871384039</v>
+        <v>-568.1816528443997</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2005667995274856</v>
+        <v>0.8735609827906172</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>483.7369446260106</v>
+        <v>302.5608310881072</v>
       </c>
       <c r="C3" t="n">
-        <v>1.966922014812871e-06</v>
+        <v>0.08817685840906896</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.139667623375426</v>
+        <v>499.6716923719222</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4317280872627298</v>
+        <v>1.538053333808311e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>965.5109976706844</v>
+        <v>0.05908118876277699</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8038196350142013</v>
+        <v>0.799835589333423</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1618.302616463999</v>
+        <v>-0.0003149205840923565</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2825798530580017</v>
+        <v>0.3401955283948321</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>291.4535753856994</v>
+        <v>1.772220372655077</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02332626538717071</v>
+        <v>0.9014185643828568</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2439.213652001199</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4091427442521562</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>580.2012677442698</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.734891341008697</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2076.872523860849</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6174764017995357</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>34.62241599160888</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4101664175304266</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +5787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,75 +5819,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2405.350597542383</v>
+        <v>-39.28279162255603</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002922595288576726</v>
+        <v>0.9883077875062954</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>380.2973149891534</v>
+        <v>246.3815264570797</v>
       </c>
       <c r="C3" t="n">
-        <v>1.104491681564876e-05</v>
+        <v>0.08895465045112619</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09692300118714942</v>
+        <v>381.9235119969762</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2499111197176229</v>
+        <v>4.552244283691429e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1788.33562952069</v>
+        <v>-0.01570555548926289</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5197836795942687</v>
+        <v>0.9295098310418842</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1025.592041114641</v>
+        <v>-1.802918466440586e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3166075458362533</v>
+        <v>0.9208809149512904</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>313.1948678437183</v>
+        <v>11.04960355101466</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003767229018687244</v>
+        <v>0.3011796932583352</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-40.32091531416336</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9836070141859654</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>725.9412395157033</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5987915652172547</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-816.2151358931551</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.80072999853975</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>27.92332055574352</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4156630546257563</v>
       </c>
     </row>
   </sheetData>
@@ -4237,7 +5953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4269,75 +5985,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>948.0885096254488</v>
+        <v>-1910.704262805903</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3601124230800636</v>
+        <v>0.5190522306479688</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>494.918581504507</v>
+        <v>347.8840724189787</v>
       </c>
       <c r="C3" t="n">
-        <v>2.295738261328439e-06</v>
+        <v>0.05423697142925647</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06964049597163607</v>
+        <v>511.0871309964368</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5433904648912091</v>
+        <v>2.672685482718666e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3910.391157965183</v>
+        <v>0.05627557698922614</v>
       </c>
       <c r="C5" t="n">
-        <v>0.319714589487498</v>
+        <v>0.8208785294610461</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1048.098178618945</v>
+        <v>-4.767419881480722e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4354848822302583</v>
+        <v>0.8568576242078123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>296.0437339101115</v>
+        <v>1.602787885130489</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02652021497753916</v>
+        <v>0.9043736626675993</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>568.8806457294777</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8195947451516725</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>160.4023623026605</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9352595132648691</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4778.757798974464</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2677370787641277</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>49.79544191791524</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1931834719092573</v>
       </c>
     </row>
   </sheetData>
@@ -4351,7 +6119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4383,75 +6151,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>863.3453221180764</v>
+        <v>-3188.510442482348</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3610505363093758</v>
+        <v>0.2052075661481914</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>584.4387160243911</v>
+        <v>191.8584023889668</v>
       </c>
       <c r="C3" t="n">
-        <v>9.347182618930343e-08</v>
+        <v>0.2159396077342188</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.02647279377995876</v>
+        <v>642.3076610493072</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8010059946256236</v>
+        <v>9.105080054947794e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1521.099068766991</v>
+        <v>0.3713137459197385</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6406865208881556</v>
+        <v>0.0848360434462679</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1704.961573406558</v>
+        <v>-0.0003839618131931137</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2356882984556882</v>
+        <v>0.1022998766376806</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.0105009107518</v>
+        <v>6.932427767123343</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06195622746498355</v>
+        <v>0.5387873872043376</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2202.482445712221</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3234384611978488</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-137.5247182559779</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9330048530703723</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3745.06174352141</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.267930354465152</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>60.56831976283742</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.06165425466885306</v>
       </c>
     </row>
   </sheetData>
@@ -4465,7 +6285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4497,75 +6317,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1448.297257396999</v>
+        <v>-447.4674338783957</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0224324976954014</v>
+        <v>0.8223410214904121</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>521.3715132547572</v>
+        <v>196.9691667290489</v>
       </c>
       <c r="C3" t="n">
-        <v>1.387061735473329e-09</v>
+        <v>0.07544222193776293</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03337810855017025</v>
+        <v>539.0023787412305</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6298058675481999</v>
+        <v>4.222288179294612e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>456.0888280155996</v>
+        <v>-0.08146218830891847</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8417674962684548</v>
+        <v>0.5925951500064608</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>974.6916606418738</v>
+        <v>0.0001381395760784406</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3290208124170544</v>
+        <v>0.42523319174055</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>238.6903852469143</v>
+        <v>7.459956876373248</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006486398253090606</v>
+        <v>0.3696808313298943</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1192.975927863182</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4819784576994594</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1416.876847431702</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.255917339662364</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>167.6820286385901</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.944421031679607</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>26.09244217195685</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2912174107447273</v>
       </c>
     </row>
   </sheetData>
@@ -4579,7 +6451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4611,75 +6483,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1591.010314595396</v>
+        <v>-2558.07377402798</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1314221914863181</v>
+        <v>0.432963405270992</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>458.5547414365849</v>
+        <v>262.4040421473475</v>
       </c>
       <c r="C3" t="n">
-        <v>1.541850775033755e-05</v>
+        <v>0.1596006647786792</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09095291250091664</v>
+        <v>484.1139075563663</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5788710405323383</v>
+        <v>6.725510978026473e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1264.260935228132</v>
+        <v>0.1108326675513475</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7428346050761372</v>
+        <v>0.6581508115219661</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>922.1006070009407</v>
+        <v>-3.823750022712165e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5301812668417619</v>
+        <v>0.8939969802490002</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>311.8947966608534</v>
+        <v>13.62355474534303</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03606787578623948</v>
+        <v>0.3452910558015978</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-54.59232212089591</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9835965261505217</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-16.12457523792045</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9926558853013858</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2146.160012142071</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6050626779186387</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>54.26971041993517</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1791522098253706</v>
       </c>
     </row>
   </sheetData>
@@ -4693,7 +6617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4725,75 +6649,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2006.565348138477</v>
+        <v>-3736.817684683854</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08302849029951925</v>
+        <v>0.2996345593478092</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>468.5985203593756</v>
+        <v>300.3891781778482</v>
       </c>
       <c r="C3" t="n">
-        <v>9.632722772378845e-06</v>
+        <v>0.1181021953288963</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05831469810252753</v>
+        <v>534.0663763052204</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5833652063052304</v>
+        <v>8.13131235349152e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>115.3385231248731</v>
+        <v>0.2469911520546597</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9762316484827869</v>
+        <v>0.2980624765856943</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.0271174318</v>
+        <v>-0.0002652086810374654</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6784575515212532</v>
+        <v>0.3350451920110992</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>253.2164001385497</v>
+        <v>13.40305533607528</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08468969794829095</v>
+        <v>0.4101988929775719</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5117.261784566948</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2709196112116106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-950.1751456133861</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6056554613163754</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1329.194160855751</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7393441308943931</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>71.61503717228251</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.07726973391447327</v>
       </c>
     </row>
   </sheetData>
@@ -4807,7 +6783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4839,75 +6815,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2095.176344314988</v>
+        <v>-2565.801241406332</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04420246803043022</v>
+        <v>0.3965104856505026</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>389.9263242239981</v>
+        <v>270.4931121320731</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001217284949673653</v>
+        <v>0.2536598184026215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1738404568954923</v>
+        <v>431.0211668673578</v>
       </c>
       <c r="C4" t="n">
-        <v>0.146247200891378</v>
+        <v>0.0001512781351721035</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65.06022535817283</v>
+        <v>0.04948641114106223</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9860908648735333</v>
+        <v>0.8316497363003987</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2039.778022419972</v>
+        <v>-0.0001132112885923782</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1769416219109232</v>
+        <v>0.6245112828179074</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>322.7579397974225</v>
+        <v>11.32591108311689</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02213072096341891</v>
+        <v>0.4740343588063786</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>618.0724238187331</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7951244243263462</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>653.626537923516</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7436655449473237</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1042.381921327564</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7891057653447912</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>71.81989855094341</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.07394607475597625</v>
       </c>
     </row>
   </sheetData>
@@ -4921,7 +6949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4953,75 +6981,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>597.6389327605941</v>
+        <v>-3149.175031870312</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5661992654547218</v>
+        <v>0.3190391499014637</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>482.0358594375765</v>
+        <v>464.2940251811415</v>
       </c>
       <c r="C3" t="n">
-        <v>3.88896805956668e-06</v>
+        <v>0.01292850368266337</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03802362176940341</v>
+        <v>500.9626635187666</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7035157327460426</v>
+        <v>1.480845264925225e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3602.54466641549</v>
+        <v>0.2112096805758267</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3608505373893498</v>
+        <v>0.2984184360560401</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>965.5086561326366</v>
+        <v>-0.0002553145128350143</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4292900041746855</v>
+        <v>0.2611091720867272</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.4360113024773</v>
+        <v>1.99430362533721</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004744910990269089</v>
+        <v>0.8782143804641581</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2874.31365465664</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2581865786384338</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-336.7043854761453</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.829200138962797</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6787.662142478426</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1373615929579889</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>54.22897656783687</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2028738287510248</v>
       </c>
     </row>
   </sheetData>
@@ -5035,7 +7115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5067,75 +7147,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2176.487266560496</v>
+        <v>-1940.967100594484</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04089848072441597</v>
+        <v>0.5061612509130347</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>401.2888678988716</v>
+        <v>280.2484182567083</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001577958015205151</v>
+        <v>0.1233121196581201</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0835316061487815</v>
+        <v>418.0258477734839</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4403236559012346</v>
+        <v>0.000558366416383347</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-771.4703087051766</v>
+        <v>0.1564192494846776</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8353234871156157</v>
+        <v>0.466055714675437</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.9290783488423</v>
+        <v>-0.0001808094846023768</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6629912010538835</v>
+        <v>0.446525716497983</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>342.0413590626603</v>
+        <v>15.43000486920702</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01857812592031461</v>
+        <v>0.2626458123515133</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1202.386812681048</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6433829195195272</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-547.3216959061856</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7585774010616821</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>202.9461724022422</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.958228971484736</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>52.02387515243831</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1485979700631896</v>
       </c>
     </row>
   </sheetData>
@@ -5149,7 +7281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5181,75 +7313,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1777.183800241304</v>
+        <v>-3129.443792900893</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1222684614455936</v>
+        <v>0.443525597950731</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>470.0208525147991</v>
+        <v>285.9891010173465</v>
       </c>
       <c r="C3" t="n">
-        <v>1.302644939297991e-05</v>
+        <v>0.1366761919969351</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06431609293225715</v>
+        <v>528.5638657257609</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5715744289633262</v>
+        <v>3.196306176483092e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-117.8087693038808</v>
+        <v>0.1535376473944917</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9755755621032178</v>
+        <v>0.5536910519251228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>970.6495062882418</v>
+        <v>-0.0001241355743203948</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4744751603677412</v>
+        <v>0.6503394161317709</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>275.9713667658528</v>
+        <v>11.2442136790298</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04894234456615169</v>
+        <v>0.4807734072222352</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1582.606282715888</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6862531356096384</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-47.57412963730803</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9796716910614665</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2079.842056533378</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6352601759948641</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>62.12592905127427</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1647470509007152</v>
       </c>
     </row>
   </sheetData>
@@ -5263,7 +7447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5295,75 +7479,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1325.36354301398</v>
+        <v>-689.1325379366808</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1258879674440475</v>
+        <v>0.7897950895204336</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>435.7977393645446</v>
+        <v>326.4909805938568</v>
       </c>
       <c r="C3" t="n">
-        <v>2.134425560838362e-07</v>
+        <v>0.0251882062590118</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0007248730112526247</v>
+        <v>452.2505904996353</v>
       </c>
       <c r="C4" t="n">
-        <v>0.995224448718018</v>
+        <v>3.310595897053478e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>337.8258019721106</v>
+        <v>0.09862430821545753</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9144389026809602</v>
+        <v>0.6026462082370541</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>998.237361061264</v>
+        <v>-1.864386186540743e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3939758865250611</v>
+        <v>0.9304398490490534</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>354.3511125458417</v>
+        <v>7.118166447877808</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001206335236492845</v>
+        <v>0.5173786769805906</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>249.3395981525725</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9043911751321865</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>440.1398402225859</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7647035807245131</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>270.2474545769765</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9386931920889616</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>26.61023683747675</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4255193996763874</v>
       </c>
     </row>
   </sheetData>
@@ -5377,7 +7613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5409,75 +7645,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1029.932821889206</v>
+        <v>-2640.565002964531</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2294258702971975</v>
+        <v>0.3494942429443959</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>578.5750035663972</v>
+        <v>241.5045309771211</v>
       </c>
       <c r="C3" t="n">
-        <v>8.312397120189833e-08</v>
+        <v>0.2129483476060231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03037403123376356</v>
+        <v>609.5294112541667</v>
       </c>
       <c r="C4" t="n">
-        <v>0.748172812621425</v>
+        <v>4.244614734372228e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1663.192058753379</v>
+        <v>0.171726543884772</v>
       </c>
       <c r="C5" t="n">
-        <v>0.610163728335688</v>
+        <v>0.3904591669083795</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1058.565797103117</v>
+        <v>-0.0001545609426731285</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4282066710376753</v>
+        <v>0.4765668561856965</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>242.6278484825239</v>
+        <v>5.536545101199888</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04969358904613942</v>
+        <v>0.6664002098354906</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>990.0323716412586</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6780151237980026</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>128.3635618737153</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9367850802692135</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2555.958753298547</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4604047902170343</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>60.86978483207332</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1452638387260973</v>
       </c>
     </row>
   </sheetData>
@@ -5491,7 +7779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5523,75 +7811,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1780.251067973491</v>
+        <v>-2450.068492471219</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08761558741551498</v>
+        <v>0.3980063891341262</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>422.1243812555658</v>
+        <v>252.8389831058812</v>
       </c>
       <c r="C3" t="n">
-        <v>5.623871082550575e-05</v>
+        <v>0.1604988881962707</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06672918261701495</v>
+        <v>441.1661211094487</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5980574654909203</v>
+        <v>0.0002236296645489116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1437.517069916298</v>
+        <v>0.08648385790326352</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6786158828930471</v>
+        <v>0.6967334855670371</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>722.7655219575959</v>
+        <v>-7.683175006670956e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5947321090742086</v>
+        <v>0.7652943776401719</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>295.8113012585528</v>
+        <v>14.33723680297639</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02891795152647609</v>
+        <v>0.3277172190148666</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>769.5131416942204</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.791577912989669</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>206.7948451424663</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9006453016922858</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2570.526271151752</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4969096382442147</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>53.56698693529796</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1478690700995271</v>
       </c>
     </row>
   </sheetData>
@@ -5605,7 +7945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5637,75 +7977,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1456.026371805453</v>
+        <v>-3610.160606885813</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1475587133342055</v>
+        <v>0.2068510110571847</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>440.7928656013612</v>
+        <v>259.4762690411014</v>
       </c>
       <c r="C3" t="n">
-        <v>2.15148245933303e-05</v>
+        <v>0.1359162407227432</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1143860629341676</v>
+        <v>446.1499080931314</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2741791777331917</v>
+        <v>7.304231189690713e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3209.573121885624</v>
+        <v>0.003776337019517184</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3903177319296796</v>
+        <v>0.9855957758828091</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1170.106657663914</v>
+        <v>5.756673014581189e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3649297041131816</v>
+        <v>0.9813172366755686</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>306.7275872452353</v>
+        <v>13.50354772163642</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03141076720374934</v>
+        <v>0.3162943379740771</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-27.38018401032377</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9905984133049817</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>650.0773407194156</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6983461975518281</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4178.451047272024</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2772658209658088</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>77.73093680663672</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.03839851173648532</v>
       </c>
     </row>
   </sheetData>
@@ -5719,7 +8111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5751,75 +8143,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1826.269634203486</v>
+        <v>-2372.022581489346</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03836784486698702</v>
+        <v>0.4519701352991189</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>435.1976661260045</v>
+        <v>330.0621310439303</v>
       </c>
       <c r="C3" t="n">
-        <v>1.171571583401333e-06</v>
+        <v>0.07804482360893353</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05917846215662326</v>
+        <v>476.7242690797038</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5374851463797498</v>
+        <v>7.070022886039418e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1242.956283517469</v>
+        <v>0.07900766440924861</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6767050376795194</v>
+        <v>0.6738021217573733</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>860.9461175673719</v>
+        <v>-2.984700195436663e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4245209869305034</v>
+        <v>0.8871728391172737</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>347.3027028625634</v>
+        <v>14.04278667235854</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006584120607595599</v>
+        <v>0.3654334571396458</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>803.9652645372025</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7483078563279806</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>408.4216745936455</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7767745011770036</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-235.3622825722741</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9422926494665744</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>49.21663187451074</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1918866022752406</v>
       </c>
     </row>
   </sheetData>
@@ -5833,7 +8277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5865,75 +8309,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1789.284133798462</v>
+        <v>485.8378599684261</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06146065687889164</v>
+        <v>0.8700236902337761</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>476.6077984397691</v>
+        <v>187.415238540353</v>
       </c>
       <c r="C3" t="n">
-        <v>1.682397056099143e-06</v>
+        <v>0.2691945651792005</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06370353889707245</v>
+        <v>492.7682805628389</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5675358756723639</v>
+        <v>1.254945476946247e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2142.705190395976</v>
+        <v>-0.1952716384269378</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5593606037105481</v>
+        <v>0.4409093169750318</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>147.9318977061689</v>
+        <v>0.0002528738547063904</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9241675473252569</v>
+        <v>0.3415522058015568</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>224.4766227883296</v>
+        <v>3.465931737197209</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08360809784437527</v>
+        <v>0.784504098932103</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2207.677777245418</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3891547586946942</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>738.4071299748111</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7072554916313415</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1213.670742777137</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7542949947542119</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>26.32747195643717</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4699495544306016</v>
       </c>
     </row>
   </sheetData>
@@ -5947,7 +8443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5979,75 +8475,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1265.491031930064</v>
+        <v>-3435.019451551326</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1815173414255524</v>
+        <v>0.2229354251965628</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>520.1733642542786</v>
+        <v>200.5470154766204</v>
       </c>
       <c r="C3" t="n">
-        <v>3.568034778100543e-06</v>
+        <v>0.1930870951361594</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05954707912767687</v>
+        <v>501.9414633586755</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6128638040151146</v>
+        <v>1.298443039076089e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>804.3259268288516</v>
+        <v>0.2138398918421932</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8141559290297242</v>
+        <v>0.2576596440734145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1486.499383636455</v>
+        <v>-0.0002833686968781681</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2362098200462069</v>
+        <v>0.232543799408723</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>273.8083988972878</v>
+        <v>15.59594525579277</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02508976950240157</v>
+        <v>0.1816857761852149</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2001.840610398389</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3643849361863258</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>171.5537142172634</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.903536212528214</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3024.900965438201</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3957201678189648</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>65.15519397194537</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.08790144465042181</v>
       </c>
     </row>
   </sheetData>
@@ -6061,7 +8609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6093,75 +8641,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>983.1160651758478</v>
+        <v>-2449.23012512509</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3581347369315246</v>
+        <v>0.3917439376849475</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>467.3012598772439</v>
+        <v>364.0050259606427</v>
       </c>
       <c r="C3" t="n">
-        <v>2.655573490214377e-05</v>
+        <v>0.04974411211804244</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0446206146831425</v>
+        <v>521.4097867681094</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6729921040728902</v>
+        <v>0.0001314711875401589</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3816.725939036511</v>
+        <v>0.2086171248457558</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3339155193061656</v>
+        <v>0.3247305291779559</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>712.0812773373946</v>
+        <v>-0.0002293256094333246</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5862751957801235</v>
+        <v>0.3092828233054647</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>334.9965336576677</v>
+        <v>1.500685143998126</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01938349806949894</v>
+        <v>0.9147492060519327</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2354.546254628363</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3752833861119838</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-681.8227465517675</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6962663485936679</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5616.966237816979</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.194565603841456</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>54.18660306519961</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1390342520417314</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Dijon.xlsx
+++ b/outputs/ML_Results/dist_LR/Dijon.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ45477113" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ45702297" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ45920552" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ46138869" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ46358412" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ46577865" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ46793014" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ47007044" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ47224951" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ47442081" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ47654570" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ47873366" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ48093870" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ48314151" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ48534685" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ48757227" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ48981699" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ49198720" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ49420403" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ49638817" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ49853839" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ50074710" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ50297175" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ50516707" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ50726431" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ50945455" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ51162562" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ51382226" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ51600249" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ51811716" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ52029259" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ52244282" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ52453724" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ52682814" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ52938167" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ53171711" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ53536103" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ53794262" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ54010216" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ54225866" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ54442745" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ54654695" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ54875014" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ55093996" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ55319129" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ55544198" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ55767465" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ55989028" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ56198349" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ56422545" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ25786848" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ26003636" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ26229669" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ26447329" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ26665711" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ26882689" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ27098642" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ27319193" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ27535784" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ27751871" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ27971961" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ28181020" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ28401910" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ28615630" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ28833143" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ29055392" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ29276923" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ29498297" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ29732609" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ29951029" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ30171500" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ30408355" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ30631148" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ30854168" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ31083620" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ31306400" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ31524432" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ31744488" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ31968240" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ32179000" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ32399538" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ32618907" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ32836837" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ33055991" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ33277677" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ33501692" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ33837973" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ34076866" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ34291134" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ34507660" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ34727082" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ34947591" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ35177316" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ35397368" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ35618192" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ35833711" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ36055584" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ36274293" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ36487121" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ36705439" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-706.4977190494101</v>
+        <v>-706.4977192613032</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7807055422168445</v>
+        <v>0.7807055421530056</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>234.9630270281012</v>
+        <v>234.9630270357952</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1178556390523609</v>
+        <v>0.1178556390523697</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>442.226082509194</v>
+        <v>442.22608251815</v>
       </c>
       <c r="C4" t="n">
-        <v>6.180304590605736e-06</v>
+        <v>6.180304587781485e-06</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04504535145451716</v>
+        <v>4.504535146368767</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7912674003471335</v>
+        <v>0.7912674003050991</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.557203635817418e-05</v>
+        <v>-85.57203635097144</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6532739750911986</v>
+        <v>0.6532739751129404</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.40698964905697</v>
+        <v>11.40698964905691</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2894073652957154</v>
+        <v>0.289407365295717</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>213.1057740278106</v>
+        <v>2.131057740278152</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9173394173469636</v>
+        <v>0.9173394173469617</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>550.0794686370409</v>
+        <v>5.500794686370405</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6836045105177208</v>
+        <v>0.6836045105177211</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2062.109083666791</v>
+        <v>-20.62109083666803</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5636652845538792</v>
+        <v>0.5636652845538781</v>
       </c>
     </row>
     <row r="11">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>40.09128785767265</v>
+        <v>40.0912878576728</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2081705430296484</v>
+        <v>0.2081705430296464</v>
       </c>
     </row>
   </sheetData>
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2553.759993514208</v>
+        <v>-2553.759993480047</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4264517683205932</v>
+        <v>0.4264517683267371</v>
       </c>
     </row>
     <row r="3">
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>269.5507460843531</v>
+        <v>269.5507460878711</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1450326485844933</v>
+        <v>0.1450326485845354</v>
       </c>
     </row>
     <row r="4">
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>486.5900541774186</v>
+        <v>486.5900541834106</v>
       </c>
       <c r="C4" t="n">
-        <v>2.430522475486378e-05</v>
+        <v>2.430522474881587e-05</v>
       </c>
     </row>
     <row r="5">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05573563745514787</v>
+        <v>5.573563745047551</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8052999620746298</v>
+        <v>0.8052999620910021</v>
       </c>
     </row>
     <row r="6">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.197971526405898e-05</v>
+        <v>-51.97971523985677</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8363575412666753</v>
+        <v>0.8363575413448763</v>
       </c>
     </row>
     <row r="7">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.16487714670397</v>
+        <v>11.16487714670379</v>
       </c>
       <c r="C7" t="n">
-        <v>0.427390385012122</v>
+        <v>0.4273903850121263</v>
       </c>
     </row>
     <row r="8">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-111.9602496322168</v>
+        <v>-1.119602496321505</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9723034733607794</v>
+        <v>0.9723034733607958</v>
       </c>
     </row>
     <row r="9">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>702.4804589406085</v>
+        <v>7.024804589405797</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7016702980562735</v>
+        <v>0.7016702980562858</v>
       </c>
     </row>
     <row r="10">
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1751.513956708906</v>
+        <v>17.51513956708939</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6642762751070592</v>
+        <v>0.6642762751070548</v>
       </c>
     </row>
     <row r="11">
@@ -793,7 +793,7 @@
         <v>61.13155440923659</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1313551609865513</v>
+        <v>0.1313551609865516</v>
       </c>
     </row>
   </sheetData>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-218.6534545991308</v>
+        <v>-218.6534546655421</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9303764343330276</v>
+        <v>0.9303764343120844</v>
       </c>
     </row>
     <row r="3">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>295.6548192507761</v>
+        <v>295.6548192471822</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1048571683805495</v>
+        <v>0.1048571683805306</v>
       </c>
     </row>
     <row r="4">
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.7495603561364</v>
+        <v>461.7495603616048</v>
       </c>
       <c r="C4" t="n">
-        <v>3.730292737345913e-06</v>
+        <v>3.730292736590563e-06</v>
       </c>
     </row>
     <row r="5">
@@ -878,10 +878,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0743655263078471</v>
+        <v>7.436552631825286</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6709294940000157</v>
+        <v>0.6709294939558295</v>
       </c>
     </row>
     <row r="6">
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001016699516607358</v>
+        <v>-101.6699516714561</v>
       </c>
       <c r="C6" t="n">
-        <v>0.623746305161162</v>
+        <v>0.6237463051285899</v>
       </c>
     </row>
     <row r="7">
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.358543877930018</v>
+        <v>6.358543877929851</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6303153221768066</v>
+        <v>0.6303153221768152</v>
       </c>
     </row>
     <row r="8">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>701.0386062856342</v>
+        <v>7.010386062856284</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7423726740039255</v>
+        <v>0.7423726740039267</v>
       </c>
     </row>
     <row r="9">
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>386.2892118477998</v>
+        <v>3.862892118477966</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7805076270545636</v>
+        <v>0.780507627054565</v>
       </c>
     </row>
     <row r="10">
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>913.9375026355629</v>
+        <v>9.139375026355879</v>
       </c>
       <c r="C10" t="n">
-        <v>0.787025896744355</v>
+        <v>0.7870258967443493</v>
       </c>
     </row>
     <row r="11">
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21.16611801451057</v>
+        <v>21.16611801451069</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5462762709432619</v>
+        <v>0.5462762709432593</v>
       </c>
     </row>
   </sheetData>
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1504.68257595045</v>
+        <v>-1504.682576206476</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5902337305751414</v>
+        <v>0.590233730514068</v>
       </c>
     </row>
     <row r="3">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>300.8145518286528</v>
+        <v>300.8145518071549</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08114892244204949</v>
+        <v>0.08114892244209562</v>
       </c>
     </row>
     <row r="4">
@@ -1031,10 +1031,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415.7426577943842</v>
+        <v>415.7426578503463</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002084938485445819</v>
+        <v>0.0002084938480889692</v>
       </c>
     </row>
     <row r="5">
@@ -1044,10 +1044,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01742285372997987</v>
+        <v>-1.742285370693679</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9308728112115495</v>
+        <v>0.9308728113019971</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.831088233368417e-05</v>
+        <v>48.31088234231356</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8315823369065438</v>
+        <v>0.8315823368793442</v>
       </c>
     </row>
     <row r="7">
@@ -1070,10 +1070,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.031365116057575</v>
+        <v>9.031365116057586</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4658161882989794</v>
+        <v>0.4658161882989755</v>
       </c>
     </row>
     <row r="8">
@@ -1083,10 +1083,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1203.891432376051</v>
+        <v>-12.03891432376037</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6088568362833946</v>
+        <v>0.608856836283403</v>
       </c>
     </row>
     <row r="9">
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-456.0645644450087</v>
+        <v>-4.560645644450219</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7706874879018144</v>
+        <v>0.7706874879018082</v>
       </c>
     </row>
     <row r="10">
@@ -1109,10 +1109,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6060.124360958456</v>
+        <v>60.60124360958488</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1134593670431674</v>
+        <v>0.1134593670431661</v>
       </c>
     </row>
     <row r="11">
@@ -1122,10 +1122,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.80656499375044</v>
+        <v>42.80656499375061</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2246342137283875</v>
+        <v>0.2246342137283864</v>
       </c>
     </row>
   </sheetData>
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2875.772079446339</v>
+        <v>-2875.772079524087</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4794947725339771</v>
+        <v>0.4794947725218441</v>
       </c>
     </row>
     <row r="3">
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>259.7705848332204</v>
+        <v>259.7705847922369</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1643298351394049</v>
+        <v>0.1643298351395233</v>
       </c>
     </row>
     <row r="4">
@@ -1197,10 +1197,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.8889551591711</v>
+        <v>507.8889551621867</v>
       </c>
       <c r="C4" t="n">
-        <v>5.039862643592568e-05</v>
+        <v>5.039862642889357e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1210,10 +1210,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09736838169558065</v>
+        <v>9.736838169451609</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7412990938855366</v>
+        <v>0.7412990938884712</v>
       </c>
     </row>
     <row r="6">
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.323593441480971e-05</v>
+        <v>-83.23593439338345</v>
       </c>
       <c r="C6" t="n">
-        <v>0.772628943423217</v>
+        <v>0.7726289434804002</v>
       </c>
     </row>
     <row r="7">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.88667588914711</v>
+        <v>11.88667588914696</v>
       </c>
       <c r="C7" t="n">
-        <v>0.482843193962352</v>
+        <v>0.4828431939623586</v>
       </c>
     </row>
     <row r="8">
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1406.369234328818</v>
+        <v>14.06369234328821</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6614314184067511</v>
+        <v>0.6614314184067522</v>
       </c>
     </row>
     <row r="9">
@@ -1262,10 +1262,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>100.1757667345933</v>
+        <v>1.001757667345743</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9627262060350773</v>
+        <v>0.9627262060350846</v>
       </c>
     </row>
     <row r="10">
@@ -1275,10 +1275,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2155.405792694614</v>
+        <v>21.55405792694587</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6161055088744632</v>
+        <v>0.6161055088744674</v>
       </c>
     </row>
     <row r="11">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>62.70173686842878</v>
+        <v>62.70173686842855</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1666819353715011</v>
+        <v>0.1666819353715034</v>
       </c>
     </row>
   </sheetData>
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2923.957563606768</v>
+        <v>-2923.957563303007</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2938968404353527</v>
+        <v>0.2938968404833681</v>
       </c>
     </row>
     <row r="3">
@@ -1350,10 +1350,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>218.3148426625601</v>
+        <v>218.3148426400609</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1496842995044221</v>
+        <v>0.1496842995043444</v>
       </c>
     </row>
     <row r="4">
@@ -1363,10 +1363,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>576.1942961499627</v>
+        <v>576.1942961472812</v>
       </c>
       <c r="C4" t="n">
-        <v>1.925913445939517e-06</v>
+        <v>1.92591344608173e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1376,10 +1376,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2564173489204887</v>
+        <v>25.64173489080511</v>
       </c>
       <c r="C5" t="n">
-        <v>0.191104256754314</v>
+        <v>0.1911042567771101</v>
       </c>
     </row>
     <row r="6">
@@ -1389,10 +1389,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0002665587895347971</v>
+        <v>-266.5587895347774</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2069067703793158</v>
+        <v>0.2069067703822731</v>
       </c>
     </row>
     <row r="7">
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.63847347087952</v>
+        <v>10.6384734708794</v>
       </c>
       <c r="C7" t="n">
-        <v>0.367850575443903</v>
+        <v>0.367850575443909</v>
       </c>
     </row>
     <row r="8">
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1772.307366175555</v>
+        <v>17.72307366175544</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4791400617762126</v>
+        <v>0.4791400617762147</v>
       </c>
     </row>
     <row r="9">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24.56084559342889</v>
+        <v>0.245608455934331</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9866305088550466</v>
+        <v>0.9866305088550442</v>
       </c>
     </row>
     <row r="10">
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1206.840807480097</v>
+        <v>12.06840807480059</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7437217085389629</v>
+        <v>0.7437217085389706</v>
       </c>
     </row>
     <row r="11">
@@ -1454,10 +1454,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>59.64060260622233</v>
+        <v>59.64060260622227</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1146019067470718</v>
+        <v>0.1146019067470723</v>
       </c>
     </row>
   </sheetData>
@@ -1503,10 +1503,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3125.131086008318</v>
+        <v>-3125.131086161555</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3391707725315445</v>
+        <v>0.3391707725093526</v>
       </c>
     </row>
     <row r="3">
@@ -1516,10 +1516,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>242.9585716364537</v>
+        <v>242.9585716469233</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2038215091429269</v>
+        <v>0.2038215091428375</v>
       </c>
     </row>
     <row r="4">
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>495.0751683450371</v>
+        <v>495.0751683459019</v>
       </c>
       <c r="C4" t="n">
-        <v>2.413759684279157e-05</v>
+        <v>2.41375968421826e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1542,10 +1542,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08020879975406092</v>
+        <v>8.020879975056886</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7669664126959705</v>
+        <v>0.76696641270591</v>
       </c>
     </row>
     <row r="6">
@@ -1555,10 +1555,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.706449243865567e-05</v>
+        <v>-37.06449246069064</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8945172445867713</v>
+        <v>0.8945172445242632</v>
       </c>
     </row>
     <row r="7">
@@ -1568,10 +1568,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.39691446142974</v>
+        <v>14.3969144614297</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3082858325724477</v>
+        <v>0.3082858325724399</v>
       </c>
     </row>
     <row r="8">
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>142.1102455408745</v>
+        <v>1.421102455408288</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9593580495917453</v>
+        <v>0.9593580495917583</v>
       </c>
     </row>
     <row r="9">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>708.1378080909853</v>
+        <v>7.081378080910149</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7739914286717052</v>
+        <v>0.7739914286716965</v>
       </c>
     </row>
     <row r="10">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>742.6152179764213</v>
+        <v>7.426152179764017</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8543639041011365</v>
+        <v>0.8543639041011399</v>
       </c>
     </row>
     <row r="11">
@@ -1620,10 +1620,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68.69185577156686</v>
+        <v>68.69185577156679</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0949393421833204</v>
+        <v>0.09493934218332079</v>
       </c>
     </row>
   </sheetData>
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2517.793354583962</v>
+        <v>-2517.793354823806</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3702919288676357</v>
+        <v>0.370291928823665</v>
       </c>
     </row>
     <row r="3">
@@ -1682,10 +1682,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>205.9157110443339</v>
+        <v>205.9157110399804</v>
       </c>
       <c r="C3" t="n">
-        <v>0.195039412503683</v>
+        <v>0.1950394125038677</v>
       </c>
     </row>
     <row r="4">
@@ -1695,10 +1695,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>599.9974665659997</v>
+        <v>599.997466565934</v>
       </c>
       <c r="C4" t="n">
-        <v>5.39296272475875e-07</v>
+        <v>5.392962724763395e-07</v>
       </c>
     </row>
     <row r="5">
@@ -1708,10 +1708,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1583850635134504</v>
+        <v>15.83850635185999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4261000926141639</v>
+        <v>0.4261000925984136</v>
       </c>
     </row>
     <row r="6">
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001643721645679393</v>
+        <v>-164.3721645558809</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4363322535323856</v>
+        <v>0.4363322535843019</v>
       </c>
     </row>
     <row r="7">
@@ -1734,10 +1734,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.15356765484598</v>
+        <v>10.15356765484643</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3859550558615954</v>
+        <v>0.3859550558615719</v>
       </c>
     </row>
     <row r="8">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>982.6418654984554</v>
+        <v>9.826418654984451</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6793662762313482</v>
+        <v>0.6793662762313517</v>
       </c>
     </row>
     <row r="9">
@@ -1760,10 +1760,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1003.917173527703</v>
+        <v>10.03917173527704</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5290525459901755</v>
+        <v>0.5290525459901751</v>
       </c>
     </row>
     <row r="10">
@@ -1773,10 +1773,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1427.985962804643</v>
+        <v>14.27985962804628</v>
       </c>
       <c r="C10" t="n">
-        <v>0.673875898571261</v>
+        <v>0.6738758985712641</v>
       </c>
     </row>
     <row r="11">
@@ -1786,10 +1786,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>52.00111171250607</v>
+        <v>52.00111171250617</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1716628190827059</v>
+        <v>0.1716628190827057</v>
       </c>
     </row>
   </sheetData>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2750.420215951055</v>
+        <v>-2750.42021594222</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4394973114409398</v>
+        <v>0.4394973114423142</v>
       </c>
     </row>
     <row r="3">
@@ -1848,10 +1848,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>348.6399614163173</v>
+        <v>348.6399613894869</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1210172728786847</v>
+        <v>0.1210172728786948</v>
       </c>
     </row>
     <row r="4">
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>501.9656767532699</v>
+        <v>501.965676754593</v>
       </c>
       <c r="C4" t="n">
-        <v>2.977808061324265e-05</v>
+        <v>2.977808061196625e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1874,10 +1874,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1020725142509618</v>
+        <v>10.20725142571658</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6835613079515322</v>
+        <v>0.6835613079329175</v>
       </c>
     </row>
     <row r="6">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.067627773869222e-05</v>
+        <v>-50.67627777775942</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8553920427796735</v>
+        <v>0.8553920426734615</v>
       </c>
     </row>
     <row r="7">
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.506462136364593</v>
+        <v>6.506462136364387</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6817679247397961</v>
+        <v>0.6817679247398047</v>
       </c>
     </row>
     <row r="8">
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1216.924607229474</v>
+        <v>12.16924607229448</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6935250038685168</v>
+        <v>0.693525003868523</v>
       </c>
     </row>
     <row r="9">
@@ -1926,10 +1926,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>74.08824225431022</v>
+        <v>0.7408824225432831</v>
       </c>
       <c r="C9" t="n">
-        <v>0.970561828957027</v>
+        <v>0.9705618289570199</v>
       </c>
     </row>
     <row r="10">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2142.293326898525</v>
+        <v>21.42293326898519</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6169730267876106</v>
+        <v>0.6169730267876115</v>
       </c>
     </row>
     <row r="11">
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>64.62155315369347</v>
+        <v>64.62155315369327</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1538914432373104</v>
+        <v>0.1538914432373112</v>
       </c>
     </row>
   </sheetData>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2063.13427377795</v>
+        <v>-2063.134273847108</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4473322753573196</v>
+        <v>0.4473322753421768</v>
       </c>
     </row>
     <row r="3">
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>148.3188640777704</v>
+        <v>148.3188640658288</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3620470303972473</v>
+        <v>0.3620470303972495</v>
       </c>
     </row>
     <row r="4">
@@ -2027,10 +2027,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>396.0965150168467</v>
+        <v>396.0965150383274</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002355429565355947</v>
+        <v>0.0002355429563146496</v>
       </c>
     </row>
     <row r="5">
@@ -2040,10 +2040,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03137154078846782</v>
+        <v>3.137154078991159</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8824434199865797</v>
+        <v>0.8824434199810491</v>
       </c>
     </row>
     <row r="6">
@@ -2053,10 +2053,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.93012415771279e-05</v>
+        <v>29.30124162136013</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8954037455920342</v>
+        <v>0.8954037454373206</v>
       </c>
     </row>
     <row r="7">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.00162173753169</v>
+        <v>17.00162173753178</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1588731127489575</v>
+        <v>0.1588731127489551</v>
       </c>
     </row>
     <row r="8">
@@ -2079,10 +2079,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-811.5474939299138</v>
+        <v>-8.115474939299069</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7131093896519354</v>
+        <v>0.7131093896519379</v>
       </c>
     </row>
     <row r="9">
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-567.5167705547383</v>
+        <v>-5.675167705547448</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7253382171308649</v>
+        <v>0.7253382171308624</v>
       </c>
     </row>
     <row r="10">
@@ -2105,10 +2105,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3395.11847718631</v>
+        <v>33.9511847718631</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3338074156065538</v>
+        <v>0.3338074156065541</v>
       </c>
     </row>
     <row r="11">
@@ -2118,10 +2118,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>53.96513778159444</v>
+        <v>53.96513778159429</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1066976970217674</v>
+        <v>0.1066976970217687</v>
       </c>
     </row>
   </sheetData>
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3405.793438698427</v>
+        <v>-3405.793438625657</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2914142090537919</v>
+        <v>0.2914142090635328</v>
       </c>
     </row>
     <row r="3">
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>333.2427940564187</v>
+        <v>333.2427940953382</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06100126123389561</v>
+        <v>0.06100126123389091</v>
       </c>
     </row>
     <row r="4">
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>447.9777950514158</v>
+        <v>447.9777950179239</v>
       </c>
       <c r="C4" t="n">
-        <v>8.891846486705738e-05</v>
+        <v>8.89184649732793e-05</v>
       </c>
     </row>
     <row r="5">
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1438562355435606</v>
+        <v>14.38562355492977</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5247593219490737</v>
+        <v>0.5247593219320733</v>
       </c>
     </row>
     <row r="6">
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001476368582934947</v>
+        <v>-147.6368583477333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5693736488167995</v>
+        <v>0.5693736486695447</v>
       </c>
     </row>
     <row r="7">
@@ -2232,10 +2232,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.0027053194736</v>
+        <v>15.00270531947331</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3360638303803316</v>
+        <v>0.3360638303803396</v>
       </c>
     </row>
     <row r="8">
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1023.84201635408</v>
+        <v>10.23842016354022</v>
       </c>
       <c r="C8" t="n">
-        <v>0.733620414919652</v>
+        <v>0.7336204149196658</v>
       </c>
     </row>
     <row r="9">
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-572.1476363885586</v>
+        <v>-5.721476363885586</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7357167307505701</v>
+        <v>0.7357167307505703</v>
       </c>
     </row>
     <row r="10">
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4435.595897915187</v>
+        <v>44.35595897915204</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3408705972567582</v>
+        <v>0.3408705972567578</v>
       </c>
     </row>
     <row r="11">
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>65.84987130159271</v>
+        <v>65.84987130159237</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09390233506515207</v>
+        <v>0.09390233506515205</v>
       </c>
     </row>
   </sheetData>
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3214.246352904654</v>
+        <v>-3214.246353055816</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4043467523615015</v>
+        <v>0.4043467523414926</v>
       </c>
     </row>
     <row r="3">
@@ -2346,10 +2346,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>268.8415679785056</v>
+        <v>268.8415679839035</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1605061171340645</v>
+        <v>0.1605061171339882</v>
       </c>
     </row>
     <row r="4">
@@ -2359,10 +2359,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>490.2921586959015</v>
+        <v>490.2921587012178</v>
       </c>
       <c r="C4" t="n">
-        <v>3.025703599320386e-05</v>
+        <v>3.02570359875624e-05</v>
       </c>
     </row>
     <row r="5">
@@ -2372,10 +2372,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1127200067716367</v>
+        <v>11.27200067847511</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6294776568167724</v>
+        <v>0.629477656776142</v>
       </c>
     </row>
     <row r="6">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001041619766883624</v>
+        <v>-104.1619767133934</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6873533609897984</v>
+        <v>0.6873533609167488</v>
       </c>
     </row>
     <row r="7">
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.26431956760709</v>
+        <v>20.26431956760698</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2428289165129354</v>
+        <v>0.2428289165129327</v>
       </c>
     </row>
     <row r="8">
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1425.263161345173</v>
+        <v>14.25263161345336</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6514045379975807</v>
+        <v>0.6514045379975546</v>
       </c>
     </row>
     <row r="9">
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>273.9747747094896</v>
+        <v>2.739747747093897</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8874768512557201</v>
+        <v>0.8874768512557609</v>
       </c>
     </row>
     <row r="10">
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1439.467188617462</v>
+        <v>14.39467188617527</v>
       </c>
       <c r="C10" t="n">
-        <v>0.72118695488572</v>
+        <v>0.7211869548857106</v>
       </c>
     </row>
     <row r="11">
@@ -2450,10 +2450,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>53.6800515743499</v>
+        <v>53.68005157435016</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2339162760319581</v>
+        <v>0.2339162760319599</v>
       </c>
     </row>
   </sheetData>
@@ -2499,10 +2499,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-803.9440462718467</v>
+        <v>-803.9440465739008</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7395291696756199</v>
+        <v>0.7395291695842224</v>
       </c>
     </row>
     <row r="3">
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>359.6684479954918</v>
+        <v>359.6684479828081</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01940849523410553</v>
+        <v>0.01940849523412267</v>
       </c>
     </row>
     <row r="4">
@@ -2525,10 +2525,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>505.2958630142892</v>
+        <v>505.2958630116267</v>
       </c>
       <c r="C4" t="n">
-        <v>6.341834250387501e-07</v>
+        <v>6.341834250824798e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03063597580479172</v>
+        <v>3.063597579622886</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8560404325443428</v>
+        <v>0.8560404325844745</v>
       </c>
     </row>
     <row r="6">
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.842299859378479e-05</v>
+        <v>-78.4229986089108</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6995898066978843</v>
+        <v>0.6995898066430715</v>
       </c>
     </row>
     <row r="7">
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.772772611131309</v>
+        <v>4.772772611131415</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6562246775777192</v>
+        <v>0.6562246775777127</v>
       </c>
     </row>
     <row r="8">
@@ -2577,10 +2577,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1386.427579557288</v>
+        <v>13.86427579557217</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4874467741818277</v>
+        <v>0.487446774181839</v>
       </c>
     </row>
     <row r="9">
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1151.160146314821</v>
+        <v>11.51160146314845</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4080925889264595</v>
+        <v>0.4080925889264524</v>
       </c>
     </row>
     <row r="10">
@@ -2603,10 +2603,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>467.8488617211387</v>
+        <v>4.678488617211016</v>
       </c>
       <c r="C10" t="n">
-        <v>0.885744460814355</v>
+        <v>0.8857444608143626</v>
       </c>
     </row>
     <row r="11">
@@ -2616,10 +2616,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23.62532549137356</v>
+        <v>23.62532549137333</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4197411708678583</v>
+        <v>0.419741170867861</v>
       </c>
     </row>
   </sheetData>
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1756.13611509107</v>
+        <v>1756.136114879769</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6089276630598539</v>
+        <v>0.6089276631057755</v>
       </c>
     </row>
     <row r="3">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>191.2517129855396</v>
+        <v>191.251712958095</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2538890671162485</v>
+        <v>0.2538890671162666</v>
       </c>
     </row>
     <row r="4">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4155863901398</v>
+        <v>546.4155864028357</v>
       </c>
       <c r="C4" t="n">
-        <v>1.696197443956157e-06</v>
+        <v>1.696197442938507e-06</v>
       </c>
     </row>
     <row r="5">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1509065490760732</v>
+        <v>-15.09065490701926</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5328193125616785</v>
+        <v>0.5328193125774767</v>
       </c>
     </row>
     <row r="6">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001902646062678148</v>
+        <v>190.2646062503645</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4899788637373009</v>
+        <v>0.4899788637756652</v>
       </c>
     </row>
     <row r="7">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.111567983906312</v>
+        <v>-5.111567983906482</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7129548588842901</v>
+        <v>0.71295485888428</v>
       </c>
     </row>
     <row r="8">
@@ -2743,10 +2743,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2109.00052321796</v>
+        <v>-21.09000523218035</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4966587201111972</v>
+        <v>0.4966587201111953</v>
       </c>
     </row>
     <row r="9">
@@ -2756,10 +2756,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>660.586746928494</v>
+        <v>6.605867469285201</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6811242160135216</v>
+        <v>0.6811242160135133</v>
       </c>
     </row>
     <row r="10">
@@ -2769,10 +2769,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3099.465218615949</v>
+        <v>30.99465218615916</v>
       </c>
       <c r="C10" t="n">
-        <v>0.424128145988532</v>
+        <v>0.4241281459885401</v>
       </c>
     </row>
     <row r="11">
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.188766860451935</v>
+        <v>3.188766860452034</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9404692368241163</v>
+        <v>0.9404692368241143</v>
       </c>
     </row>
   </sheetData>
@@ -2831,10 +2831,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2816.266919197769</v>
+        <v>-2816.266919352885</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3721825574884635</v>
+        <v>0.3721825574601252</v>
       </c>
     </row>
     <row r="3">
@@ -2844,10 +2844,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>214.795170408857</v>
+        <v>214.7951703935444</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2895349573502329</v>
+        <v>0.2895349573503261</v>
       </c>
     </row>
     <row r="4">
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>464.9237138444973</v>
+        <v>464.9237138602799</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001091963005952417</v>
+        <v>0.0001091963005156959</v>
       </c>
     </row>
     <row r="5">
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09209763480377864</v>
+        <v>9.209763480774541</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6805009520482788</v>
+        <v>0.6805009520344238</v>
       </c>
     </row>
     <row r="6">
@@ -2883,10 +2883,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.214066571643491e-05</v>
+        <v>-62.14066568030603</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7898306938934454</v>
+        <v>0.7898306940166477</v>
       </c>
     </row>
     <row r="7">
@@ -2896,10 +2896,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.32343035917241</v>
+        <v>14.32343035917243</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3207700616844069</v>
+        <v>0.3207700616844045</v>
       </c>
     </row>
     <row r="8">
@@ -2909,10 +2909,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>442.048963603851</v>
+        <v>4.420489636038965</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8600803953495628</v>
+        <v>0.8600803953495494</v>
       </c>
     </row>
     <row r="9">
@@ -2922,10 +2922,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>291.8307293326384</v>
+        <v>2.918307293326219</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8674098103207106</v>
+        <v>0.8674098103207183</v>
       </c>
     </row>
     <row r="10">
@@ -2935,10 +2935,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3492.445122512019</v>
+        <v>34.92445122512041</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3841454976447168</v>
+        <v>0.3841454976447148</v>
       </c>
     </row>
     <row r="11">
@@ -2948,10 +2948,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>57.49226009426707</v>
+        <v>57.49226009426741</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1336130141380078</v>
+        <v>0.1336130141380064</v>
       </c>
     </row>
   </sheetData>
@@ -2997,10 +2997,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3696.398315442691</v>
+        <v>-3696.398315683879</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2751274785597609</v>
+        <v>0.275127478530434</v>
       </c>
     </row>
     <row r="3">
@@ -3010,10 +3010,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>296.373370343407</v>
+        <v>296.373370322947</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08967010933522841</v>
+        <v>0.08967010933524115</v>
       </c>
     </row>
     <row r="4">
@@ -3023,10 +3023,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.3506022390417</v>
+        <v>500.350602267756</v>
       </c>
       <c r="C4" t="n">
-        <v>4.048815178825672e-05</v>
+        <v>4.048815174951666e-05</v>
       </c>
     </row>
     <row r="5">
@@ -3036,10 +3036,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1233454734149178</v>
+        <v>12.33454734221338</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5849892875747389</v>
+        <v>0.584989287551981</v>
       </c>
     </row>
     <row r="6">
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.61166868266575e-05</v>
+        <v>-16.11668681283186</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9488145924300582</v>
+        <v>0.9488145924750692</v>
       </c>
     </row>
     <row r="7">
@@ -3062,10 +3062,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.91942186240174</v>
+        <v>14.91942186240178</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2752970208828681</v>
+        <v>0.2752970208828658</v>
       </c>
     </row>
     <row r="8">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>900.2223561344281</v>
+        <v>9.002223561344653</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7238848366377453</v>
+        <v>0.7238848366377362</v>
       </c>
     </row>
     <row r="9">
@@ -3088,10 +3088,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-74.25562362490791</v>
+        <v>-0.7425562362493352</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9665141621522726</v>
+        <v>0.9665141621522612</v>
       </c>
     </row>
     <row r="10">
@@ -3101,10 +3101,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>571.1678474396604</v>
+        <v>5.711678474396884</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8916777520851202</v>
+        <v>0.8916777520851152</v>
       </c>
     </row>
     <row r="11">
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>72.51797062312902</v>
+        <v>72.5179706231289</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07923131624515342</v>
+        <v>0.079231316245154</v>
       </c>
     </row>
   </sheetData>
@@ -3163,10 +3163,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2934.465423039417</v>
+        <v>-2934.465423512813</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1851943768339027</v>
+        <v>0.1851943767716841</v>
       </c>
     </row>
     <row r="3">
@@ -3176,10 +3176,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>276.6560628226813</v>
+        <v>276.6560628415828</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07892130697177664</v>
+        <v>0.07892130697174103</v>
       </c>
     </row>
     <row r="4">
@@ -3189,10 +3189,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>521.6866482055889</v>
+        <v>521.6866482215828</v>
       </c>
       <c r="C4" t="n">
-        <v>8.396955031212403e-08</v>
+        <v>8.396955024375559e-08</v>
       </c>
     </row>
     <row r="5">
@@ -3202,10 +3202,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1262553247445877</v>
+        <v>12.62553247320926</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4162068665697432</v>
+        <v>0.4162068666152894</v>
       </c>
     </row>
     <row r="6">
@@ -3215,10 +3215,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.000153940593849108</v>
+        <v>-153.9405937874666</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3605587634007652</v>
+        <v>0.3605587635961027</v>
       </c>
     </row>
     <row r="7">
@@ -3228,10 +3228,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.73614068012672</v>
+        <v>11.73614068012659</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3045792916437142</v>
+        <v>0.3045792916437187</v>
       </c>
     </row>
     <row r="8">
@@ -3241,10 +3241,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>842.7814603503566</v>
+        <v>8.427814603503698</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6672748301539153</v>
+        <v>0.6672748301539109</v>
       </c>
     </row>
     <row r="9">
@@ -3254,10 +3254,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1153.643197425693</v>
+        <v>11.53643197425683</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4298429291820757</v>
+        <v>0.4298429291820798</v>
       </c>
     </row>
     <row r="10">
@@ -3267,10 +3267,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1291.10495579839</v>
+        <v>12.91104955798399</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6667155650107465</v>
+        <v>0.6667155650107446</v>
       </c>
     </row>
     <row r="11">
@@ -3280,10 +3280,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>61.80029673290277</v>
+        <v>61.80029673290269</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04844779639394589</v>
+        <v>0.04844779639394645</v>
       </c>
     </row>
   </sheetData>
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1525.835001563384</v>
+        <v>-1525.835001634419</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6113739340020783</v>
+        <v>0.6113739339864799</v>
       </c>
     </row>
     <row r="3">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>273.2976962029645</v>
+        <v>273.2976962197462</v>
       </c>
       <c r="C3" t="n">
-        <v>0.137122204792149</v>
+        <v>0.1371222047921809</v>
       </c>
     </row>
     <row r="4">
@@ -3355,10 +3355,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>457.2619234042696</v>
+        <v>457.261923405854</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001259079617187536</v>
+        <v>0.0001259079617141312</v>
       </c>
     </row>
     <row r="5">
@@ -3368,10 +3368,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1300605951294512</v>
+        <v>13.00605951198466</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5879891085478717</v>
+        <v>0.5879891085776454</v>
       </c>
     </row>
     <row r="6">
@@ -3381,10 +3381,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001578812992330253</v>
+        <v>-157.8812992167693</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5606640382690107</v>
+        <v>0.5606640383171684</v>
       </c>
     </row>
     <row r="7">
@@ -3394,10 +3394,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.49787244232469</v>
+        <v>11.49787244232475</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4006397983617614</v>
+        <v>0.4006397983617546</v>
       </c>
     </row>
     <row r="8">
@@ -3407,10 +3407,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>561.0872073379569</v>
+        <v>5.610872073379085</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8299446240329778</v>
+        <v>0.82994462403299</v>
       </c>
     </row>
     <row r="9">
@@ -3420,10 +3420,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-276.6031386669965</v>
+        <v>-2.766031386669461</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8817767433315744</v>
+        <v>0.8817767433315964</v>
       </c>
     </row>
     <row r="10">
@@ -3433,10 +3433,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>131.4388037938861</v>
+        <v>1.314388037938642</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9736565854630151</v>
+        <v>0.9736565854630195</v>
       </c>
     </row>
     <row r="11">
@@ -3446,10 +3446,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>49.01733516597412</v>
+        <v>49.01733516597398</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1965362143083236</v>
+        <v>0.1965362143083249</v>
       </c>
     </row>
   </sheetData>
@@ -3495,10 +3495,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2774.063282306478</v>
+        <v>-2774.063283012496</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3589751820508325</v>
+        <v>0.3589751819330304</v>
       </c>
     </row>
     <row r="3">
@@ -3508,10 +3508,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>338.6888106803347</v>
+        <v>338.6888106670856</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06332977003385944</v>
+        <v>0.06332977003385581</v>
       </c>
     </row>
     <row r="4">
@@ -3521,10 +3521,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>528.9627997610866</v>
+        <v>528.9627997968562</v>
       </c>
       <c r="C4" t="n">
-        <v>1.741571240850438e-05</v>
+        <v>1.741571238824794e-05</v>
       </c>
     </row>
     <row r="5">
@@ -3534,10 +3534,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03146412913019747</v>
+        <v>3.146412914265305</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8899769640759887</v>
+        <v>0.8899769640323172</v>
       </c>
     </row>
     <row r="6">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.354321564658474e-05</v>
+        <v>43.54321568511739</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8598353632327317</v>
+        <v>0.859835363112503</v>
       </c>
     </row>
     <row r="7">
@@ -3560,10 +3560,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.071251537756975</v>
+        <v>7.071251537756995</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6069901672498015</v>
+        <v>0.606990167249801</v>
       </c>
     </row>
     <row r="8">
@@ -3573,10 +3573,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1841.819474161228</v>
+        <v>18.41819474161271</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5055890025061264</v>
+        <v>0.5055890025061168</v>
       </c>
     </row>
     <row r="9">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>385.9955901115095</v>
+        <v>3.859955901114827</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8206276788273337</v>
+        <v>0.8206276788273458</v>
       </c>
     </row>
     <row r="10">
@@ -3599,10 +3599,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>516.3162797894875</v>
+        <v>5.163162797895154</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8937982147236503</v>
+        <v>0.8937982147236444</v>
       </c>
     </row>
     <row r="11">
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>62.21262913741153</v>
+        <v>62.21262913741149</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1029714593678281</v>
+        <v>0.1029714593678287</v>
       </c>
     </row>
   </sheetData>
@@ -3661,10 +3661,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2696.594918286079</v>
+        <v>-2696.594918175662</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4145005741763254</v>
+        <v>0.4145005741947234</v>
       </c>
     </row>
     <row r="3">
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>349.2785669006732</v>
+        <v>349.2785668919955</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05243780328397897</v>
+        <v>0.05243780328399106</v>
       </c>
     </row>
     <row r="4">
@@ -3687,10 +3687,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>494.214485267679</v>
+        <v>494.2144852650683</v>
       </c>
       <c r="C4" t="n">
-        <v>1.284428387535087e-05</v>
+        <v>1.284428387666837e-05</v>
       </c>
     </row>
     <row r="5">
@@ -3700,10 +3700,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1532694184578717</v>
+        <v>15.32694184289252</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5366435401698322</v>
+        <v>0.5366435402483911</v>
       </c>
     </row>
     <row r="6">
@@ -3713,10 +3713,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001688098505277492</v>
+        <v>-168.8098504746748</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5447135366215592</v>
+        <v>0.5447135367465267</v>
       </c>
     </row>
     <row r="7">
@@ -3726,10 +3726,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.080756670827952</v>
+        <v>6.080756670828364</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6882767357153026</v>
+        <v>0.6882767357152821</v>
       </c>
     </row>
     <row r="8">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1416.150526982276</v>
+        <v>14.16150526982322</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6367224340697281</v>
+        <v>0.6367224340697193</v>
       </c>
     </row>
     <row r="9">
@@ -3752,10 +3752,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-227.7856286866856</v>
+        <v>-2.277856286866825</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9030187200564568</v>
+        <v>0.9030187200564583</v>
       </c>
     </row>
     <row r="10">
@@ -3765,10 +3765,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5334.96284533968</v>
+        <v>53.34962845339712</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2288624831752235</v>
+        <v>0.2288624831752219</v>
       </c>
     </row>
     <row r="11">
@@ -3778,10 +3778,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>55.99681296844531</v>
+        <v>55.99681296844562</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1765737567373085</v>
+        <v>0.1765737567373062</v>
       </c>
     </row>
   </sheetData>
@@ -3827,10 +3827,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3163.831776080737</v>
+        <v>-3163.831776066373</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3271296681959918</v>
+        <v>0.3271296681981144</v>
       </c>
     </row>
     <row r="3">
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>170.591119826915</v>
+        <v>170.5911198179477</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3457495439086361</v>
+        <v>0.3457495439086389</v>
       </c>
     </row>
     <row r="4">
@@ -3853,10 +3853,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>428.4898879932756</v>
+        <v>428.4898879840209</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001843236388920193</v>
+        <v>0.0001843236389429525</v>
       </c>
     </row>
     <row r="5">
@@ -3866,10 +3866,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0912946432666466</v>
+        <v>9.129464325595094</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6680517597533936</v>
+        <v>0.6680517597930504</v>
       </c>
     </row>
     <row r="6">
@@ -3879,10 +3879,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001469106312429716</v>
+        <v>-146.9106312486617</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5436769886199049</v>
+        <v>0.5436769886076036</v>
       </c>
     </row>
     <row r="7">
@@ -3892,10 +3892,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.71831526001813</v>
+        <v>14.71831526001829</v>
       </c>
       <c r="C7" t="n">
-        <v>0.281636114440684</v>
+        <v>0.2816361144406773</v>
       </c>
     </row>
     <row r="8">
@@ -3905,10 +3905,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>761.651230077623</v>
+        <v>7.616512300776265</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7632313924892032</v>
+        <v>0.7632313924892027</v>
       </c>
     </row>
     <row r="9">
@@ -3918,10 +3918,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>438.0695893041839</v>
+        <v>4.38069589304164</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8072642685819962</v>
+        <v>0.8072642685820051</v>
       </c>
     </row>
     <row r="10">
@@ -3931,10 +3931,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1762.804984306911</v>
+        <v>17.6280498430692</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6463751737397718</v>
+        <v>0.64637517373977</v>
       </c>
     </row>
     <row r="11">
@@ -3947,7 +3947,7 @@
         <v>80.72913504378727</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08694393985933267</v>
+        <v>0.08694393985933339</v>
       </c>
     </row>
   </sheetData>
@@ -3993,10 +3993,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-399.0819369923083</v>
+        <v>-399.0819370155518</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8578032368691942</v>
+        <v>0.8578032368611959</v>
       </c>
     </row>
     <row r="3">
@@ -4006,10 +4006,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>217.5939923631967</v>
+        <v>217.5939923674968</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1088683613070295</v>
+        <v>0.1088683613070723</v>
       </c>
     </row>
     <row r="4">
@@ -4019,10 +4019,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.5524555954819</v>
+        <v>500.5524555938353</v>
       </c>
       <c r="C4" t="n">
-        <v>3.887202492205318e-07</v>
+        <v>3.887202492369023e-07</v>
       </c>
     </row>
     <row r="5">
@@ -4032,10 +4032,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1078529794342577</v>
+        <v>10.78529794132784</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4957373553356378</v>
+        <v>0.4957373554178925</v>
       </c>
     </row>
     <row r="6">
@@ -4045,10 +4045,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.717423190986653e-05</v>
+        <v>-97.17423187135944</v>
       </c>
       <c r="C6" t="n">
-        <v>0.57171594964572</v>
+        <v>0.5717159498023117</v>
       </c>
     </row>
     <row r="7">
@@ -4058,10 +4058,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.54953183839126</v>
+        <v>6.549531838391552</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4815517019507394</v>
+        <v>0.4815517019507167</v>
       </c>
     </row>
     <row r="8">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.46407418080116</v>
+        <v>0.2046407418080349</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9912078881004538</v>
+        <v>0.9912078881004528</v>
       </c>
     </row>
     <row r="9">
@@ -4084,10 +4084,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>57.8438309017547</v>
+        <v>0.5784383090175051</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9587904711614892</v>
+        <v>0.9587904711614923</v>
       </c>
     </row>
     <row r="10">
@@ -4097,10 +4097,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>798.2593093986106</v>
+        <v>7.982593093985955</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7783133171389998</v>
+        <v>0.7783133171390043</v>
       </c>
     </row>
     <row r="11">
@@ -4110,10 +4110,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.50716479524047</v>
+        <v>28.50716479524056</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3526824509263577</v>
+        <v>0.3526824509263556</v>
       </c>
     </row>
   </sheetData>
@@ -4159,10 +4159,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3817.335872139794</v>
+        <v>-3817.335872359309</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1962781808502856</v>
+        <v>0.1962781808267067</v>
       </c>
     </row>
     <row r="3">
@@ -4172,10 +4172,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>327.8225751131099</v>
+        <v>327.8225751029819</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07274384757234408</v>
+        <v>0.07274384757233227</v>
       </c>
     </row>
     <row r="4">
@@ -4185,10 +4185,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>614.4319933748925</v>
+        <v>614.4319934006282</v>
       </c>
       <c r="C4" t="n">
-        <v>1.768568473545335e-06</v>
+        <v>1.768568472123824e-06</v>
       </c>
     </row>
     <row r="5">
@@ -4198,10 +4198,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2078746304478969</v>
+        <v>20.78746304472571</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3505524591401724</v>
+        <v>0.3505524591417623</v>
       </c>
     </row>
     <row r="6">
@@ -4211,10 +4211,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001643585910786365</v>
+        <v>-164.3585910538207</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4574761910630021</v>
+        <v>0.4574761911266887</v>
       </c>
     </row>
     <row r="7">
@@ -4224,10 +4224,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.553193414599384</v>
+        <v>3.5531934145991</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7711764594735702</v>
+        <v>0.7711764594735872</v>
       </c>
     </row>
     <row r="8">
@@ -4237,10 +4237,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1982.095866265762</v>
+        <v>19.82095866265787</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4181700498384703</v>
+        <v>0.4181700498384647</v>
       </c>
     </row>
     <row r="9">
@@ -4250,10 +4250,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>35.68342316759845</v>
+        <v>0.3568342316760038</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9827111878762036</v>
+        <v>0.9827111878762027</v>
       </c>
     </row>
     <row r="10">
@@ -4263,10 +4263,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2716.563966818095</v>
+        <v>27.16563966818077</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4241647861711918</v>
+        <v>0.4241647861711936</v>
       </c>
     </row>
     <row r="11">
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>78.11187074615306</v>
+        <v>78.11187074615319</v>
       </c>
       <c r="C11" t="n">
         <v>0.05443903349338563</v>
@@ -4325,10 +4325,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1349.931034904905</v>
+        <v>-1349.93103511781</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6777255507895601</v>
+        <v>0.6777255507427007</v>
       </c>
     </row>
     <row r="3">
@@ -4338,10 +4338,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>251.381041238414</v>
+        <v>251.3810412284739</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2135517988093699</v>
+        <v>0.2135517988093483</v>
       </c>
     </row>
     <row r="4">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>449.8182352914664</v>
+        <v>449.818235296479</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004185970938063384</v>
+        <v>0.0004185970937508568</v>
       </c>
     </row>
     <row r="5">
@@ -4364,10 +4364,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1254782164471133</v>
+        <v>12.54782164527725</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6019129593211195</v>
+        <v>0.6019129593031913</v>
       </c>
     </row>
     <row r="6">
@@ -4377,10 +4377,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001126921841055524</v>
+        <v>-112.692184118637</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6660950554193787</v>
+        <v>0.6660950553811701</v>
       </c>
     </row>
     <row r="7">
@@ -4390,10 +4390,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.72398660859592</v>
+        <v>12.72398660859606</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3805755968919177</v>
+        <v>0.3805755968919113</v>
       </c>
     </row>
     <row r="8">
@@ -4403,10 +4403,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.1713357732242</v>
+        <v>0.1817133577323773</v>
       </c>
       <c r="C8" t="n">
-        <v>0.994764981902116</v>
+        <v>0.9947649819021123</v>
       </c>
     </row>
     <row r="9">
@@ -4416,10 +4416,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-325.6024125819686</v>
+        <v>-3.256024125819714</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8723803574052345</v>
+        <v>0.8723803574052333</v>
       </c>
     </row>
     <row r="10">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1056.77957423067</v>
+        <v>10.56779574230677</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8068206230280367</v>
+        <v>0.8068206230280357</v>
       </c>
     </row>
     <row r="11">
@@ -4442,10 +4442,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.87011422860701</v>
+        <v>42.87011422860752</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2668027617305435</v>
+        <v>0.2668027617305377</v>
       </c>
     </row>
   </sheetData>
@@ -4491,10 +4491,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1746.01665558851</v>
+        <v>-1746.016655675227</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5571934569945682</v>
+        <v>0.5571934569755669</v>
       </c>
     </row>
     <row r="3">
@@ -4504,10 +4504,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>288.0371142584497</v>
+        <v>288.0371142536895</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1292968180453915</v>
+        <v>0.1292968180453595</v>
       </c>
     </row>
     <row r="4">
@@ -4517,10 +4517,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.1113125717021</v>
+        <v>543.1113125867261</v>
       </c>
       <c r="C4" t="n">
-        <v>2.81346608111134e-06</v>
+        <v>2.81346607970092e-06</v>
       </c>
     </row>
     <row r="5">
@@ -4530,10 +4530,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1760844633221566</v>
+        <v>17.60844633255377</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4072663689933508</v>
+        <v>0.4072663689839108</v>
       </c>
     </row>
     <row r="6">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0002576542106482165</v>
+        <v>-257.6542106093082</v>
       </c>
       <c r="C6" t="n">
-        <v>0.284751296208256</v>
+        <v>0.2847512962598016</v>
       </c>
     </row>
     <row r="7">
@@ -4556,10 +4556,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.194232738570218</v>
+        <v>3.194232738570115</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8116926023790245</v>
+        <v>0.811692602379029</v>
       </c>
     </row>
     <row r="8">
@@ -4569,10 +4569,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2307.944797386032</v>
+        <v>23.07944797386121</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4247245650181279</v>
+        <v>0.4247245650181158</v>
       </c>
     </row>
     <row r="9">
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-160.2046075188268</v>
+        <v>-1.602046075188511</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9232572841263713</v>
+        <v>0.9232572841263598</v>
       </c>
     </row>
     <row r="10">
@@ -4595,10 +4595,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2822.948678363139</v>
+        <v>28.22948678363198</v>
       </c>
       <c r="C10" t="n">
-        <v>0.493470437953589</v>
+        <v>0.4934704379535824</v>
       </c>
     </row>
     <row r="11">
@@ -4608,10 +4608,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.04446491310273</v>
+        <v>47.0444649131027</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2264923392433042</v>
+        <v>0.2264923392433049</v>
       </c>
     </row>
   </sheetData>
@@ -4657,10 +4657,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>535.0839625166318</v>
+        <v>535.0839625044482</v>
       </c>
       <c r="C2" t="n">
-        <v>0.86294405714956</v>
+        <v>0.862944057152645</v>
       </c>
     </row>
     <row r="3">
@@ -4670,10 +4670,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>303.8653507060574</v>
+        <v>303.8653506589856</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03836481244089018</v>
+        <v>0.03836481244090989</v>
       </c>
     </row>
     <row r="4">
@@ -4683,10 +4683,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>445.5200847652687</v>
+        <v>445.5200847852506</v>
       </c>
       <c r="C4" t="n">
-        <v>1.071836639835718e-05</v>
+        <v>1.07183663894824e-05</v>
       </c>
     </row>
     <row r="5">
@@ -4696,10 +4696,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04594399403005811</v>
+        <v>4.594399401293508</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8266103115622643</v>
+        <v>0.8266103116267837</v>
       </c>
     </row>
     <row r="6">
@@ -4709,10 +4709,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.224729853987175e-05</v>
+        <v>-72.24729851034493</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7438479501628057</v>
+        <v>0.7438479502669098</v>
       </c>
     </row>
     <row r="7">
@@ -4722,10 +4722,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.159029181775454</v>
+        <v>6.159029181775207</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6216968870819495</v>
+        <v>0.6216968870819627</v>
       </c>
     </row>
     <row r="8">
@@ -4735,10 +4735,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>162.2125713528458</v>
+        <v>1.622125713528391</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9496252647082779</v>
+        <v>0.9496252647082799</v>
       </c>
     </row>
     <row r="9">
@@ -4748,10 +4748,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>474.3379943911814</v>
+        <v>4.743379943911769</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7516563405987187</v>
+        <v>0.7516563405987212</v>
       </c>
     </row>
     <row r="10">
@@ -4761,10 +4761,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1546.825984877769</v>
+        <v>-15.46825984877785</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6537810745419935</v>
+        <v>0.6537810745419901</v>
       </c>
     </row>
     <row r="11">
@@ -4774,10 +4774,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.50522959542728</v>
+        <v>16.50522959542752</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6573237267291233</v>
+        <v>0.6573237267291181</v>
       </c>
     </row>
   </sheetData>
@@ -4823,10 +4823,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3953.508105299701</v>
+        <v>-3953.508105326203</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1185024385600878</v>
+        <v>0.1185024385578495</v>
       </c>
     </row>
     <row r="3">
@@ -4836,10 +4836,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>197.939153428291</v>
+        <v>197.9391534134911</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1896978503399774</v>
+        <v>0.1896978503399008</v>
       </c>
     </row>
     <row r="4">
@@ -4849,10 +4849,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>476.7189655831185</v>
+        <v>476.7189655933943</v>
       </c>
       <c r="C4" t="n">
-        <v>2.809510029916693e-05</v>
+        <v>2.809510028859781e-05</v>
       </c>
     </row>
     <row r="5">
@@ -4862,10 +4862,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1301995986415801</v>
+        <v>13.01995986553324</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4746389031092069</v>
+        <v>0.4746389030588652</v>
       </c>
     </row>
     <row r="6">
@@ -4875,10 +4875,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001437961898433764</v>
+        <v>-143.7961898540202</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4716645544829086</v>
+        <v>0.4716645544487602</v>
       </c>
     </row>
     <row r="7">
@@ -4888,10 +4888,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.2719783596537</v>
+        <v>21.27197835965354</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1061377717398512</v>
+        <v>0.1061377717398524</v>
       </c>
     </row>
     <row r="8">
@@ -4901,10 +4901,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>886.5144375262796</v>
+        <v>8.865144375263203</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6844459870964017</v>
+        <v>0.6844459870963888</v>
       </c>
     </row>
     <row r="9">
@@ -4914,10 +4914,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1060.273204843926</v>
+        <v>10.60273204843903</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4810732024602339</v>
+        <v>0.4810732024602432</v>
       </c>
     </row>
     <row r="10">
@@ -4927,10 +4927,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2753.203080737389</v>
+        <v>27.53203080737385</v>
       </c>
       <c r="C10" t="n">
-        <v>0.368185230078544</v>
+        <v>0.3681852300785453</v>
       </c>
     </row>
     <row r="11">
@@ -4940,10 +4940,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>67.85972646809229</v>
+        <v>67.85972646809221</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04041857611089721</v>
+        <v>0.04041857611089772</v>
       </c>
     </row>
   </sheetData>
@@ -4989,10 +4989,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2935.810057853215</v>
+        <v>-2935.810057643198</v>
       </c>
       <c r="C2" t="n">
-        <v>0.348962083472088</v>
+        <v>0.3489620835046143</v>
       </c>
     </row>
     <row r="3">
@@ -5002,10 +5002,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>351.582045814191</v>
+        <v>351.5820458519373</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06667020215592707</v>
+        <v>0.06667020215588224</v>
       </c>
     </row>
     <row r="4">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>476.5489456274644</v>
+        <v>476.5489456104017</v>
       </c>
       <c r="C4" t="n">
-        <v>4.512695148738322e-05</v>
+        <v>4.512695151899728e-05</v>
       </c>
     </row>
     <row r="5">
@@ -5028,10 +5028,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07754301357189064</v>
+        <v>7.75430135436531</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7280432040360107</v>
+        <v>0.7280432041323374</v>
       </c>
     </row>
     <row r="6">
@@ -5041,10 +5041,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.45089085767377e-05</v>
+        <v>-54.50890853946407</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8300411159123781</v>
+        <v>0.8300411160264396</v>
       </c>
     </row>
     <row r="7">
@@ -5054,10 +5054,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.546467183020258</v>
+        <v>7.546467183020209</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5739193842869136</v>
+        <v>0.5739193842869148</v>
       </c>
     </row>
     <row r="8">
@@ -5067,10 +5067,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>679.7745090904154</v>
+        <v>6.797745090904471</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7884517125717485</v>
+        <v>0.7884517125717396</v>
       </c>
     </row>
     <row r="9">
@@ -5080,10 +5080,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-128.8700799485423</v>
+        <v>-1.288700799485532</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9454392433613402</v>
+        <v>0.9454392433613357</v>
       </c>
     </row>
     <row r="10">
@@ -5093,10 +5093,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3904.281263833464</v>
+        <v>39.04281263833504</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4083469666883689</v>
+        <v>0.4083469666883655</v>
       </c>
     </row>
     <row r="11">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>66.99457802160867</v>
+        <v>66.99457802160885</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08949643146370491</v>
+        <v>0.08949643146370402</v>
       </c>
     </row>
   </sheetData>
@@ -5155,10 +5155,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1601.19356611096</v>
+        <v>-1601.193566564647</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6026354985657314</v>
+        <v>0.6026354984733001</v>
       </c>
     </row>
     <row r="3">
@@ -5168,10 +5168,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>314.0006215248711</v>
+        <v>314.0006215694455</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1670080581263413</v>
+        <v>0.1670080581263739</v>
       </c>
     </row>
     <row r="4">
@@ -5181,10 +5181,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>514.6381894486672</v>
+        <v>514.6381894319566</v>
       </c>
       <c r="C4" t="n">
-        <v>2.522595098973291e-05</v>
+        <v>2.522595099665792e-05</v>
       </c>
     </row>
     <row r="5">
@@ -5194,10 +5194,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1154589700393961</v>
+        <v>-11.54589700017259</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6304489514908878</v>
+        <v>0.630448951595127</v>
       </c>
     </row>
     <row r="6">
@@ -5207,10 +5207,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001926432062364457</v>
+        <v>192.6432061946846</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4807687708033829</v>
+        <v>0.4807687708930751</v>
       </c>
     </row>
     <row r="7">
@@ -5220,10 +5220,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.679404955812434</v>
+        <v>3.679404955812634</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7942157996050303</v>
+        <v>0.7942157996050191</v>
       </c>
     </row>
     <row r="8">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-983.4759962324351</v>
+        <v>-9.834759962324668</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6931973799300948</v>
+        <v>0.6931973799300823</v>
       </c>
     </row>
     <row r="9">
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>662.7008960555168</v>
+        <v>6.627008960555884</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7289499034296255</v>
+        <v>0.728949903429599</v>
       </c>
     </row>
     <row r="10">
@@ -5259,10 +5259,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2565.985140534774</v>
+        <v>25.65985140534775</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5192985472514711</v>
+        <v>0.5192985472514701</v>
       </c>
     </row>
     <row r="11">
@@ -5272,10 +5272,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>49.89383150506427</v>
+        <v>49.89383150506441</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2342178057237172</v>
+        <v>0.2342178057237153</v>
       </c>
     </row>
   </sheetData>
@@ -5321,10 +5321,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1981.855020169241</v>
+        <v>-1981.855020309749</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5987785922059665</v>
+        <v>0.5987785921825748</v>
       </c>
     </row>
     <row r="3">
@@ -5334,10 +5334,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>327.1290935113268</v>
+        <v>327.1290935236168</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1002657182262168</v>
+        <v>0.1002657182261996</v>
       </c>
     </row>
     <row r="4">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1577556952891</v>
+        <v>531.1577556868442</v>
       </c>
       <c r="C4" t="n">
-        <v>4.600292216534571e-05</v>
+        <v>4.600292216885878e-05</v>
       </c>
     </row>
     <row r="5">
@@ -5360,10 +5360,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1271465733255276</v>
+        <v>-12.71465733474075</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6177705109527749</v>
+        <v>0.6177705108951028</v>
       </c>
     </row>
     <row r="6">
@@ -5373,10 +5373,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0002162352786250082</v>
+        <v>216.2352786341282</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4616394750780239</v>
+        <v>0.461639475052334</v>
       </c>
     </row>
     <row r="7">
@@ -5386,10 +5386,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.94122273263109</v>
+        <v>5.941222732630884</v>
       </c>
       <c r="C7" t="n">
-        <v>0.72588903096876</v>
+        <v>0.7258890309687662</v>
       </c>
     </row>
     <row r="8">
@@ -5399,10 +5399,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1044.765105778488</v>
+        <v>-10.44765105778471</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7841332948792836</v>
+        <v>0.7841332948792876</v>
       </c>
     </row>
     <row r="9">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1016.941365757593</v>
+        <v>10.16941365757597</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6053170507268423</v>
+        <v>0.6053170507268408</v>
       </c>
     </row>
     <row r="10">
@@ -5425,10 +5425,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2511.713413996908</v>
+        <v>25.11713413996898</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5043099713257964</v>
+        <v>0.5043099713257986</v>
       </c>
     </row>
     <row r="11">
@@ -5438,10 +5438,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>48.36363564171241</v>
+        <v>48.36363564171215</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2513399969473994</v>
+        <v>0.2513399969474051</v>
       </c>
     </row>
   </sheetData>
@@ -5487,10 +5487,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3090.970537020716</v>
+        <v>-3090.970537265124</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2755479948678865</v>
+        <v>0.275547994829129</v>
       </c>
     </row>
     <row r="3">
@@ -5500,10 +5500,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>379.4338696008168</v>
+        <v>379.4338696293826</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06139728396837179</v>
+        <v>0.061397283968357</v>
       </c>
     </row>
     <row r="4">
@@ -5513,10 +5513,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>391.0623858735855</v>
+        <v>391.0623858953869</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000873549495798791</v>
+        <v>0.0008735494950120173</v>
       </c>
     </row>
     <row r="5">
@@ -5526,10 +5526,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05574337751503017</v>
+        <v>5.574337752276655</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7858568730820198</v>
+        <v>0.7858568730521314</v>
       </c>
     </row>
     <row r="6">
@@ -5539,10 +5539,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.289676858978811e-05</v>
+        <v>-82.8967685188764</v>
       </c>
       <c r="C6" t="n">
-        <v>0.695053014585492</v>
+        <v>0.6950530148441338</v>
       </c>
     </row>
     <row r="7">
@@ -5552,10 +5552,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.17410839386976</v>
+        <v>14.1741083938698</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2968632527323192</v>
+        <v>0.2968632527323126</v>
       </c>
     </row>
     <row r="8">
@@ -5565,10 +5565,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>381.5246049880443</v>
+        <v>3.815246049880642</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8691769494820936</v>
+        <v>0.8691769494820876</v>
       </c>
     </row>
     <row r="9">
@@ -5578,10 +5578,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>294.7453113744837</v>
+        <v>2.94745311374459</v>
       </c>
       <c r="C9" t="n">
-        <v>0.860871015313764</v>
+        <v>0.8608710153137757</v>
       </c>
     </row>
     <row r="10">
@@ -5591,10 +5591,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3634.981044424725</v>
+        <v>36.3498104442475</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4000995018799103</v>
+        <v>0.4000995018799084</v>
       </c>
     </row>
     <row r="11">
@@ -5604,10 +5604,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>66.47294190708331</v>
+        <v>66.47294190708317</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07508415207068653</v>
+        <v>0.07508415207068793</v>
       </c>
     </row>
   </sheetData>
@@ -5653,10 +5653,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-568.1816528443997</v>
+        <v>-568.1816529483231</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8735609827906172</v>
+        <v>0.8735609827679615</v>
       </c>
     </row>
     <row r="3">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>302.5608310881072</v>
+        <v>302.5608310771649</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08817685840906896</v>
+        <v>0.08817685840902062</v>
       </c>
     </row>
     <row r="4">
@@ -5679,10 +5679,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>499.6716923719222</v>
+        <v>499.671692368747</v>
       </c>
       <c r="C4" t="n">
-        <v>1.538053333808311e-05</v>
+        <v>1.538053333948258e-05</v>
       </c>
     </row>
     <row r="5">
@@ -5692,10 +5692,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05908118876277699</v>
+        <v>5.908118876664277</v>
       </c>
       <c r="C5" t="n">
-        <v>0.799835589333423</v>
+        <v>0.7998355893206093</v>
       </c>
     </row>
     <row r="6">
@@ -5705,10 +5705,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0003149205840923565</v>
+        <v>-314.9205841408705</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3401955283948321</v>
+        <v>0.3401955283211333</v>
       </c>
     </row>
     <row r="7">
@@ -5718,10 +5718,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.772220372655077</v>
+        <v>1.772220372655418</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9014185643828568</v>
+        <v>0.9014185643828376</v>
       </c>
     </row>
     <row r="8">
@@ -5731,10 +5731,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2439.213652001199</v>
+        <v>24.39213652001196</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4091427442521562</v>
+        <v>0.4091427442521567</v>
       </c>
     </row>
     <row r="9">
@@ -5744,10 +5744,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>580.2012677442698</v>
+        <v>5.802012677442594</v>
       </c>
       <c r="C9" t="n">
-        <v>0.734891341008697</v>
+        <v>0.7348913410087012</v>
       </c>
     </row>
     <row r="10">
@@ -5757,10 +5757,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2076.872523860849</v>
+        <v>20.76872523860843</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6174764017995357</v>
+        <v>0.6174764017995367</v>
       </c>
     </row>
     <row r="11">
@@ -5770,10 +5770,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34.62241599160888</v>
+        <v>34.62241599160893</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4101664175304266</v>
+        <v>0.4101664175304253</v>
       </c>
     </row>
   </sheetData>
@@ -5819,10 +5819,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-39.28279162255603</v>
+        <v>-39.28279157023644</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9883077875062954</v>
+        <v>0.9883077875218647</v>
       </c>
     </row>
     <row r="3">
@@ -5832,10 +5832,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>246.3815264570797</v>
+        <v>246.3815264242108</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08895465045112619</v>
+        <v>0.08895465045112899</v>
       </c>
     </row>
     <row r="4">
@@ -5845,10 +5845,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>381.9235119969762</v>
+        <v>381.9235120057177</v>
       </c>
       <c r="C4" t="n">
-        <v>4.552244283691429e-05</v>
+        <v>4.552244281806968e-05</v>
       </c>
     </row>
     <row r="5">
@@ -5858,10 +5858,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01570555548926289</v>
+        <v>-1.570555548920382</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9295098310418842</v>
+        <v>0.9295098310421565</v>
       </c>
     </row>
     <row r="6">
@@ -5871,10 +5871,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.802918466440586e-05</v>
+        <v>-18.02918465800303</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9208809149512904</v>
+        <v>0.9208809149794066</v>
       </c>
     </row>
     <row r="7">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.04960355101466</v>
+        <v>11.0496035510151</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3011796932583352</v>
+        <v>0.3011796932583144</v>
       </c>
     </row>
     <row r="8">
@@ -5897,10 +5897,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-40.32091531416336</v>
+        <v>-0.4032091531416597</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9836070141859654</v>
+        <v>0.9836070141859643</v>
       </c>
     </row>
     <row r="9">
@@ -5910,10 +5910,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>725.9412395157033</v>
+        <v>7.259412395157042</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5987915652172547</v>
+        <v>0.598791565217254</v>
       </c>
     </row>
     <row r="10">
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-816.2151358931551</v>
+        <v>-8.162151358931709</v>
       </c>
       <c r="C10" t="n">
-        <v>0.80072999853975</v>
+        <v>0.8007299985397462</v>
       </c>
     </row>
     <row r="11">
@@ -5936,10 +5936,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.92332055574352</v>
+        <v>27.92332055574369</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4156630546257563</v>
+        <v>0.4156630546257537</v>
       </c>
     </row>
   </sheetData>
@@ -5985,10 +5985,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1910.704262805903</v>
+        <v>-1910.704262569036</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5190522306479688</v>
+        <v>0.5190522306973203</v>
       </c>
     </row>
     <row r="3">
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.8840724189787</v>
+        <v>347.8840724090018</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05423697142925647</v>
+        <v>0.05423697142926853</v>
       </c>
     </row>
     <row r="4">
@@ -6011,10 +6011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>511.0871309964368</v>
+        <v>511.0871309766546</v>
       </c>
       <c r="C4" t="n">
-        <v>2.672685482718666e-05</v>
+        <v>2.672685484238572e-05</v>
       </c>
     </row>
     <row r="5">
@@ -6024,10 +6024,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05627557698922614</v>
+        <v>5.627557700147236</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8208785294610461</v>
+        <v>0.8208785294219774</v>
       </c>
     </row>
     <row r="6">
@@ -6037,10 +6037,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.767419881480722e-05</v>
+        <v>-47.67419890421274</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8568576242078123</v>
+        <v>0.8568576239371866</v>
       </c>
     </row>
     <row r="7">
@@ -6050,10 +6050,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.602787885130489</v>
+        <v>1.602787885130589</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9043736626675993</v>
+        <v>0.9043736626675933</v>
       </c>
     </row>
     <row r="8">
@@ -6063,10 +6063,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>568.8806457294777</v>
+        <v>5.688806457294945</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8195947451516725</v>
+        <v>0.8195947451516677</v>
       </c>
     </row>
     <row r="9">
@@ -6076,10 +6076,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>160.4023623026605</v>
+        <v>1.60402362302662</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9352595132648691</v>
+        <v>0.9352595132648687</v>
       </c>
     </row>
     <row r="10">
@@ -6089,10 +6089,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4778.757798974464</v>
+        <v>47.78757798974479</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2677370787641277</v>
+        <v>0.2677370787641262</v>
       </c>
     </row>
     <row r="11">
@@ -6102,10 +6102,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>49.79544191791524</v>
+        <v>49.79544191791535</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1931834719092573</v>
+        <v>0.1931834719092559</v>
       </c>
     </row>
   </sheetData>
@@ -6151,10 +6151,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3188.510442482348</v>
+        <v>-3188.510442545603</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2052075661481914</v>
+        <v>0.2052075661400949</v>
       </c>
     </row>
     <row r="3">
@@ -6164,10 +6164,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>191.8584023889668</v>
+        <v>191.8584023649391</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2159396077342188</v>
+        <v>0.2159396077342617</v>
       </c>
     </row>
     <row r="4">
@@ -6177,10 +6177,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>642.3076610493072</v>
+        <v>642.3076610484909</v>
       </c>
       <c r="C4" t="n">
-        <v>9.105080054947794e-08</v>
+        <v>9.10508005528702e-08</v>
       </c>
     </row>
     <row r="5">
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3713137459197385</v>
+        <v>37.13137459184967</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0848360434462679</v>
+        <v>0.08483604344741408</v>
       </c>
     </row>
     <row r="6">
@@ -6203,10 +6203,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0003839618131931137</v>
+        <v>-383.9618132056638</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1022998766376806</v>
+        <v>0.1022998766247157</v>
       </c>
     </row>
     <row r="7">
@@ -6216,10 +6216,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.932427767123343</v>
+        <v>6.932427767123663</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5387873872043376</v>
+        <v>0.5387873872043143</v>
       </c>
     </row>
     <row r="8">
@@ -6229,10 +6229,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2202.482445712221</v>
+        <v>22.0248244571236</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3234384611978488</v>
+        <v>0.3234384611978269</v>
       </c>
     </row>
     <row r="9">
@@ -6242,10 +6242,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-137.5247182559779</v>
+        <v>-1.375247182560628</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9330048530703723</v>
+        <v>0.9330048530703312</v>
       </c>
     </row>
     <row r="10">
@@ -6255,10 +6255,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3745.06174352141</v>
+        <v>37.45061743521524</v>
       </c>
       <c r="C10" t="n">
-        <v>0.267930354465152</v>
+        <v>0.2679303544651418</v>
       </c>
     </row>
     <row r="11">
@@ -6268,10 +6268,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>60.56831976283742</v>
+        <v>60.56831976283773</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06165425466885306</v>
+        <v>0.06165425466885231</v>
       </c>
     </row>
   </sheetData>
@@ -6317,10 +6317,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-447.4674338783957</v>
+        <v>-447.4674338512841</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8223410214904121</v>
+        <v>0.8223410215008685</v>
       </c>
     </row>
     <row r="3">
@@ -6330,10 +6330,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>196.9691667290489</v>
+        <v>196.9691667345135</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07544222193776293</v>
+        <v>0.0754422219377681</v>
       </c>
     </row>
     <row r="4">
@@ -6343,10 +6343,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>539.0023787412305</v>
+        <v>539.002378748474</v>
       </c>
       <c r="C4" t="n">
-        <v>4.222288179294612e-08</v>
+        <v>4.222288177776367e-08</v>
       </c>
     </row>
     <row r="5">
@@ -6356,10 +6356,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08146218830891847</v>
+        <v>-8.146218831101855</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5925951500064608</v>
+        <v>0.5925951499971356</v>
       </c>
     </row>
     <row r="6">
@@ -6369,10 +6369,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001381395760784406</v>
+        <v>138.13957606118</v>
       </c>
       <c r="C6" t="n">
-        <v>0.42523319174055</v>
+        <v>0.4252331917905618</v>
       </c>
     </row>
     <row r="7">
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.459956876373248</v>
+        <v>7.459956876373141</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3696808313298943</v>
+        <v>0.3696808313299007</v>
       </c>
     </row>
     <row r="8">
@@ -6395,10 +6395,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1192.975927863182</v>
+        <v>-11.92975927863179</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4819784576994594</v>
+        <v>0.4819784576994616</v>
       </c>
     </row>
     <row r="9">
@@ -6408,10 +6408,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1416.876847431702</v>
+        <v>14.16876847431701</v>
       </c>
       <c r="C9" t="n">
-        <v>0.255917339662364</v>
+        <v>0.2559173396623635</v>
       </c>
     </row>
     <row r="10">
@@ -6421,10 +6421,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>167.6820286385901</v>
+        <v>1.676820286386004</v>
       </c>
       <c r="C10" t="n">
-        <v>0.944421031679607</v>
+        <v>0.9444210316796037</v>
       </c>
     </row>
     <row r="11">
@@ -6434,10 +6434,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.09244217195685</v>
+        <v>26.0924421719568</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2912174107447273</v>
+        <v>0.2912174107447285</v>
       </c>
     </row>
   </sheetData>
@@ -6483,10 +6483,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2558.07377402798</v>
+        <v>-2558.073774274373</v>
       </c>
       <c r="C2" t="n">
-        <v>0.432963405270992</v>
+        <v>0.4329634052289693</v>
       </c>
     </row>
     <row r="3">
@@ -6496,10 +6496,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>262.4040421473475</v>
+        <v>262.4040421531038</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1596006647786792</v>
+        <v>0.1596006647787202</v>
       </c>
     </row>
     <row r="4">
@@ -6509,10 +6509,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>484.1139075563663</v>
+        <v>484.1139075607035</v>
       </c>
       <c r="C4" t="n">
-        <v>6.725510978026473e-05</v>
+        <v>6.725510976971974e-05</v>
       </c>
     </row>
     <row r="5">
@@ -6522,10 +6522,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1108326675513475</v>
+        <v>11.08326675691647</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6581508115219661</v>
+        <v>0.6581508114684276</v>
       </c>
     </row>
     <row r="6">
@@ -6535,10 +6535,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.823750022712165e-05</v>
+        <v>-38.23750025824324</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8939969802490002</v>
+        <v>0.8939969801611829</v>
       </c>
     </row>
     <row r="7">
@@ -6548,10 +6548,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.62355474534303</v>
+        <v>13.62355474534319</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3452910558015978</v>
+        <v>0.3452910558015916</v>
       </c>
     </row>
     <row r="8">
@@ -6561,10 +6561,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-54.59232212089591</v>
+        <v>-0.5459232212092502</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9835965261505217</v>
+        <v>0.9835965261505129</v>
       </c>
     </row>
     <row r="9">
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-16.12457523792045</v>
+        <v>-0.1612457523791271</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9926558853013858</v>
+        <v>0.9926558853013894</v>
       </c>
     </row>
     <row r="10">
@@ -6587,10 +6587,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2146.160012142071</v>
+        <v>21.46160012142062</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6050626779186387</v>
+        <v>0.605062677918639</v>
       </c>
     </row>
     <row r="11">
@@ -6600,10 +6600,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>54.26971041993517</v>
+        <v>54.269710419935</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1791522098253706</v>
+        <v>0.1791522098253719</v>
       </c>
     </row>
   </sheetData>
@@ -6649,10 +6649,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3736.817684683854</v>
+        <v>-3736.817684703668</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2996345593478092</v>
+        <v>0.299634559345613</v>
       </c>
     </row>
     <row r="3">
@@ -6662,10 +6662,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>300.3891781778482</v>
+        <v>300.3891781744634</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1181021953288963</v>
+        <v>0.1181021953288553</v>
       </c>
     </row>
     <row r="4">
@@ -6675,10 +6675,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>534.0663763052204</v>
+        <v>534.0663763075319</v>
       </c>
       <c r="C4" t="n">
-        <v>8.13131235349152e-06</v>
+        <v>8.131312352856007e-06</v>
       </c>
     </row>
     <row r="5">
@@ -6688,10 +6688,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2469911520546597</v>
+        <v>24.6991152041212</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2980624765856943</v>
+        <v>0.2980624766125113</v>
       </c>
     </row>
     <row r="6">
@@ -6701,10 +6701,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0002652086810374654</v>
+        <v>-265.2086810288306</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3350451920110992</v>
+        <v>0.3350451920151034</v>
       </c>
     </row>
     <row r="7">
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.40305533607528</v>
+        <v>13.4030553360755</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4101988929775719</v>
+        <v>0.410198892977564</v>
       </c>
     </row>
     <row r="8">
@@ -6727,10 +6727,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5117.261784566948</v>
+        <v>51.17261784566955</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2709196112116106</v>
+        <v>0.2709196112116111</v>
       </c>
     </row>
     <row r="9">
@@ -6740,10 +6740,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-950.1751456133861</v>
+        <v>-9.501751456133817</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6056554613163754</v>
+        <v>0.6056554613163769</v>
       </c>
     </row>
     <row r="10">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1329.194160855751</v>
+        <v>13.29194160855772</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7393441308943931</v>
+        <v>0.7393441308943893</v>
       </c>
     </row>
     <row r="11">
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.61503717228251</v>
+        <v>71.6150371722828</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07726973391447327</v>
+        <v>0.0772697339144721</v>
       </c>
     </row>
   </sheetData>
@@ -6815,10 +6815,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2565.801241406332</v>
+        <v>-2565.801241455395</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3965104856505026</v>
+        <v>0.3965104856412813</v>
       </c>
     </row>
     <row r="3">
@@ -6828,10 +6828,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>270.4931121320731</v>
+        <v>270.4931121328284</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2536598184026215</v>
+        <v>0.2536598184026173</v>
       </c>
     </row>
     <row r="4">
@@ -6841,10 +6841,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>431.0211668673578</v>
+        <v>431.0211668574585</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001512781351721035</v>
+        <v>0.0001512781352254584</v>
       </c>
     </row>
     <row r="5">
@@ -6854,10 +6854,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04948641114106223</v>
+        <v>4.948641114705666</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8316497363003987</v>
+        <v>0.8316497362792991</v>
       </c>
     </row>
     <row r="6">
@@ -6867,10 +6867,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001132112885923782</v>
+        <v>-113.2112886063245</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6245112828179074</v>
+        <v>0.6245112827769699</v>
       </c>
     </row>
     <row r="7">
@@ -6880,10 +6880,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.32591108311689</v>
+        <v>11.32591108311747</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4740343588063786</v>
+        <v>0.4740343588063607</v>
       </c>
     </row>
     <row r="8">
@@ -6893,10 +6893,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>618.0724238187331</v>
+        <v>6.180724238187018</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7951244243263462</v>
+        <v>0.7951244243263553</v>
       </c>
     </row>
     <row r="9">
@@ -6906,10 +6906,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>653.626537923516</v>
+        <v>6.536265379234806</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7436655449473237</v>
+        <v>0.7436655449473371</v>
       </c>
     </row>
     <row r="10">
@@ -6919,10 +6919,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1042.381921327564</v>
+        <v>10.42381921327555</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7891057653447912</v>
+        <v>0.7891057653447929</v>
       </c>
     </row>
     <row r="11">
@@ -6932,10 +6932,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.81989855094341</v>
+        <v>71.81989855094312</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07394607475597625</v>
+        <v>0.07394607475597548</v>
       </c>
     </row>
   </sheetData>
@@ -6981,10 +6981,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3149.175031870312</v>
+        <v>-3149.175032104921</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3190391499014637</v>
+        <v>0.3190391498684552</v>
       </c>
     </row>
     <row r="3">
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>464.2940251811415</v>
+        <v>464.2940252015222</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01292850368266337</v>
+        <v>0.01292850368267269</v>
       </c>
     </row>
     <row r="4">
@@ -7007,10 +7007,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.9626635187666</v>
+        <v>500.9626635276761</v>
       </c>
       <c r="C4" t="n">
-        <v>1.480845264925225e-05</v>
+        <v>1.480845264548946e-05</v>
       </c>
     </row>
     <row r="5">
@@ -7020,10 +7020,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2112096805758267</v>
+        <v>21.12096805835253</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2984184360560401</v>
+        <v>0.2984184360390453</v>
       </c>
     </row>
     <row r="6">
@@ -7033,10 +7033,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0002553145128350143</v>
+        <v>-255.314512868578</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2611091720867272</v>
+        <v>0.2611091720164311</v>
       </c>
     </row>
     <row r="7">
@@ -7046,10 +7046,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.99430362533721</v>
+        <v>1.994303625337025</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8782143804641581</v>
+        <v>0.8782143804641691</v>
       </c>
     </row>
     <row r="8">
@@ -7059,10 +7059,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2874.31365465664</v>
+        <v>28.74313654656651</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2581865786384338</v>
+        <v>0.258186578638433</v>
       </c>
     </row>
     <row r="9">
@@ -7072,10 +7072,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-336.7043854761453</v>
+        <v>-3.367043854761491</v>
       </c>
       <c r="C9" t="n">
-        <v>0.829200138962797</v>
+        <v>0.8292001389627949</v>
       </c>
     </row>
     <row r="10">
@@ -7085,10 +7085,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6787.662142478426</v>
+        <v>67.87662142478436</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1373615929579889</v>
+        <v>0.1373615929579883</v>
       </c>
     </row>
     <row r="11">
@@ -7098,10 +7098,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>54.22897656783687</v>
+        <v>54.2289765678369</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2028738287510248</v>
+        <v>0.2028738287510251</v>
       </c>
     </row>
   </sheetData>
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1940.967100594484</v>
+        <v>-1940.967100531572</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5061612509130347</v>
+        <v>0.5061612509262343</v>
       </c>
     </row>
     <row r="3">
@@ -7160,10 +7160,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>280.2484182567083</v>
+        <v>280.2484182621234</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1233121196581201</v>
+        <v>0.1233121196581338</v>
       </c>
     </row>
     <row r="4">
@@ -7173,10 +7173,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>418.0258477734839</v>
+        <v>418.0258477796559</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000558366416383347</v>
+        <v>0.0005583664162789025</v>
       </c>
     </row>
     <row r="5">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1564192494846776</v>
+        <v>15.64192494873828</v>
       </c>
       <c r="C5" t="n">
-        <v>0.466055714675437</v>
+        <v>0.466055714667303</v>
       </c>
     </row>
     <row r="6">
@@ -7199,10 +7199,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001808094846023768</v>
+        <v>-180.8094846136787</v>
       </c>
       <c r="C6" t="n">
-        <v>0.446525716497983</v>
+        <v>0.4465257164633994</v>
       </c>
     </row>
     <row r="7">
@@ -7212,10 +7212,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.43000486920702</v>
+        <v>15.43000486920701</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2626458123515133</v>
+        <v>0.2626458123515103</v>
       </c>
     </row>
     <row r="8">
@@ -7225,10 +7225,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1202.386812681048</v>
+        <v>12.02386812681083</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6433829195195272</v>
+        <v>0.6433829195195213</v>
       </c>
     </row>
     <row r="9">
@@ -7238,10 +7238,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-547.3216959061856</v>
+        <v>-5.473216959062201</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7585774010616821</v>
+        <v>0.7585774010616674</v>
       </c>
     </row>
     <row r="10">
@@ -7251,10 +7251,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>202.9461724022422</v>
+        <v>2.029461724022276</v>
       </c>
       <c r="C10" t="n">
-        <v>0.958228971484736</v>
+        <v>0.958228971484739</v>
       </c>
     </row>
     <row r="11">
@@ -7267,7 +7267,7 @@
         <v>52.02387515243831</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1485979700631896</v>
+        <v>0.1485979700631906</v>
       </c>
     </row>
   </sheetData>
@@ -7313,10 +7313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3129.443792900893</v>
+        <v>-3129.443793349601</v>
       </c>
       <c r="C2" t="n">
-        <v>0.443525597950731</v>
+        <v>0.4435255978914059</v>
       </c>
     </row>
     <row r="3">
@@ -7326,10 +7326,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>285.9891010173465</v>
+        <v>285.9891010050895</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1366761919969351</v>
+        <v>0.1366761919970509</v>
       </c>
     </row>
     <row r="4">
@@ -7339,10 +7339,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>528.5638657257609</v>
+        <v>528.5638657563957</v>
       </c>
       <c r="C4" t="n">
-        <v>3.196306176483092e-05</v>
+        <v>3.196306173730028e-05</v>
       </c>
     </row>
     <row r="5">
@@ -7352,10 +7352,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1535376473944917</v>
+        <v>15.35376474177699</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5536910519251228</v>
+        <v>0.5536910518616708</v>
       </c>
     </row>
     <row r="6">
@@ -7365,10 +7365,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001241355743203948</v>
+        <v>-124.1355743480117</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6503394161317709</v>
+        <v>0.6503394160489138</v>
       </c>
     </row>
     <row r="7">
@@ -7378,10 +7378,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.2442136790298</v>
+        <v>11.24421367902994</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4807734072222352</v>
+        <v>0.4807734072222303</v>
       </c>
     </row>
     <row r="8">
@@ -7391,10 +7391,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1582.606282715888</v>
+        <v>15.82606282715985</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6862531356096384</v>
+        <v>0.6862531356096249</v>
       </c>
     </row>
     <row r="9">
@@ -7404,10 +7404,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-47.57412963730803</v>
+        <v>-0.4757412963737302</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9796716910614665</v>
+        <v>0.9796716910614388</v>
       </c>
     </row>
     <row r="10">
@@ -7417,10 +7417,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2079.842056533378</v>
+        <v>20.79842056533423</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6352601759948641</v>
+        <v>0.6352601759948594</v>
       </c>
     </row>
     <row r="11">
@@ -7430,7 +7430,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>62.12592905127427</v>
+        <v>62.12592905127428</v>
       </c>
       <c r="C11" t="n">
         <v>0.1647470509007152</v>
@@ -7479,10 +7479,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-689.1325379366808</v>
+        <v>-689.1325381185061</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7897950895204336</v>
+        <v>0.7897950894666098</v>
       </c>
     </row>
     <row r="3">
@@ -7492,10 +7492,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>326.4909805938568</v>
+        <v>326.4909806044523</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0251882062590118</v>
+        <v>0.02518820625899869</v>
       </c>
     </row>
     <row r="4">
@@ -7505,10 +7505,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>452.2505904996353</v>
+        <v>452.2505905148928</v>
       </c>
       <c r="C4" t="n">
-        <v>3.310595897053478e-06</v>
+        <v>3.310595894884039e-06</v>
       </c>
     </row>
     <row r="5">
@@ -7518,10 +7518,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09862430821545753</v>
+        <v>9.862430821738499</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6026462082370541</v>
+        <v>0.6026462082297774</v>
       </c>
     </row>
     <row r="6">
@@ -7531,10 +7531,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.864386186540743e-05</v>
+        <v>-18.64386188019461</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9304398490490534</v>
+        <v>0.9304398489917455</v>
       </c>
     </row>
     <row r="7">
@@ -7544,10 +7544,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.118166447877808</v>
+        <v>7.118166447878192</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5173786769805906</v>
+        <v>0.5173786769805679</v>
       </c>
     </row>
     <row r="8">
@@ -7557,10 +7557,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>249.3395981525725</v>
+        <v>2.493395981525552</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9043911751321865</v>
+        <v>0.9043911751321934</v>
       </c>
     </row>
     <row r="9">
@@ -7570,10 +7570,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>440.1398402225859</v>
+        <v>4.401398402225794</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7647035807245131</v>
+        <v>0.7647035807245166</v>
       </c>
     </row>
     <row r="10">
@@ -7583,10 +7583,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>270.2474545769765</v>
+        <v>2.702474545769931</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9386931920889616</v>
+        <v>0.9386931920889579</v>
       </c>
     </row>
     <row r="11">
@@ -7596,10 +7596,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.61023683747675</v>
+        <v>26.61023683747689</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4255193996763874</v>
+        <v>0.4255193996763855</v>
       </c>
     </row>
   </sheetData>
@@ -7645,10 +7645,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2640.565002964531</v>
+        <v>-2640.565002959358</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3494942429443959</v>
+        <v>0.3494942429452286</v>
       </c>
     </row>
     <row r="3">
@@ -7658,10 +7658,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>241.5045309771211</v>
+        <v>241.5045309785156</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2129483476060231</v>
+        <v>0.212948347606039</v>
       </c>
     </row>
     <row r="4">
@@ -7671,10 +7671,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>609.5294112541667</v>
+        <v>609.5294112413252</v>
       </c>
       <c r="C4" t="n">
-        <v>4.244614734372228e-07</v>
+        <v>4.244614736590739e-07</v>
       </c>
     </row>
     <row r="5">
@@ -7684,10 +7684,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.171726543884772</v>
+        <v>17.172654387886</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3904591669083795</v>
+        <v>0.390459166924501</v>
       </c>
     </row>
     <row r="6">
@@ -7697,10 +7697,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001545609426731285</v>
+        <v>-154.5609426736212</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4765668561856965</v>
+        <v>0.4765668561534796</v>
       </c>
     </row>
     <row r="7">
@@ -7710,10 +7710,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.536545101199888</v>
+        <v>5.536545101200197</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6664002098354906</v>
+        <v>0.666400209835473</v>
       </c>
     </row>
     <row r="8">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>990.0323716412586</v>
+        <v>9.900323716412629</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6780151237980026</v>
+        <v>0.6780151237980014</v>
       </c>
     </row>
     <row r="9">
@@ -7736,10 +7736,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>128.3635618737153</v>
+        <v>1.283635618737179</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9367850802692135</v>
+        <v>0.936785080269212</v>
       </c>
     </row>
     <row r="10">
@@ -7749,10 +7749,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2555.958753298547</v>
+        <v>25.55958753298565</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4604047902170343</v>
+        <v>0.4604047902170316</v>
       </c>
     </row>
     <row r="11">
@@ -7762,10 +7762,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>60.86978483207332</v>
+        <v>60.86978483207312</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1452638387260973</v>
+        <v>0.145263838726098</v>
       </c>
     </row>
   </sheetData>
@@ -7811,10 +7811,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2450.068492471219</v>
+        <v>-2450.068492474277</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3980063891341262</v>
+        <v>0.3980063891335595</v>
       </c>
     </row>
     <row r="3">
@@ -7824,10 +7824,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>252.8389831058812</v>
+        <v>252.8389831282333</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1604988881962707</v>
+        <v>0.1604988881963194</v>
       </c>
     </row>
     <row r="4">
@@ -7837,10 +7837,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>441.1661211094487</v>
+        <v>441.166121081245</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002236296645489116</v>
+        <v>0.000223629664691191</v>
       </c>
     </row>
     <row r="5">
@@ -7850,10 +7850,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08648385790326352</v>
+        <v>8.64838578651738</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6967334855670371</v>
+        <v>0.696733485699241</v>
       </c>
     </row>
     <row r="6">
@@ -7863,10 +7863,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.683175006670956e-05</v>
+        <v>-76.8317500447921</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7652943776401719</v>
+        <v>0.7652943777073089</v>
       </c>
     </row>
     <row r="7">
@@ -7876,10 +7876,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.33723680297639</v>
+        <v>14.33723680297643</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3277172190148666</v>
+        <v>0.3277172190148642</v>
       </c>
     </row>
     <row r="8">
@@ -7889,10 +7889,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>769.5131416942204</v>
+        <v>7.695131416942175</v>
       </c>
       <c r="C8" t="n">
-        <v>0.791577912989669</v>
+        <v>0.7915779129896693</v>
       </c>
     </row>
     <row r="9">
@@ -7902,10 +7902,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>206.7948451424663</v>
+        <v>2.067948451424691</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9006453016922858</v>
+        <v>0.9006453016922844</v>
       </c>
     </row>
     <row r="10">
@@ -7915,7 +7915,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2570.526271151752</v>
+        <v>25.70526271151752</v>
       </c>
       <c r="C10" t="n">
         <v>0.4969096382442147</v>
@@ -7928,10 +7928,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>53.56698693529796</v>
+        <v>53.56698693529805</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1478690700995271</v>
+        <v>0.147869070099526</v>
       </c>
     </row>
   </sheetData>
@@ -7977,10 +7977,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3610.160606885813</v>
+        <v>-3610.16060700895</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2068510110571847</v>
+        <v>0.2068510110427419</v>
       </c>
     </row>
     <row r="3">
@@ -7990,10 +7990,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>259.4762690411014</v>
+        <v>259.4762690142148</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1359162407227432</v>
+        <v>0.1359162407226373</v>
       </c>
     </row>
     <row r="4">
@@ -8003,10 +8003,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>446.1499080931314</v>
+        <v>446.149908091785</v>
       </c>
       <c r="C4" t="n">
-        <v>7.304231189690713e-05</v>
+        <v>7.304231189987519e-05</v>
       </c>
     </row>
     <row r="5">
@@ -8016,10 +8016,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003776337019517184</v>
+        <v>0.3776337034999848</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9855957758828091</v>
+        <v>0.9855957758236844</v>
       </c>
     </row>
     <row r="6">
@@ -8029,10 +8029,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.756673014581189e-06</v>
+        <v>5.756673013738308</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9813172366755686</v>
+        <v>0.981317236678579</v>
       </c>
     </row>
     <row r="7">
@@ -8045,7 +8045,7 @@
         <v>13.50354772163642</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3162943379740771</v>
+        <v>0.3162943379740737</v>
       </c>
     </row>
     <row r="8">
@@ -8055,10 +8055,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-27.38018401032377</v>
+        <v>-0.2738018401032747</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9905984133049817</v>
+        <v>0.9905984133049804</v>
       </c>
     </row>
     <row r="9">
@@ -8068,10 +8068,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>650.0773407194156</v>
+        <v>6.500773407194146</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6983461975518281</v>
+        <v>0.6983461975518285</v>
       </c>
     </row>
     <row r="10">
@@ -8081,10 +8081,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4178.451047272024</v>
+        <v>41.78451047272029</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2772658209658088</v>
+        <v>0.2772658209658083</v>
       </c>
     </row>
     <row r="11">
@@ -8094,10 +8094,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>77.73093680663672</v>
+        <v>77.73093680663668</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03839851173648532</v>
+        <v>0.03839851173648561</v>
       </c>
     </row>
   </sheetData>
@@ -8143,10 +8143,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2372.022581489346</v>
+        <v>-2372.022581694346</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4519701352991189</v>
+        <v>0.4519701352627985</v>
       </c>
     </row>
     <row r="3">
@@ -8156,10 +8156,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>330.0621310439303</v>
+        <v>330.0621309959022</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07804482360893353</v>
+        <v>0.07804482360899123</v>
       </c>
     </row>
     <row r="4">
@@ -8169,10 +8169,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>476.7242690797038</v>
+        <v>476.7242690988793</v>
       </c>
       <c r="C4" t="n">
-        <v>7.070022886039418e-06</v>
+        <v>7.070022882086929e-06</v>
       </c>
     </row>
     <row r="5">
@@ -8182,10 +8182,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07900766440924861</v>
+        <v>7.900766444959324</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6738021217573733</v>
+        <v>0.6738021215973735</v>
       </c>
     </row>
     <row r="6">
@@ -8195,10 +8195,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.984700195436663e-05</v>
+        <v>-29.84700198574583</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8871728391172737</v>
+        <v>0.8871728389979657</v>
       </c>
     </row>
     <row r="7">
@@ -8208,10 +8208,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.04278667235854</v>
+        <v>14.04278667235839</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3654334571396458</v>
+        <v>0.3654334571396511</v>
       </c>
     </row>
     <row r="8">
@@ -8221,10 +8221,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>803.9652645372025</v>
+        <v>8.039652645372282</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7483078563279806</v>
+        <v>0.7483078563279733</v>
       </c>
     </row>
     <row r="9">
@@ -8234,10 +8234,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>408.4216745936455</v>
+        <v>4.084216745936438</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7767745011770036</v>
+        <v>0.7767745011770049</v>
       </c>
     </row>
     <row r="10">
@@ -8247,10 +8247,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-235.3622825722741</v>
+        <v>-2.353622825722596</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9422926494665744</v>
+        <v>0.9422926494665782</v>
       </c>
     </row>
     <row r="11">
@@ -8260,10 +8260,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>49.21663187451074</v>
+        <v>49.2166318745106</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1918866022752406</v>
+        <v>0.1918866022752421</v>
       </c>
     </row>
   </sheetData>
@@ -8309,10 +8309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>485.8378599684261</v>
+        <v>485.8378599430584</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8700236902337761</v>
+        <v>0.8700236902405929</v>
       </c>
     </row>
     <row r="3">
@@ -8322,10 +8322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>187.415238540353</v>
+        <v>187.4152385239789</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2691945651792005</v>
+        <v>0.2691945651791349</v>
       </c>
     </row>
     <row r="4">
@@ -8335,10 +8335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>492.7682805628389</v>
+        <v>492.7682805518634</v>
       </c>
       <c r="C4" t="n">
-        <v>1.254945476946247e-05</v>
+        <v>1.254945477598118e-05</v>
       </c>
     </row>
     <row r="5">
@@ -8348,10 +8348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1952716384269378</v>
+        <v>-19.52716384205206</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4409093169750318</v>
+        <v>0.4409093169890652</v>
       </c>
     </row>
     <row r="6">
@@ -8361,10 +8361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0002528738547063904</v>
+        <v>252.8738546627235</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3415522058015568</v>
+        <v>0.341552205885576</v>
       </c>
     </row>
     <row r="7">
@@ -8374,10 +8374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.465931737197209</v>
+        <v>3.465931737197479</v>
       </c>
       <c r="C7" t="n">
-        <v>0.784504098932103</v>
+        <v>0.7845040989320855</v>
       </c>
     </row>
     <row r="8">
@@ -8387,10 +8387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2207.677777245418</v>
+        <v>-22.07677777245395</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3891547586946942</v>
+        <v>0.3891547586946997</v>
       </c>
     </row>
     <row r="9">
@@ -8400,10 +8400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>738.4071299748111</v>
+        <v>7.384071299747987</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7072554916313415</v>
+        <v>0.7072554916313463</v>
       </c>
     </row>
     <row r="10">
@@ -8413,10 +8413,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1213.670742777137</v>
+        <v>12.13670742777134</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7542949947542119</v>
+        <v>0.754294994754212</v>
       </c>
     </row>
     <row r="11">
@@ -8426,10 +8426,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.32747195643717</v>
+        <v>26.32747195643722</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4699495544306016</v>
+        <v>0.469949554430601</v>
       </c>
     </row>
   </sheetData>
@@ -8475,10 +8475,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3435.019451551326</v>
+        <v>-3435.019451713543</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2229354251965628</v>
+        <v>0.2229354251772339</v>
       </c>
     </row>
     <row r="3">
@@ -8488,10 +8488,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>200.5470154766204</v>
+        <v>200.5470154858288</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1930870951361594</v>
+        <v>0.1930870951361317</v>
       </c>
     </row>
     <row r="4">
@@ -8501,10 +8501,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>501.9414633586755</v>
+        <v>501.9414633670423</v>
       </c>
       <c r="C4" t="n">
-        <v>1.298443039076089e-05</v>
+        <v>1.298443038671932e-05</v>
       </c>
     </row>
     <row r="5">
@@ -8514,10 +8514,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2138398918421932</v>
+        <v>21.38398918595495</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2576596440734145</v>
+        <v>0.2576596440312819</v>
       </c>
     </row>
     <row r="6">
@@ -8527,10 +8527,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0002833686968781681</v>
+        <v>-283.3686968893284</v>
       </c>
       <c r="C6" t="n">
-        <v>0.232543799408723</v>
+        <v>0.2325437993917595</v>
       </c>
     </row>
     <row r="7">
@@ -8540,10 +8540,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.59594525579277</v>
+        <v>15.59594525579251</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1816857761852149</v>
+        <v>0.1816857761852194</v>
       </c>
     </row>
     <row r="8">
@@ -8553,10 +8553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2001.840610398389</v>
+        <v>20.01840610398504</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3643849361863258</v>
+        <v>0.3643849361863073</v>
       </c>
     </row>
     <row r="9">
@@ -8566,10 +8566,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>171.5537142172634</v>
+        <v>1.715537142172039</v>
       </c>
       <c r="C9" t="n">
-        <v>0.903536212528214</v>
+        <v>0.9035362125282476</v>
       </c>
     </row>
     <row r="10">
@@ -8579,10 +8579,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3024.900965438201</v>
+        <v>30.249009654383</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3957201678189648</v>
+        <v>0.3957201678189542</v>
       </c>
     </row>
     <row r="11">
@@ -8592,10 +8592,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>65.15519397194537</v>
+        <v>65.15519397194547</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08790144465042181</v>
+        <v>0.08790144465042096</v>
       </c>
     </row>
   </sheetData>
@@ -8641,10 +8641,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2449.23012512509</v>
+        <v>-2449.230125159814</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3917439376849475</v>
+        <v>0.3917439376785647</v>
       </c>
     </row>
     <row r="3">
@@ -8654,10 +8654,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>364.0050259606427</v>
+        <v>364.005025962564</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04974411211804244</v>
+        <v>0.04974411211803531</v>
       </c>
     </row>
     <row r="4">
@@ -8667,10 +8667,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>521.4097867681094</v>
+        <v>521.409786793997</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001314711875401589</v>
+        <v>0.0001314711874601287</v>
       </c>
     </row>
     <row r="5">
@@ -8680,10 +8680,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2086171248457558</v>
+        <v>20.86171248516249</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3247305291779559</v>
+        <v>0.3247305291634611</v>
       </c>
     </row>
     <row r="6">
@@ -8693,10 +8693,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0002293256094333246</v>
+        <v>-229.325609408097</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3092828233054647</v>
+        <v>0.3092828233502123</v>
       </c>
     </row>
     <row r="7">
@@ -8706,10 +8706,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.500685143998126</v>
+        <v>1.500685143997707</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9147492060519327</v>
+        <v>0.9147492060519566</v>
       </c>
     </row>
     <row r="8">
@@ -8719,10 +8719,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2354.546254628363</v>
+        <v>23.54546254628372</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3752833861119838</v>
+        <v>0.3752833861119832</v>
       </c>
     </row>
     <row r="9">
@@ -8732,10 +8732,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-681.8227465517675</v>
+        <v>-6.818227465517637</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6962663485936679</v>
+        <v>0.6962663485936698</v>
       </c>
     </row>
     <row r="10">
@@ -8745,10 +8745,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5616.966237816979</v>
+        <v>56.16966237816985</v>
       </c>
       <c r="C10" t="n">
-        <v>0.194565603841456</v>
+        <v>0.1945656038414568</v>
       </c>
     </row>
     <row r="11">
@@ -8758,10 +8758,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>54.18660306519961</v>
+        <v>54.18660306519899</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1390342520417314</v>
+        <v>0.1390342520417352</v>
       </c>
     </row>
   </sheetData>
